--- a/Data/RHP.xlsx
+++ b/Data/RHP.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22624"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\mylen\Documents\phD\Data_phD\Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="R:\GitHub\Data_phD\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{886A6D5B-A259-40AC-8056-F351D19E06DD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" firstSheet="2" activeTab="3" xr2:uid="{179720BE-CA61-41F0-A498-A4315332985E}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12720" firstSheet="2" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="RHP" sheetId="1" r:id="rId1"/>
@@ -21,7 +20,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Geothermal gradient'!$B$1:$I$64</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -37,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="885" uniqueCount="495">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="891" uniqueCount="496">
   <si>
     <t>Coal Measures</t>
   </si>
@@ -1522,12 +1521,15 @@
   </si>
   <si>
     <t>Gradient</t>
+  </si>
+  <si>
+    <t>ref</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="16" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1733,7 +1735,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="55">
+  <borders count="56">
     <border>
       <left/>
       <right/>
@@ -2437,13 +2439,26 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="325">
+  <cellXfs count="331">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -3028,111 +3043,6 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="44" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="44" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="45" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -3173,11 +3083,132 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="44" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="44" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="45" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="42" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="1" xr:uid="{51A1C5F3-C7F2-485A-A541-1509DFCBA9C5}"/>
-    <cellStyle name="Normal 3" xfId="2" xr:uid="{362DB8B7-5267-4036-ABF9-2066ED0ED1F5}"/>
+    <cellStyle name="Normal 2" xfId="1"/>
+    <cellStyle name="Normal 3" xfId="2"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -3735,38 +3766,38 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4B3ACB6C-A6D4-41DC-A495-612800A7CCCC}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:AG76"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="22.88671875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="30.5546875" style="1" customWidth="1"/>
-    <col min="4" max="4" width="20.21875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="17.21875" style="27" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.21875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15.5546875" customWidth="1"/>
-    <col min="9" max="9" width="4.44140625" customWidth="1"/>
+    <col min="2" max="2" width="22.85546875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="30.5703125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="20.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.28515625" style="27" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.5703125" customWidth="1"/>
+    <col min="9" max="9" width="4.42578125" customWidth="1"/>
     <col min="10" max="10" width="12" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="13.21875" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="9.33203125" customWidth="1"/>
-    <col min="14" max="14" width="28.6640625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.88671875" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.44140625" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="13.88671875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="9.28515625" customWidth="1"/>
+    <col min="14" max="14" width="28.7109375" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="13.85546875" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="14" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="18.33203125" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="32.109375" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="21.109375" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="18.28515625" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="32.140625" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="21.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:33" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="2" spans="2:33" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:33" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="2:33" x14ac:dyDescent="0.25">
       <c r="B2" s="38" t="s">
         <v>37</v>
       </c>
@@ -3820,18 +3851,18 @@
       <c r="Y2" s="146" t="s">
         <v>116</v>
       </c>
-      <c r="Z2" s="273" t="s">
+      <c r="Z2" s="291" t="s">
         <v>392</v>
       </c>
-      <c r="AA2" s="274"/>
-      <c r="AB2" s="274"/>
-      <c r="AC2" s="274"/>
-      <c r="AD2" s="274"/>
-      <c r="AE2" s="274"/>
-      <c r="AF2" s="274"/>
-      <c r="AG2" s="275"/>
-    </row>
-    <row r="3" spans="2:33" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="AA2" s="292"/>
+      <c r="AB2" s="292"/>
+      <c r="AC2" s="292"/>
+      <c r="AD2" s="292"/>
+      <c r="AE2" s="292"/>
+      <c r="AF2" s="292"/>
+      <c r="AG2" s="293"/>
+    </row>
+    <row r="3" spans="2:33" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B3" s="44" t="s">
         <v>55</v>
       </c>
@@ -3897,7 +3928,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="4" spans="2:33" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="2:33" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B4" s="44" t="s">
         <v>56</v>
       </c>
@@ -3910,12 +3941,12 @@
       <c r="F4" s="50"/>
       <c r="G4" s="46"/>
       <c r="H4" s="46"/>
-      <c r="I4" s="278" t="s">
+      <c r="I4" s="296" t="s">
         <v>18</v>
       </c>
-      <c r="J4" s="279"/>
-      <c r="K4" s="279"/>
-      <c r="L4" s="280"/>
+      <c r="J4" s="297"/>
+      <c r="K4" s="297"/>
+      <c r="L4" s="298"/>
       <c r="N4" s="73" t="s">
         <v>25</v>
       </c>
@@ -3964,7 +3995,7 @@
       </c>
       <c r="AG4" s="143"/>
     </row>
-    <row r="5" spans="2:33" s="1" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="2:33" s="1" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B5" s="32" t="s">
         <v>5</v>
       </c>
@@ -3992,10 +4023,10 @@
       <c r="J5" s="34" t="s">
         <v>57</v>
       </c>
-      <c r="K5" s="285" t="s">
+      <c r="K5" s="303" t="s">
         <v>16</v>
       </c>
-      <c r="L5" s="286"/>
+      <c r="L5" s="304"/>
       <c r="N5" s="73" t="s">
         <v>26</v>
       </c>
@@ -4032,8 +4063,8 @@
       </c>
       <c r="AG5" s="118"/>
     </row>
-    <row r="6" spans="2:33" x14ac:dyDescent="0.3">
-      <c r="B6" s="283" t="s">
+    <row r="6" spans="2:33" x14ac:dyDescent="0.25">
+      <c r="B6" s="301" t="s">
         <v>0</v>
       </c>
       <c r="C6" s="26" t="s">
@@ -4103,8 +4134,8 @@
       </c>
       <c r="AG6" s="121"/>
     </row>
-    <row r="7" spans="2:33" x14ac:dyDescent="0.3">
-      <c r="B7" s="283"/>
+    <row r="7" spans="2:33" x14ac:dyDescent="0.25">
+      <c r="B7" s="301"/>
       <c r="C7" s="26">
         <f>1500*$G$2</f>
         <v>457.20000000000005</v>
@@ -4177,8 +4208,8 @@
       <c r="AF7" s="115"/>
       <c r="AG7" s="118"/>
     </row>
-    <row r="8" spans="2:33" x14ac:dyDescent="0.3">
-      <c r="B8" s="283"/>
+    <row r="8" spans="2:33" x14ac:dyDescent="0.25">
+      <c r="B8" s="301"/>
       <c r="C8" s="16"/>
       <c r="D8" s="4" t="s">
         <v>54</v>
@@ -4253,8 +4284,8 @@
         <v>70</v>
       </c>
     </row>
-    <row r="9" spans="2:33" x14ac:dyDescent="0.3">
-      <c r="B9" s="283"/>
+    <row r="9" spans="2:33" x14ac:dyDescent="0.25">
+      <c r="B9" s="301"/>
       <c r="C9" s="16" t="s">
         <v>38</v>
       </c>
@@ -4335,7 +4366,7 @@
       <c r="AF9" s="115"/>
       <c r="AG9" s="118"/>
     </row>
-    <row r="10" spans="2:33" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="2:33" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B10" s="23" t="s">
         <v>22</v>
       </c>
@@ -4403,7 +4434,7 @@
       </c>
       <c r="AG10" s="118"/>
     </row>
-    <row r="11" spans="2:33" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="2:33" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B11" s="23"/>
       <c r="C11" s="16"/>
       <c r="D11" s="4"/>
@@ -4421,16 +4452,16 @@
       <c r="L11" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="N11" s="272" t="s">
+      <c r="N11" s="290" t="s">
         <v>77</v>
       </c>
-      <c r="O11" s="272"/>
-      <c r="P11" s="272"/>
-      <c r="Q11" s="272"/>
-      <c r="R11" s="272"/>
-      <c r="S11" s="272"/>
-      <c r="T11" s="272"/>
-      <c r="U11" s="272"/>
+      <c r="O11" s="290"/>
+      <c r="P11" s="290"/>
+      <c r="Q11" s="290"/>
+      <c r="R11" s="290"/>
+      <c r="S11" s="290"/>
+      <c r="T11" s="290"/>
+      <c r="U11" s="290"/>
       <c r="Y11" s="117" t="s">
         <v>23</v>
       </c>
@@ -4449,7 +4480,7 @@
       </c>
       <c r="AG11" s="118"/>
     </row>
-    <row r="12" spans="2:33" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="2:33" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B12" s="219"/>
       <c r="C12" s="220">
         <f>$C$4*C10</f>
@@ -4495,8 +4526,8 @@
       </c>
       <c r="AG12" s="139"/>
     </row>
-    <row r="13" spans="2:33" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B13" s="284" t="s">
+    <row r="13" spans="2:33" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B13" s="302" t="s">
         <v>1</v>
       </c>
       <c r="C13" s="17"/>
@@ -4524,8 +4555,8 @@
         <v>67</v>
       </c>
     </row>
-    <row r="14" spans="2:33" x14ac:dyDescent="0.3">
-      <c r="B14" s="284"/>
+    <row r="14" spans="2:33" x14ac:dyDescent="0.25">
+      <c r="B14" s="302"/>
       <c r="C14" s="17"/>
       <c r="D14" s="5" t="s">
         <v>49</v>
@@ -4590,8 +4621,8 @@
         <v>92</v>
       </c>
     </row>
-    <row r="15" spans="2:33" x14ac:dyDescent="0.3">
-      <c r="B15" s="284"/>
+    <row r="15" spans="2:33" x14ac:dyDescent="0.25">
+      <c r="B15" s="302"/>
       <c r="C15" s="17"/>
       <c r="D15" s="5" t="s">
         <v>54</v>
@@ -4650,8 +4681,8 @@
         <v>1.8</v>
       </c>
     </row>
-    <row r="16" spans="2:33" x14ac:dyDescent="0.3">
-      <c r="B16" s="284"/>
+    <row r="16" spans="2:33" x14ac:dyDescent="0.25">
+      <c r="B16" s="302"/>
       <c r="C16" s="17" t="s">
         <v>38</v>
       </c>
@@ -4707,7 +4738,7 @@
       </c>
       <c r="AA16" s="83"/>
     </row>
-    <row r="17" spans="2:27" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="2:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B17" s="24" t="s">
         <v>22</v>
       </c>
@@ -4763,7 +4794,7 @@
       </c>
       <c r="AA17" s="83"/>
     </row>
-    <row r="18" spans="2:27" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="2:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B18" s="211"/>
       <c r="C18" s="212">
         <f>$C$4*C17</f>
@@ -4819,8 +4850,8 @@
       </c>
       <c r="AA18" s="83"/>
     </row>
-    <row r="19" spans="2:27" x14ac:dyDescent="0.3">
-      <c r="B19" s="281" t="s">
+    <row r="19" spans="2:27" x14ac:dyDescent="0.25">
+      <c r="B19" s="299" t="s">
         <v>4</v>
       </c>
       <c r="C19" s="25" t="s">
@@ -4883,8 +4914,8 @@
       <c r="Z19" s="78"/>
       <c r="AA19" s="83"/>
     </row>
-    <row r="20" spans="2:27" x14ac:dyDescent="0.3">
-      <c r="B20" s="281"/>
+    <row r="20" spans="2:27" x14ac:dyDescent="0.25">
+      <c r="B20" s="299"/>
       <c r="C20" s="18">
         <f>S5</f>
         <v>165</v>
@@ -4942,7 +4973,7 @@
       <c r="Z20" s="78"/>
       <c r="AA20" s="83"/>
     </row>
-    <row r="21" spans="2:27" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B21" s="3" t="s">
         <v>2</v>
       </c>
@@ -5012,8 +5043,8 @@
       </c>
       <c r="AA21" s="83"/>
     </row>
-    <row r="22" spans="2:27" x14ac:dyDescent="0.3">
-      <c r="B22" s="281" t="s">
+    <row r="22" spans="2:27" x14ac:dyDescent="0.25">
+      <c r="B22" s="299" t="s">
         <v>3</v>
       </c>
       <c r="C22" s="18">
@@ -5079,8 +5110,8 @@
       </c>
       <c r="AA22" s="83"/>
     </row>
-    <row r="23" spans="2:27" x14ac:dyDescent="0.3">
-      <c r="B23" s="281"/>
+    <row r="23" spans="2:27" x14ac:dyDescent="0.25">
+      <c r="B23" s="299"/>
       <c r="C23" s="18">
         <f>S7</f>
         <v>85</v>
@@ -5147,8 +5178,8 @@
       <c r="Z23" s="78"/>
       <c r="AA23" s="83"/>
     </row>
-    <row r="24" spans="2:27" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B24" s="281"/>
+    <row r="24" spans="2:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B24" s="299"/>
       <c r="C24" s="198"/>
       <c r="D24" s="6"/>
       <c r="E24" s="203"/>
@@ -5192,7 +5223,7 @@
       <c r="Z24" s="78"/>
       <c r="AA24" s="83"/>
     </row>
-    <row r="25" spans="2:27" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="2:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B25" s="204"/>
       <c r="C25" s="205">
         <f>C4*(C20+C22+C23)</f>
@@ -5253,8 +5284,8 @@
       <c r="Z25" s="78"/>
       <c r="AA25" s="83"/>
     </row>
-    <row r="26" spans="2:27" x14ac:dyDescent="0.3">
-      <c r="B26" s="282" t="s">
+    <row r="26" spans="2:27" x14ac:dyDescent="0.25">
+      <c r="B26" s="300" t="s">
         <v>42</v>
       </c>
       <c r="C26" s="19"/>
@@ -5308,8 +5339,8 @@
       <c r="Z26" s="78"/>
       <c r="AA26" s="83"/>
     </row>
-    <row r="27" spans="2:27" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B27" s="282"/>
+    <row r="27" spans="2:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B27" s="300"/>
       <c r="C27" s="19"/>
       <c r="D27" s="7" t="s">
         <v>53</v>
@@ -5363,8 +5394,8 @@
         <v>1.7</v>
       </c>
     </row>
-    <row r="28" spans="2:27" x14ac:dyDescent="0.3">
-      <c r="B28" s="282"/>
+    <row r="28" spans="2:27" x14ac:dyDescent="0.25">
+      <c r="B28" s="300"/>
       <c r="C28" s="19"/>
       <c r="D28" s="7" t="s">
         <v>48</v>
@@ -5394,8 +5425,8 @@
         <v>15</v>
       </c>
     </row>
-    <row r="29" spans="2:27" x14ac:dyDescent="0.3">
-      <c r="B29" s="282"/>
+    <row r="29" spans="2:27" x14ac:dyDescent="0.25">
+      <c r="B29" s="300"/>
       <c r="C29" s="19">
         <f>3800*G2-(C10+C17+C20+C22+C23)+600</f>
         <v>873.24</v>
@@ -5428,8 +5459,8 @@
         <v>14</v>
       </c>
     </row>
-    <row r="30" spans="2:27" x14ac:dyDescent="0.3">
-      <c r="B30" s="282"/>
+    <row r="30" spans="2:27" x14ac:dyDescent="0.25">
+      <c r="B30" s="300"/>
       <c r="C30" s="19"/>
       <c r="D30" s="7" t="s">
         <v>54</v>
@@ -5459,8 +5490,8 @@
         <v>15</v>
       </c>
     </row>
-    <row r="31" spans="2:27" x14ac:dyDescent="0.3">
-      <c r="B31" s="282"/>
+    <row r="31" spans="2:27" x14ac:dyDescent="0.25">
+      <c r="B31" s="300"/>
       <c r="C31" s="19"/>
       <c r="D31" s="7" t="s">
         <v>50</v>
@@ -5490,8 +5521,8 @@
         <v>15</v>
       </c>
     </row>
-    <row r="32" spans="2:27" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B32" s="282"/>
+    <row r="32" spans="2:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B32" s="300"/>
       <c r="C32" s="19"/>
       <c r="D32" s="7" t="s">
         <v>51</v>
@@ -5519,7 +5550,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="33" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="33" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B33" s="225"/>
       <c r="C33" s="226">
         <f>C4*C29</f>
@@ -5549,16 +5580,16 @@
         <v>60</v>
       </c>
     </row>
-    <row r="34" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="34" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B34" s="51" t="s">
         <v>47</v>
       </c>
       <c r="C34" s="52"/>
-      <c r="D34" s="276" t="s">
+      <c r="D34" s="294" t="s">
         <v>59</v>
       </c>
-      <c r="E34" s="277"/>
-      <c r="F34" s="277"/>
+      <c r="E34" s="295"/>
+      <c r="F34" s="295"/>
       <c r="G34" s="55">
         <f>G12+G18+G25</f>
         <v>85657.801606295427</v>
@@ -5571,7 +5602,7 @@
       <c r="K34" s="53"/>
       <c r="L34" s="54"/>
     </row>
-    <row r="35" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="35" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B35" s="58" t="s">
         <v>64</v>
       </c>
@@ -5586,13 +5617,13 @@
       <c r="K35" s="60"/>
       <c r="L35" s="60"/>
     </row>
-    <row r="37" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="37" spans="2:12" x14ac:dyDescent="0.25">
       <c r="J37" s="66"/>
     </row>
-    <row r="38" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="38" spans="2:12" x14ac:dyDescent="0.25">
       <c r="J38" s="65"/>
     </row>
-    <row r="76" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="76" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E76"/>
     </row>
   </sheetData>
@@ -5615,7 +5646,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A1EF0D57-A3E1-49F6-ABFD-66A997698F81}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr filterMode="1"/>
   <dimension ref="A1:L85"/>
   <sheetViews>
@@ -5623,19 +5654,19 @@
       <selection activeCell="L44" sqref="L44"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="20.21875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="20.28515625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8.5546875" customWidth="1"/>
-    <col min="2" max="2" width="19.109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="6.44140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="8.5703125" customWidth="1"/>
+    <col min="2" max="2" width="19.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="6.42578125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="6" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="6.5546875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="5.44140625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="6.6640625" customWidth="1"/>
+    <col min="8" max="8" width="6.5703125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="5.42578125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="6.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:11" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="89"/>
       <c r="B1" s="90" t="s">
         <v>116</v>
@@ -5666,7 +5697,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="2" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="87"/>
       <c r="B2" s="92" t="s">
         <v>124</v>
@@ -5697,7 +5728,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="3" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="87"/>
       <c r="B3" s="94" t="s">
         <v>124</v>
@@ -5728,7 +5759,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="4" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="87"/>
       <c r="B4" s="92" t="s">
         <v>124</v>
@@ -5759,7 +5790,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="5" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="87"/>
       <c r="B5" s="94" t="s">
         <v>140</v>
@@ -5790,7 +5821,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="6" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="87"/>
       <c r="B6" s="92" t="s">
         <v>147</v>
@@ -5821,7 +5852,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="7" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="87"/>
       <c r="B7" s="94" t="s">
         <v>152</v>
@@ -5850,7 +5881,7 @@
       <c r="J7" s="87"/>
       <c r="K7" s="87"/>
     </row>
-    <row r="8" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="87"/>
       <c r="B8" s="92" t="s">
         <v>155</v>
@@ -5879,7 +5910,7 @@
       <c r="J8" s="87"/>
       <c r="K8" s="87"/>
     </row>
-    <row r="9" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="87"/>
       <c r="B9" s="94" t="s">
         <v>158</v>
@@ -5908,7 +5939,7 @@
       <c r="J9" s="87"/>
       <c r="K9" s="87"/>
     </row>
-    <row r="10" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="87"/>
       <c r="B10" s="92" t="s">
         <v>163</v>
@@ -5937,7 +5968,7 @@
       <c r="J10" s="87"/>
       <c r="K10" s="87"/>
     </row>
-    <row r="11" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="87"/>
       <c r="B11" s="94" t="s">
         <v>167</v>
@@ -5966,7 +5997,7 @@
       <c r="J11" s="87"/>
       <c r="K11" s="87"/>
     </row>
-    <row r="12" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="87"/>
       <c r="B12" s="92" t="s">
         <v>172</v>
@@ -5995,7 +6026,7 @@
       <c r="J12" s="87"/>
       <c r="K12" s="87"/>
     </row>
-    <row r="13" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="87"/>
       <c r="B13" s="94" t="s">
         <v>176</v>
@@ -6024,7 +6055,7 @@
       <c r="J13" s="87"/>
       <c r="K13" s="87"/>
     </row>
-    <row r="14" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="87"/>
       <c r="B14" s="92" t="s">
         <v>181</v>
@@ -6053,7 +6084,7 @@
       <c r="J14" s="87"/>
       <c r="K14" s="87"/>
     </row>
-    <row r="15" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="87"/>
       <c r="B15" s="94" t="s">
         <v>186</v>
@@ -6082,7 +6113,7 @@
       <c r="J15" s="87"/>
       <c r="K15" s="87"/>
     </row>
-    <row r="16" spans="1:11" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:11" ht="30.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="87"/>
       <c r="B16" s="92" t="s">
         <v>190</v>
@@ -6111,7 +6142,7 @@
       <c r="J16" s="87"/>
       <c r="K16" s="87"/>
     </row>
-    <row r="17" spans="2:9" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="2:9" ht="30.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B17" s="94" t="s">
         <v>195</v>
       </c>
@@ -6137,7 +6168,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="18" spans="2:9" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="2:9" ht="30.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B18" s="92" t="s">
         <v>199</v>
       </c>
@@ -6163,7 +6194,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="19" spans="2:9" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="2:9" ht="30.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B19" s="94" t="s">
         <v>203</v>
       </c>
@@ -6189,7 +6220,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="20" spans="2:9" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="2:9" ht="30.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B20" s="92" t="s">
         <v>207</v>
       </c>
@@ -6215,7 +6246,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="21" spans="2:9" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="2:9" ht="30.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B21" s="94" t="s">
         <v>210</v>
       </c>
@@ -6241,7 +6272,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="22" spans="2:9" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="2:9" ht="30.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B22" s="92" t="s">
         <v>213</v>
       </c>
@@ -6267,7 +6298,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="23" spans="2:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B23" s="94" t="s">
         <v>216</v>
       </c>
@@ -6293,7 +6324,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="24" spans="2:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B24" s="92" t="s">
         <v>218</v>
       </c>
@@ -6319,7 +6350,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="25" spans="2:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B25" s="94" t="s">
         <v>221</v>
       </c>
@@ -6345,7 +6376,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="26" spans="2:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B26" s="92" t="s">
         <v>224</v>
       </c>
@@ -6371,7 +6402,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="27" spans="2:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="27" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B27" s="94" t="s">
         <v>228</v>
       </c>
@@ -6397,7 +6428,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="28" spans="2:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B28" s="92" t="s">
         <v>231</v>
       </c>
@@ -6423,7 +6454,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="29" spans="2:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="29" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B29" s="94" t="s">
         <v>234</v>
       </c>
@@ -6449,7 +6480,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="30" spans="2:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="30" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B30" s="92" t="s">
         <v>238</v>
       </c>
@@ -6475,7 +6506,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="31" spans="2:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="31" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B31" s="94" t="s">
         <v>241</v>
       </c>
@@ -6501,7 +6532,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="32" spans="2:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="32" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B32" s="92" t="s">
         <v>245</v>
       </c>
@@ -6527,7 +6558,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="33" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="33" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B33" s="94" t="s">
         <v>249</v>
       </c>
@@ -6553,7 +6584,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="34" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="34" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B34" s="92" t="s">
         <v>253</v>
       </c>
@@ -6579,7 +6610,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="35" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="35" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B35" s="94" t="s">
         <v>257</v>
       </c>
@@ -6605,7 +6636,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="36" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="36" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B36" s="92" t="s">
         <v>262</v>
       </c>
@@ -6631,7 +6662,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="37" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="37" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B37" s="94" t="s">
         <v>267</v>
       </c>
@@ -6657,7 +6688,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="38" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="38" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B38" s="92" t="s">
         <v>270</v>
       </c>
@@ -6683,7 +6714,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="39" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="39" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B39" s="94" t="s">
         <v>274</v>
       </c>
@@ -6707,7 +6738,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="40" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="40" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B40" s="92" t="s">
         <v>276</v>
       </c>
@@ -6735,7 +6766,7 @@
       <c r="K40" s="102"/>
       <c r="L40" s="102"/>
     </row>
-    <row r="41" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="41" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B41" s="160" t="s">
         <v>278</v>
       </c>
@@ -6763,7 +6794,7 @@
       <c r="K41" s="102"/>
       <c r="L41" s="102"/>
     </row>
-    <row r="42" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="42" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B42" s="160" t="s">
         <v>281</v>
       </c>
@@ -6791,7 +6822,7 @@
       <c r="K42" s="102"/>
       <c r="L42" s="102"/>
     </row>
-    <row r="43" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="43" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B43" s="94" t="s">
         <v>285</v>
       </c>
@@ -6819,7 +6850,7 @@
       <c r="K43" s="102"/>
       <c r="L43" s="102"/>
     </row>
-    <row r="44" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="44" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B44" s="92" t="s">
         <v>288</v>
       </c>
@@ -6847,7 +6878,7 @@
       <c r="K44" s="102"/>
       <c r="L44" s="102"/>
     </row>
-    <row r="45" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="45" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B45" s="160" t="s">
         <v>292</v>
       </c>
@@ -6875,7 +6906,7 @@
       <c r="K45" s="102"/>
       <c r="L45" s="102"/>
     </row>
-    <row r="46" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="46" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B46" s="160" t="s">
         <v>296</v>
       </c>
@@ -6903,7 +6934,7 @@
       <c r="K46" s="102"/>
       <c r="L46" s="102"/>
     </row>
-    <row r="47" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="47" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B47" s="94" t="s">
         <v>298</v>
       </c>
@@ -6931,7 +6962,7 @@
       <c r="K47" s="102"/>
       <c r="L47" s="102"/>
     </row>
-    <row r="48" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="48" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B48" s="92" t="s">
         <v>301</v>
       </c>
@@ -6959,7 +6990,7 @@
       <c r="K48" s="152"/>
       <c r="L48" s="102"/>
     </row>
-    <row r="49" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="49" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B49" s="94" t="s">
         <v>304</v>
       </c>
@@ -6987,7 +7018,7 @@
       <c r="K49" s="102"/>
       <c r="L49" s="102"/>
     </row>
-    <row r="50" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="50" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B50" s="92" t="s">
         <v>307</v>
       </c>
@@ -7015,7 +7046,7 @@
       <c r="K50" s="102"/>
       <c r="L50" s="102"/>
     </row>
-    <row r="51" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="51" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B51" s="94" t="s">
         <v>310</v>
       </c>
@@ -7043,7 +7074,7 @@
       <c r="K51" s="102"/>
       <c r="L51" s="102"/>
     </row>
-    <row r="52" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="52" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B52" s="92" t="s">
         <v>313</v>
       </c>
@@ -7073,7 +7104,7 @@
       </c>
       <c r="L52" s="102"/>
     </row>
-    <row r="53" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="53" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B53" s="160" t="s">
         <v>316</v>
       </c>
@@ -7102,7 +7133,7 @@
         <v>397</v>
       </c>
     </row>
-    <row r="54" spans="2:12" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="54" spans="2:12" ht="30.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B54" s="92" t="s">
         <v>319</v>
       </c>
@@ -7128,7 +7159,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="55" spans="2:12" ht="29.4" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="55" spans="2:12" ht="30.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B55" s="94" t="s">
         <v>322</v>
       </c>
@@ -7154,7 +7185,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="56" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="56" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B56" s="92" t="s">
         <v>325</v>
       </c>
@@ -7183,7 +7214,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="57" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="57" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B57" s="94" t="s">
         <v>327</v>
       </c>
@@ -7213,7 +7244,7 @@
         <v>24.185714285714283</v>
       </c>
     </row>
-    <row r="58" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="58" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B58" s="92" t="s">
         <v>330</v>
       </c>
@@ -7243,7 +7274,7 @@
         <v>25.74</v>
       </c>
     </row>
-    <row r="59" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="59" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B59" s="160" t="s">
         <v>334</v>
       </c>
@@ -7273,7 +7304,7 @@
         <v>23.560869565217395</v>
       </c>
     </row>
-    <row r="60" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="60" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B60" s="92" t="s">
         <v>338</v>
       </c>
@@ -7299,7 +7330,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="61" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="61" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B61" s="160" t="s">
         <v>342</v>
       </c>
@@ -7325,7 +7356,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="62" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="62" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B62" s="92" t="s">
         <v>344</v>
       </c>
@@ -7351,7 +7382,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="63" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="63" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B63" s="94" t="s">
         <v>346</v>
       </c>
@@ -7377,7 +7408,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="64" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="64" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B64" s="92" t="s">
         <v>351</v>
       </c>
@@ -7403,250 +7434,250 @@
         <v>130</v>
       </c>
     </row>
-    <row r="66" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A66" s="287" t="s">
+    <row r="66" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A66" s="305" t="s">
         <v>354</v>
       </c>
-      <c r="B66" s="287"/>
-      <c r="C66" s="287"/>
-      <c r="D66" s="287"/>
-      <c r="E66" s="287"/>
-      <c r="F66" s="287"/>
-      <c r="G66" s="287"/>
-      <c r="H66" s="287"/>
-      <c r="I66" s="287"/>
-      <c r="J66" s="287"/>
-    </row>
-    <row r="67" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A67" s="287"/>
-      <c r="B67" s="287"/>
-      <c r="C67" s="287"/>
-      <c r="D67" s="287"/>
-      <c r="E67" s="287"/>
-      <c r="F67" s="287"/>
-      <c r="G67" s="287"/>
-      <c r="H67" s="287"/>
-      <c r="I67" s="287"/>
-      <c r="J67" s="287"/>
-    </row>
-    <row r="68" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A68" s="287"/>
-      <c r="B68" s="287"/>
-      <c r="C68" s="287"/>
-      <c r="D68" s="287"/>
-      <c r="E68" s="287"/>
-      <c r="F68" s="287"/>
-      <c r="G68" s="287"/>
-      <c r="H68" s="287"/>
-      <c r="I68" s="287"/>
-      <c r="J68" s="287"/>
-    </row>
-    <row r="69" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A69" s="287"/>
-      <c r="B69" s="287"/>
-      <c r="C69" s="287"/>
-      <c r="D69" s="287"/>
-      <c r="E69" s="287"/>
-      <c r="F69" s="287"/>
-      <c r="G69" s="287"/>
-      <c r="H69" s="287"/>
-      <c r="I69" s="287"/>
-      <c r="J69" s="287"/>
-    </row>
-    <row r="70" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A70" s="287"/>
-      <c r="B70" s="287"/>
-      <c r="C70" s="287"/>
-      <c r="D70" s="287"/>
-      <c r="E70" s="287"/>
-      <c r="F70" s="287"/>
-      <c r="G70" s="287"/>
-      <c r="H70" s="287"/>
-      <c r="I70" s="287"/>
-      <c r="J70" s="287"/>
-    </row>
-    <row r="71" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A71" s="287"/>
-      <c r="B71" s="287"/>
-      <c r="C71" s="287"/>
-      <c r="D71" s="287"/>
-      <c r="E71" s="287"/>
-      <c r="F71" s="287"/>
-      <c r="G71" s="287"/>
-      <c r="H71" s="287"/>
-      <c r="I71" s="287"/>
-      <c r="J71" s="287"/>
-    </row>
-    <row r="72" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A72" s="287"/>
-      <c r="B72" s="287"/>
-      <c r="C72" s="287"/>
-      <c r="D72" s="287"/>
-      <c r="E72" s="287"/>
-      <c r="F72" s="287"/>
-      <c r="G72" s="287"/>
-      <c r="H72" s="287"/>
-      <c r="I72" s="287"/>
-      <c r="J72" s="287"/>
-    </row>
-    <row r="73" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A73" s="287"/>
-      <c r="B73" s="287"/>
-      <c r="C73" s="287"/>
-      <c r="D73" s="287"/>
-      <c r="E73" s="287"/>
-      <c r="F73" s="287"/>
-      <c r="G73" s="287"/>
-      <c r="H73" s="287"/>
-      <c r="I73" s="287"/>
-      <c r="J73" s="287"/>
-    </row>
-    <row r="74" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A74" s="287"/>
-      <c r="B74" s="287"/>
-      <c r="C74" s="287"/>
-      <c r="D74" s="287"/>
-      <c r="E74" s="287"/>
-      <c r="F74" s="287"/>
-      <c r="G74" s="287"/>
-      <c r="H74" s="287"/>
-      <c r="I74" s="287"/>
-      <c r="J74" s="287"/>
-    </row>
-    <row r="75" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A75" s="287"/>
-      <c r="B75" s="287"/>
-      <c r="C75" s="287"/>
-      <c r="D75" s="287"/>
-      <c r="E75" s="287"/>
-      <c r="F75" s="287"/>
-      <c r="G75" s="287"/>
-      <c r="H75" s="287"/>
-      <c r="I75" s="287"/>
-      <c r="J75" s="287"/>
-    </row>
-    <row r="76" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A76" s="287"/>
-      <c r="B76" s="287"/>
-      <c r="C76" s="287"/>
-      <c r="D76" s="287"/>
-      <c r="E76" s="287"/>
-      <c r="F76" s="287"/>
-      <c r="G76" s="287"/>
-      <c r="H76" s="287"/>
-      <c r="I76" s="287"/>
-      <c r="J76" s="287"/>
-    </row>
-    <row r="77" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A77" s="287"/>
-      <c r="B77" s="287"/>
-      <c r="C77" s="287"/>
-      <c r="D77" s="287"/>
-      <c r="E77" s="287"/>
-      <c r="F77" s="287"/>
-      <c r="G77" s="287"/>
-      <c r="H77" s="287"/>
-      <c r="I77" s="287"/>
-      <c r="J77" s="287"/>
-    </row>
-    <row r="78" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A78" s="287"/>
-      <c r="B78" s="287"/>
-      <c r="C78" s="287"/>
-      <c r="D78" s="287"/>
-      <c r="E78" s="287"/>
-      <c r="F78" s="287"/>
-      <c r="G78" s="287"/>
-      <c r="H78" s="287"/>
-      <c r="I78" s="287"/>
-      <c r="J78" s="287"/>
-    </row>
-    <row r="79" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A79" s="287"/>
-      <c r="B79" s="287"/>
-      <c r="C79" s="287"/>
-      <c r="D79" s="287"/>
-      <c r="E79" s="287"/>
-      <c r="F79" s="287"/>
-      <c r="G79" s="287"/>
-      <c r="H79" s="287"/>
-      <c r="I79" s="287"/>
-      <c r="J79" s="287"/>
-    </row>
-    <row r="80" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A80" s="287"/>
-      <c r="B80" s="287"/>
-      <c r="C80" s="287"/>
-      <c r="D80" s="287"/>
-      <c r="E80" s="287"/>
-      <c r="F80" s="287"/>
-      <c r="G80" s="287"/>
-      <c r="H80" s="287"/>
-      <c r="I80" s="287"/>
-      <c r="J80" s="287"/>
-    </row>
-    <row r="81" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A81" s="287"/>
-      <c r="B81" s="287"/>
-      <c r="C81" s="287"/>
-      <c r="D81" s="287"/>
-      <c r="E81" s="287"/>
-      <c r="F81" s="287"/>
-      <c r="G81" s="287"/>
-      <c r="H81" s="287"/>
-      <c r="I81" s="287"/>
-      <c r="J81" s="287"/>
-    </row>
-    <row r="82" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A82" s="287"/>
-      <c r="B82" s="287"/>
-      <c r="C82" s="287"/>
-      <c r="D82" s="287"/>
-      <c r="E82" s="287"/>
-      <c r="F82" s="287"/>
-      <c r="G82" s="287"/>
-      <c r="H82" s="287"/>
-      <c r="I82" s="287"/>
-      <c r="J82" s="287"/>
-    </row>
-    <row r="83" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A83" s="287"/>
-      <c r="B83" s="287"/>
-      <c r="C83" s="287"/>
-      <c r="D83" s="287"/>
-      <c r="E83" s="287"/>
-      <c r="F83" s="287"/>
-      <c r="G83" s="287"/>
-      <c r="H83" s="287"/>
-      <c r="I83" s="287"/>
-      <c r="J83" s="287"/>
-    </row>
-    <row r="84" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A84" s="287"/>
-      <c r="B84" s="287"/>
-      <c r="C84" s="287"/>
-      <c r="D84" s="287"/>
-      <c r="E84" s="287"/>
-      <c r="F84" s="287"/>
-      <c r="G84" s="287"/>
-      <c r="H84" s="287"/>
-      <c r="I84" s="287"/>
-      <c r="J84" s="287"/>
-    </row>
-    <row r="85" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A85" s="287"/>
-      <c r="B85" s="287"/>
-      <c r="C85" s="287"/>
-      <c r="D85" s="287"/>
-      <c r="E85" s="287"/>
-      <c r="F85" s="287"/>
-      <c r="G85" s="287"/>
-      <c r="H85" s="287"/>
-      <c r="I85" s="287"/>
-      <c r="J85" s="287"/>
+      <c r="B66" s="305"/>
+      <c r="C66" s="305"/>
+      <c r="D66" s="305"/>
+      <c r="E66" s="305"/>
+      <c r="F66" s="305"/>
+      <c r="G66" s="305"/>
+      <c r="H66" s="305"/>
+      <c r="I66" s="305"/>
+      <c r="J66" s="305"/>
+    </row>
+    <row r="67" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A67" s="305"/>
+      <c r="B67" s="305"/>
+      <c r="C67" s="305"/>
+      <c r="D67" s="305"/>
+      <c r="E67" s="305"/>
+      <c r="F67" s="305"/>
+      <c r="G67" s="305"/>
+      <c r="H67" s="305"/>
+      <c r="I67" s="305"/>
+      <c r="J67" s="305"/>
+    </row>
+    <row r="68" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A68" s="305"/>
+      <c r="B68" s="305"/>
+      <c r="C68" s="305"/>
+      <c r="D68" s="305"/>
+      <c r="E68" s="305"/>
+      <c r="F68" s="305"/>
+      <c r="G68" s="305"/>
+      <c r="H68" s="305"/>
+      <c r="I68" s="305"/>
+      <c r="J68" s="305"/>
+    </row>
+    <row r="69" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A69" s="305"/>
+      <c r="B69" s="305"/>
+      <c r="C69" s="305"/>
+      <c r="D69" s="305"/>
+      <c r="E69" s="305"/>
+      <c r="F69" s="305"/>
+      <c r="G69" s="305"/>
+      <c r="H69" s="305"/>
+      <c r="I69" s="305"/>
+      <c r="J69" s="305"/>
+    </row>
+    <row r="70" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A70" s="305"/>
+      <c r="B70" s="305"/>
+      <c r="C70" s="305"/>
+      <c r="D70" s="305"/>
+      <c r="E70" s="305"/>
+      <c r="F70" s="305"/>
+      <c r="G70" s="305"/>
+      <c r="H70" s="305"/>
+      <c r="I70" s="305"/>
+      <c r="J70" s="305"/>
+    </row>
+    <row r="71" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A71" s="305"/>
+      <c r="B71" s="305"/>
+      <c r="C71" s="305"/>
+      <c r="D71" s="305"/>
+      <c r="E71" s="305"/>
+      <c r="F71" s="305"/>
+      <c r="G71" s="305"/>
+      <c r="H71" s="305"/>
+      <c r="I71" s="305"/>
+      <c r="J71" s="305"/>
+    </row>
+    <row r="72" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A72" s="305"/>
+      <c r="B72" s="305"/>
+      <c r="C72" s="305"/>
+      <c r="D72" s="305"/>
+      <c r="E72" s="305"/>
+      <c r="F72" s="305"/>
+      <c r="G72" s="305"/>
+      <c r="H72" s="305"/>
+      <c r="I72" s="305"/>
+      <c r="J72" s="305"/>
+    </row>
+    <row r="73" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A73" s="305"/>
+      <c r="B73" s="305"/>
+      <c r="C73" s="305"/>
+      <c r="D73" s="305"/>
+      <c r="E73" s="305"/>
+      <c r="F73" s="305"/>
+      <c r="G73" s="305"/>
+      <c r="H73" s="305"/>
+      <c r="I73" s="305"/>
+      <c r="J73" s="305"/>
+    </row>
+    <row r="74" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A74" s="305"/>
+      <c r="B74" s="305"/>
+      <c r="C74" s="305"/>
+      <c r="D74" s="305"/>
+      <c r="E74" s="305"/>
+      <c r="F74" s="305"/>
+      <c r="G74" s="305"/>
+      <c r="H74" s="305"/>
+      <c r="I74" s="305"/>
+      <c r="J74" s="305"/>
+    </row>
+    <row r="75" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A75" s="305"/>
+      <c r="B75" s="305"/>
+      <c r="C75" s="305"/>
+      <c r="D75" s="305"/>
+      <c r="E75" s="305"/>
+      <c r="F75" s="305"/>
+      <c r="G75" s="305"/>
+      <c r="H75" s="305"/>
+      <c r="I75" s="305"/>
+      <c r="J75" s="305"/>
+    </row>
+    <row r="76" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A76" s="305"/>
+      <c r="B76" s="305"/>
+      <c r="C76" s="305"/>
+      <c r="D76" s="305"/>
+      <c r="E76" s="305"/>
+      <c r="F76" s="305"/>
+      <c r="G76" s="305"/>
+      <c r="H76" s="305"/>
+      <c r="I76" s="305"/>
+      <c r="J76" s="305"/>
+    </row>
+    <row r="77" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A77" s="305"/>
+      <c r="B77" s="305"/>
+      <c r="C77" s="305"/>
+      <c r="D77" s="305"/>
+      <c r="E77" s="305"/>
+      <c r="F77" s="305"/>
+      <c r="G77" s="305"/>
+      <c r="H77" s="305"/>
+      <c r="I77" s="305"/>
+      <c r="J77" s="305"/>
+    </row>
+    <row r="78" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A78" s="305"/>
+      <c r="B78" s="305"/>
+      <c r="C78" s="305"/>
+      <c r="D78" s="305"/>
+      <c r="E78" s="305"/>
+      <c r="F78" s="305"/>
+      <c r="G78" s="305"/>
+      <c r="H78" s="305"/>
+      <c r="I78" s="305"/>
+      <c r="J78" s="305"/>
+    </row>
+    <row r="79" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A79" s="305"/>
+      <c r="B79" s="305"/>
+      <c r="C79" s="305"/>
+      <c r="D79" s="305"/>
+      <c r="E79" s="305"/>
+      <c r="F79" s="305"/>
+      <c r="G79" s="305"/>
+      <c r="H79" s="305"/>
+      <c r="I79" s="305"/>
+      <c r="J79" s="305"/>
+    </row>
+    <row r="80" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A80" s="305"/>
+      <c r="B80" s="305"/>
+      <c r="C80" s="305"/>
+      <c r="D80" s="305"/>
+      <c r="E80" s="305"/>
+      <c r="F80" s="305"/>
+      <c r="G80" s="305"/>
+      <c r="H80" s="305"/>
+      <c r="I80" s="305"/>
+      <c r="J80" s="305"/>
+    </row>
+    <row r="81" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A81" s="305"/>
+      <c r="B81" s="305"/>
+      <c r="C81" s="305"/>
+      <c r="D81" s="305"/>
+      <c r="E81" s="305"/>
+      <c r="F81" s="305"/>
+      <c r="G81" s="305"/>
+      <c r="H81" s="305"/>
+      <c r="I81" s="305"/>
+      <c r="J81" s="305"/>
+    </row>
+    <row r="82" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A82" s="305"/>
+      <c r="B82" s="305"/>
+      <c r="C82" s="305"/>
+      <c r="D82" s="305"/>
+      <c r="E82" s="305"/>
+      <c r="F82" s="305"/>
+      <c r="G82" s="305"/>
+      <c r="H82" s="305"/>
+      <c r="I82" s="305"/>
+      <c r="J82" s="305"/>
+    </row>
+    <row r="83" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A83" s="305"/>
+      <c r="B83" s="305"/>
+      <c r="C83" s="305"/>
+      <c r="D83" s="305"/>
+      <c r="E83" s="305"/>
+      <c r="F83" s="305"/>
+      <c r="G83" s="305"/>
+      <c r="H83" s="305"/>
+      <c r="I83" s="305"/>
+      <c r="J83" s="305"/>
+    </row>
+    <row r="84" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A84" s="305"/>
+      <c r="B84" s="305"/>
+      <c r="C84" s="305"/>
+      <c r="D84" s="305"/>
+      <c r="E84" s="305"/>
+      <c r="F84" s="305"/>
+      <c r="G84" s="305"/>
+      <c r="H84" s="305"/>
+      <c r="I84" s="305"/>
+      <c r="J84" s="305"/>
+    </row>
+    <row r="85" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A85" s="305"/>
+      <c r="B85" s="305"/>
+      <c r="C85" s="305"/>
+      <c r="D85" s="305"/>
+      <c r="E85" s="305"/>
+      <c r="F85" s="305"/>
+      <c r="G85" s="305"/>
+      <c r="H85" s="305"/>
+      <c r="I85" s="305"/>
+      <c r="J85" s="305"/>
     </row>
   </sheetData>
-  <autoFilter ref="B1:I64" xr:uid="{4741FF2F-1A6C-41AF-8379-E32BBB481981}">
+  <autoFilter ref="B1:I64">
     <filterColumn colId="7">
       <filters>
         <filter val="BHT"/>
@@ -7665,24 +7696,24 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2929C0B3-8CEF-4757-B737-E1834C86FF3A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U53"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>377</v>
       </c>
     </row>
-    <row r="2" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A2" s="97" t="s">
         <v>356</v>
       </c>
@@ -7724,7 +7755,7 @@
       <c r="T2" s="97"/>
       <c r="U2" s="97"/>
     </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A3" s="97" t="s">
         <v>476</v>
       </c>
@@ -7765,7 +7796,7 @@
       <c r="T3" s="96"/>
       <c r="U3" s="96"/>
     </row>
-    <row r="4" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A4" s="97" t="s">
         <v>476</v>
       </c>
@@ -7806,7 +7837,7 @@
       <c r="T4" s="96"/>
       <c r="U4" s="96"/>
     </row>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A5" s="97" t="s">
         <v>476</v>
       </c>
@@ -7847,7 +7878,7 @@
       <c r="T5" s="96"/>
       <c r="U5" s="96"/>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A6" s="97" t="s">
         <v>476</v>
       </c>
@@ -7887,7 +7918,7 @@
       <c r="T6" s="96"/>
       <c r="U6" s="96"/>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A7" s="97" t="s">
         <v>476</v>
       </c>
@@ -7927,7 +7958,7 @@
       <c r="T7" s="96"/>
       <c r="U7" s="96"/>
     </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A8" s="97" t="s">
         <v>476</v>
       </c>
@@ -7967,7 +7998,7 @@
       <c r="T8" s="96"/>
       <c r="U8" s="96"/>
     </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A9" s="101" t="s">
         <v>476</v>
       </c>
@@ -8009,7 +8040,7 @@
       <c r="T9" s="96"/>
       <c r="U9" s="96"/>
     </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A10" s="97" t="s">
         <v>476</v>
       </c>
@@ -8050,7 +8081,7 @@
       <c r="T10" s="96"/>
       <c r="U10" s="96"/>
     </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A11" s="97" t="s">
         <v>476</v>
       </c>
@@ -8092,7 +8123,7 @@
       <c r="T11" s="96"/>
       <c r="U11" s="96"/>
     </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A12" s="97" t="s">
         <v>476</v>
       </c>
@@ -8134,7 +8165,7 @@
       <c r="T12" s="96"/>
       <c r="U12" s="96"/>
     </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A13" s="97" t="s">
         <v>476</v>
       </c>
@@ -8166,7 +8197,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A14" s="97" t="s">
         <v>476</v>
       </c>
@@ -8198,7 +8229,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A15" s="97" t="s">
         <v>476</v>
       </c>
@@ -8230,7 +8261,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A16" s="97" t="s">
         <v>476</v>
       </c>
@@ -8262,7 +8293,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="97" t="s">
         <v>476</v>
       </c>
@@ -8293,7 +8324,7 @@
       <c r="J17" s="96"/>
       <c r="K17" s="96"/>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="97" t="s">
         <v>476</v>
       </c>
@@ -8326,7 +8357,7 @@
       </c>
       <c r="K18" s="96"/>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="97" t="s">
         <v>476</v>
       </c>
@@ -8359,7 +8390,7 @@
       </c>
       <c r="K19" s="96"/>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="97" t="s">
         <v>476</v>
       </c>
@@ -8391,7 +8422,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="97" t="s">
         <v>476</v>
       </c>
@@ -8424,7 +8455,7 @@
       </c>
       <c r="K21" s="96"/>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" s="97" t="s">
         <v>476</v>
       </c>
@@ -8457,7 +8488,7 @@
       </c>
       <c r="K22" s="96"/>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" s="97" t="s">
         <v>476</v>
       </c>
@@ -8490,7 +8521,7 @@
       </c>
       <c r="K23" s="96"/>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" s="97" t="s">
         <v>476</v>
       </c>
@@ -8523,15 +8554,15 @@
       </c>
       <c r="K24" s="96"/>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" s="98" t="s">
         <v>371</v>
       </c>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="F28" s="67"/>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" s="99" t="s">
         <v>271</v>
       </c>
@@ -8543,7 +8574,7 @@
       </c>
       <c r="F29" s="67"/>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" s="99" t="s">
         <v>271</v>
       </c>
@@ -8555,7 +8586,7 @@
       </c>
       <c r="F30" s="67"/>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" s="99" t="s">
         <v>271</v>
       </c>
@@ -8567,7 +8598,7 @@
       </c>
       <c r="F31" s="67"/>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32" s="99" t="s">
         <v>271</v>
       </c>
@@ -8578,7 +8609,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33" s="99" t="s">
         <v>271</v>
       </c>
@@ -8589,7 +8620,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A34" s="99" t="s">
         <v>271</v>
       </c>
@@ -8606,7 +8637,7 @@
       <c r="J34" s="103"/>
       <c r="K34" s="103"/>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35" s="99" t="s">
         <v>159</v>
       </c>
@@ -8623,7 +8654,7 @@
       <c r="J35" s="103"/>
       <c r="K35" s="103"/>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A36" s="99" t="s">
         <v>159</v>
       </c>
@@ -8640,7 +8671,7 @@
       <c r="J36" s="103"/>
       <c r="K36" s="103"/>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A37" s="99" t="s">
         <v>159</v>
       </c>
@@ -8657,7 +8688,7 @@
       <c r="J37" s="103"/>
       <c r="K37" s="103"/>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A38" s="99" t="s">
         <v>159</v>
       </c>
@@ -8674,7 +8705,7 @@
       <c r="J38" s="103"/>
       <c r="K38" s="103"/>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A39" s="99" t="s">
         <v>159</v>
       </c>
@@ -8691,7 +8722,7 @@
       <c r="J39" s="103"/>
       <c r="K39" s="103"/>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A40" s="99" t="s">
         <v>159</v>
       </c>
@@ -8708,7 +8739,7 @@
       <c r="J40" s="103"/>
       <c r="K40" s="103"/>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A41" s="99" t="s">
         <v>159</v>
       </c>
@@ -8725,7 +8756,7 @@
       <c r="J41" s="103"/>
       <c r="K41" s="103"/>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
       <c r="F42" s="103"/>
       <c r="G42" s="103"/>
       <c r="H42" s="103"/>
@@ -8733,24 +8764,24 @@
       <c r="J42" s="103"/>
       <c r="K42" s="103"/>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>400</v>
       </c>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>399</v>
       </c>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
       <c r="F48" s="103"/>
       <c r="G48" s="103"/>
       <c r="H48" s="103"/>
       <c r="I48" s="103"/>
       <c r="J48" s="103"/>
     </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>379</v>
       </c>
@@ -8760,7 +8791,7 @@
       <c r="I49" s="103"/>
       <c r="J49" s="103"/>
     </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>380</v>
       </c>
@@ -8770,7 +8801,7 @@
       <c r="I50" s="103"/>
       <c r="J50" s="103"/>
     </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>381</v>
       </c>
@@ -8780,12 +8811,12 @@
       <c r="I51" s="103"/>
       <c r="J51" s="103"/>
     </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>382</v>
       </c>
     </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>383</v>
       </c>
@@ -8796,50 +8827,50 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D4792705-D39D-42B8-ABA2-8E67167C123A}">
-  <dimension ref="A1:W56"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:W58"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A19" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="I36" sqref="I36"/>
+      <selection activeCell="H43" sqref="H43"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="30.6640625" style="116" customWidth="1"/>
-    <col min="2" max="2" width="11.5546875" style="116" customWidth="1"/>
-    <col min="3" max="3" width="14.6640625" style="116" customWidth="1"/>
-    <col min="4" max="4" width="15.77734375" style="116" customWidth="1"/>
-    <col min="5" max="5" width="13.44140625" style="116" customWidth="1"/>
-    <col min="6" max="6" width="14.5546875" style="116" customWidth="1"/>
+    <col min="1" max="1" width="30.7109375" style="116" customWidth="1"/>
+    <col min="2" max="2" width="11.5703125" style="116" customWidth="1"/>
+    <col min="3" max="3" width="14.7109375" style="116" customWidth="1"/>
+    <col min="4" max="4" width="15.7109375" style="116" customWidth="1"/>
+    <col min="5" max="5" width="13.42578125" style="116" customWidth="1"/>
+    <col min="6" max="6" width="14.5703125" style="116" customWidth="1"/>
     <col min="7" max="7" width="11" style="116" customWidth="1"/>
-    <col min="8" max="8" width="13.5546875" style="116" customWidth="1"/>
-    <col min="9" max="9" width="10.88671875" style="116" customWidth="1"/>
-    <col min="10" max="10" width="13.33203125" style="116" customWidth="1"/>
+    <col min="8" max="8" width="13.5703125" style="116" customWidth="1"/>
+    <col min="9" max="9" width="10.85546875" style="116" customWidth="1"/>
+    <col min="10" max="10" width="13.28515625" style="116" customWidth="1"/>
     <col min="11" max="11" width="13" style="116" customWidth="1"/>
-    <col min="12" max="12" width="22.88671875" style="116" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="13.21875" style="116" customWidth="1"/>
-    <col min="14" max="14" width="12.88671875" style="116" customWidth="1"/>
-    <col min="15" max="15" width="3.5546875" style="116" customWidth="1"/>
-    <col min="16" max="16" width="20.44140625" style="116" customWidth="1"/>
-    <col min="17" max="17" width="100.109375" style="116" customWidth="1"/>
-    <col min="18" max="18" width="19.33203125" style="116" customWidth="1"/>
-    <col min="19" max="16384" width="11.5546875" style="116"/>
+    <col min="12" max="12" width="22.85546875" style="116" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="13.28515625" style="116" customWidth="1"/>
+    <col min="14" max="14" width="12.85546875" style="116" customWidth="1"/>
+    <col min="15" max="15" width="3.5703125" style="116" customWidth="1"/>
+    <col min="16" max="16" width="20.42578125" style="116" customWidth="1"/>
+    <col min="17" max="17" width="100.140625" style="116" customWidth="1"/>
+    <col min="18" max="18" width="19.28515625" style="116" customWidth="1"/>
+    <col min="19" max="16384" width="11.5703125" style="116"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="182"/>
       <c r="B1" s="179"/>
       <c r="C1" s="179"/>
       <c r="D1" s="179"/>
-      <c r="E1" s="291" t="s">
+      <c r="E1" s="322" t="s">
         <v>459</v>
       </c>
-      <c r="F1" s="292"/>
-      <c r="G1" s="292"/>
-      <c r="H1" s="292"/>
-      <c r="I1" s="292"/>
-      <c r="J1" s="292"/>
-      <c r="K1" s="293"/>
+      <c r="F1" s="323"/>
+      <c r="G1" s="323"/>
+      <c r="H1" s="323"/>
+      <c r="I1" s="323"/>
+      <c r="J1" s="323"/>
+      <c r="K1" s="324"/>
       <c r="P1" s="196" t="s">
         <v>450</v>
       </c>
@@ -8853,7 +8884,7 @@
       <c r="V1"/>
       <c r="W1"/>
     </row>
-    <row r="2" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="164" t="s">
         <v>116</v>
       </c>
@@ -8887,7 +8918,7 @@
       <c r="K2" s="189" t="s">
         <v>410</v>
       </c>
-      <c r="L2" s="307" t="s">
+      <c r="L2" s="272" t="s">
         <v>488</v>
       </c>
       <c r="P2" s="197" t="s">
@@ -8903,7 +8934,7 @@
       <c r="V2"/>
       <c r="W2"/>
     </row>
-    <row r="3" spans="1:23" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:23" ht="15" x14ac:dyDescent="0.25">
       <c r="A3" s="140" t="s">
         <v>32</v>
       </c>
@@ -8923,7 +8954,7 @@
       <c r="I3" s="144"/>
       <c r="J3" s="144"/>
       <c r="K3" s="145"/>
-      <c r="P3" s="288" t="s">
+      <c r="P3" s="319" t="s">
         <v>447</v>
       </c>
       <c r="Q3" s="191" t="s">
@@ -8936,7 +8967,7 @@
       <c r="V3"/>
       <c r="W3"/>
     </row>
-    <row r="4" spans="1:23" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:23" ht="15" x14ac:dyDescent="0.25">
       <c r="A4" s="117" t="s">
         <v>24</v>
       </c>
@@ -8972,7 +9003,7 @@
         <f>G4-F4*H4*0.001</f>
         <v>9.0250000000000004</v>
       </c>
-      <c r="P4" s="288"/>
+      <c r="P4" s="319"/>
       <c r="Q4" s="191" t="s">
         <v>445</v>
       </c>
@@ -8983,7 +9014,7 @@
       <c r="V4"/>
       <c r="W4"/>
     </row>
-    <row r="5" spans="1:23" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:23" ht="15" x14ac:dyDescent="0.25">
       <c r="A5" s="119" t="s">
         <v>78</v>
       </c>
@@ -9019,7 +9050,7 @@
         <f t="shared" ref="L5:L10" si="0">G5-F5*H5*0.001</f>
         <v>9.0007999999999981</v>
       </c>
-      <c r="P5" s="288"/>
+      <c r="P5" s="319"/>
       <c r="Q5" s="191" t="s">
         <v>68</v>
       </c>
@@ -9030,7 +9061,7 @@
       <c r="V5"/>
       <c r="W5"/>
     </row>
-    <row r="6" spans="1:23" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:23" ht="15" x14ac:dyDescent="0.25">
       <c r="A6" s="114" t="s">
         <v>389</v>
       </c>
@@ -9050,7 +9081,7 @@
       <c r="I6" s="126"/>
       <c r="J6" s="126"/>
       <c r="K6" s="129"/>
-      <c r="P6" s="288"/>
+      <c r="P6" s="319"/>
       <c r="Q6" s="191" t="s">
         <v>69</v>
       </c>
@@ -9061,7 +9092,7 @@
       <c r="V6"/>
       <c r="W6"/>
     </row>
-    <row r="7" spans="1:23" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:23" ht="15" x14ac:dyDescent="0.25">
       <c r="A7" s="123" t="s">
         <v>36</v>
       </c>
@@ -9097,7 +9128,7 @@
         <f t="shared" si="0"/>
         <v>8.5922999999999945</v>
       </c>
-      <c r="P7" s="288"/>
+      <c r="P7" s="319"/>
       <c r="Q7" s="192" t="s">
         <v>444</v>
       </c>
@@ -9108,7 +9139,7 @@
       <c r="V7"/>
       <c r="W7"/>
     </row>
-    <row r="8" spans="1:23" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:23" ht="15" x14ac:dyDescent="0.25">
       <c r="A8" s="117" t="s">
         <v>35</v>
       </c>
@@ -9128,7 +9159,7 @@
       <c r="I8" s="126"/>
       <c r="J8" s="126"/>
       <c r="K8" s="129"/>
-      <c r="P8" s="289" t="s">
+      <c r="P8" s="320" t="s">
         <v>443</v>
       </c>
       <c r="Q8" s="193" t="s">
@@ -9141,7 +9172,7 @@
       <c r="V8"/>
       <c r="W8"/>
     </row>
-    <row r="9" spans="1:23" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:23" ht="30" x14ac:dyDescent="0.25">
       <c r="A9" s="117" t="s">
         <v>33</v>
       </c>
@@ -9177,7 +9208,7 @@
         <f t="shared" si="0"/>
         <v>9.4707000000000008</v>
       </c>
-      <c r="P9" s="289"/>
+      <c r="P9" s="320"/>
       <c r="Q9" s="193" t="s">
         <v>456</v>
       </c>
@@ -9188,43 +9219,43 @@
       <c r="V9"/>
       <c r="W9"/>
     </row>
-    <row r="10" spans="1:23" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A10" s="313" t="s">
+    <row r="10" spans="1:23" ht="15" x14ac:dyDescent="0.25">
+      <c r="A10" s="278" t="s">
         <v>23</v>
       </c>
-      <c r="B10" s="308">
+      <c r="B10" s="273">
         <v>336330</v>
       </c>
-      <c r="C10" s="308">
+      <c r="C10" s="273">
         <v>664760</v>
       </c>
-      <c r="D10" s="309">
+      <c r="D10" s="274">
         <v>235.6</v>
       </c>
-      <c r="E10" s="310" t="s">
+      <c r="E10" s="275" t="s">
         <v>145</v>
       </c>
-      <c r="F10" s="311">
+      <c r="F10" s="276">
         <v>942</v>
       </c>
-      <c r="G10" s="311">
+      <c r="G10" s="276">
         <v>37.9</v>
       </c>
-      <c r="H10" s="311">
+      <c r="H10" s="276">
         <v>34.9</v>
       </c>
-      <c r="I10" s="311"/>
-      <c r="J10" s="311" t="s">
+      <c r="I10" s="276"/>
+      <c r="J10" s="276" t="s">
         <v>335</v>
       </c>
-      <c r="K10" s="312" t="s">
+      <c r="K10" s="277" t="s">
         <v>336</v>
       </c>
       <c r="L10" s="116">
         <f t="shared" si="0"/>
         <v>5.0242000000000004</v>
       </c>
-      <c r="P10" s="289"/>
+      <c r="P10" s="320"/>
       <c r="Q10" s="194" t="s">
         <v>441</v>
       </c>
@@ -9235,7 +9266,7 @@
       <c r="V10"/>
       <c r="W10"/>
     </row>
-    <row r="11" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="130" t="s">
         <v>75</v>
       </c>
@@ -9255,7 +9286,7 @@
       <c r="I11" s="133"/>
       <c r="J11" s="133"/>
       <c r="K11" s="134"/>
-      <c r="P11" s="289"/>
+      <c r="P11" s="320"/>
       <c r="Q11" s="192" t="s">
         <v>455</v>
       </c>
@@ -9266,7 +9297,7 @@
       <c r="V11"/>
       <c r="W11"/>
     </row>
-    <row r="12" spans="1:23" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:23" ht="15" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>418</v>
       </c>
@@ -9284,7 +9315,7 @@
       <c r="M12" s="125"/>
       <c r="N12" s="125"/>
       <c r="O12" s="125"/>
-      <c r="P12" s="289"/>
+      <c r="P12" s="320"/>
       <c r="Q12" s="192" t="s">
         <v>440</v>
       </c>
@@ -9295,8 +9326,8 @@
       <c r="V12"/>
       <c r="W12"/>
     </row>
-    <row r="13" spans="1:23" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="P13" s="289" t="s">
+    <row r="13" spans="1:23" ht="15" x14ac:dyDescent="0.25">
+      <c r="P13" s="320" t="s">
         <v>439</v>
       </c>
       <c r="Q13" s="192" t="s">
@@ -9309,8 +9340,8 @@
       <c r="V13"/>
       <c r="W13"/>
     </row>
-    <row r="14" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="P14" s="289"/>
+    <row r="14" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="P14" s="320"/>
       <c r="Q14" s="191" t="s">
         <v>437</v>
       </c>
@@ -9321,31 +9352,31 @@
       <c r="V14"/>
       <c r="W14"/>
     </row>
-    <row r="15" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="295" t="s">
+    <row r="15" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="307" t="s">
         <v>458</v>
       </c>
-      <c r="B15" s="296"/>
-      <c r="C15" s="296"/>
-      <c r="D15" s="296"/>
-      <c r="E15" s="296"/>
-      <c r="F15" s="296"/>
-      <c r="G15" s="296"/>
-      <c r="H15" s="296"/>
-      <c r="I15" s="296"/>
-      <c r="J15" s="296"/>
-      <c r="K15" s="297"/>
-      <c r="L15" s="304" t="s">
+      <c r="B15" s="308"/>
+      <c r="C15" s="308"/>
+      <c r="D15" s="308"/>
+      <c r="E15" s="308"/>
+      <c r="F15" s="308"/>
+      <c r="G15" s="308"/>
+      <c r="H15" s="308"/>
+      <c r="I15" s="308"/>
+      <c r="J15" s="308"/>
+      <c r="K15" s="309"/>
+      <c r="L15" s="316" t="s">
         <v>473</v>
       </c>
-      <c r="M15" s="304" t="s">
+      <c r="M15" s="316" t="s">
         <v>463</v>
       </c>
-      <c r="N15" s="304" t="s">
+      <c r="N15" s="316" t="s">
         <v>474</v>
       </c>
       <c r="O15" s="125"/>
-      <c r="P15" s="289"/>
+      <c r="P15" s="320"/>
       <c r="Q15" s="191" t="s">
         <v>436</v>
       </c>
@@ -9356,7 +9387,7 @@
       <c r="V15"/>
       <c r="W15"/>
     </row>
-    <row r="16" spans="1:23" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:23" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="173" t="s">
         <v>32</v>
       </c>
@@ -9384,15 +9415,15 @@
       <c r="I16" s="166" t="s">
         <v>395</v>
       </c>
-      <c r="J16" s="302" t="s">
+      <c r="J16" s="314" t="s">
         <v>401</v>
       </c>
-      <c r="K16" s="303"/>
-      <c r="L16" s="305"/>
-      <c r="M16" s="305"/>
-      <c r="N16" s="305"/>
+      <c r="K16" s="315"/>
+      <c r="L16" s="317"/>
+      <c r="M16" s="317"/>
+      <c r="N16" s="317"/>
       <c r="O16" s="125"/>
-      <c r="P16" s="289" t="s">
+      <c r="P16" s="320" t="s">
         <v>435</v>
       </c>
       <c r="Q16" s="192" t="s">
@@ -9405,7 +9436,7 @@
       <c r="V16"/>
       <c r="W16"/>
     </row>
-    <row r="17" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="234" t="s">
         <v>394</v>
       </c>
@@ -9431,17 +9462,17 @@
       <c r="I17" s="240">
         <v>0.31</v>
       </c>
-      <c r="J17" s="298" t="s">
+      <c r="J17" s="310" t="s">
         <v>472</v>
       </c>
-      <c r="K17" s="300" t="s">
+      <c r="K17" s="312" t="s">
         <v>417</v>
       </c>
-      <c r="L17" s="305"/>
-      <c r="M17" s="306"/>
-      <c r="N17" s="306"/>
+      <c r="L17" s="317"/>
+      <c r="M17" s="318"/>
+      <c r="N17" s="318"/>
       <c r="O17" s="125"/>
-      <c r="P17" s="289"/>
+      <c r="P17" s="320"/>
       <c r="Q17" s="192" t="s">
         <v>433</v>
       </c>
@@ -9452,7 +9483,7 @@
       <c r="V17"/>
       <c r="W17"/>
     </row>
-    <row r="18" spans="1:23" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:23" ht="13.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="174" t="s">
         <v>470</v>
       </c>
@@ -9478,9 +9509,9 @@
       <c r="I18" s="242">
         <v>0.5</v>
       </c>
-      <c r="J18" s="299"/>
-      <c r="K18" s="301"/>
-      <c r="L18" s="306"/>
+      <c r="J18" s="311"/>
+      <c r="K18" s="313"/>
+      <c r="L18" s="318"/>
       <c r="M18" s="269">
         <v>53</v>
       </c>
@@ -9488,7 +9519,7 @@
         <v>30</v>
       </c>
       <c r="O18" s="125"/>
-      <c r="P18" s="289"/>
+      <c r="P18" s="320"/>
       <c r="Q18" s="192" t="s">
         <v>432</v>
       </c>
@@ -9499,7 +9530,7 @@
       <c r="V18"/>
       <c r="W18"/>
     </row>
-    <row r="19" spans="1:23" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:23" ht="15" x14ac:dyDescent="0.25">
       <c r="A19" s="175" t="s">
         <v>34</v>
       </c>
@@ -9535,7 +9566,7 @@
         <v>9</v>
       </c>
       <c r="O19" s="125"/>
-      <c r="P19" s="289"/>
+      <c r="P19" s="320"/>
       <c r="Q19" s="192" t="s">
         <v>431</v>
       </c>
@@ -9546,7 +9577,7 @@
       <c r="V19"/>
       <c r="W19"/>
     </row>
-    <row r="20" spans="1:23" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:23" ht="15" x14ac:dyDescent="0.25">
       <c r="A20" s="176" t="s">
         <v>25</v>
       </c>
@@ -9579,7 +9610,7 @@
         <v>9</v>
       </c>
       <c r="O20" s="125"/>
-      <c r="P20" s="289"/>
+      <c r="P20" s="320"/>
       <c r="Q20" s="192" t="s">
         <v>430</v>
       </c>
@@ -9590,7 +9621,7 @@
       <c r="V20"/>
       <c r="W20"/>
     </row>
-    <row r="21" spans="1:23" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:23" ht="15" x14ac:dyDescent="0.25">
       <c r="A21" s="176" t="s">
         <v>26</v>
       </c>
@@ -9627,7 +9658,7 @@
         <v>9</v>
       </c>
       <c r="O21" s="125"/>
-      <c r="P21" s="289"/>
+      <c r="P21" s="320"/>
       <c r="Q21" s="192" t="s">
         <v>429</v>
       </c>
@@ -9638,7 +9669,7 @@
       <c r="V21"/>
       <c r="W21"/>
     </row>
-    <row r="22" spans="1:23" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:23" ht="15" x14ac:dyDescent="0.25">
       <c r="A22" s="176" t="s">
         <v>27</v>
       </c>
@@ -9675,7 +9706,7 @@
         <v>9</v>
       </c>
       <c r="O22" s="125"/>
-      <c r="P22" s="289"/>
+      <c r="P22" s="320"/>
       <c r="Q22" s="192" t="s">
         <v>428</v>
       </c>
@@ -9686,7 +9717,7 @@
       <c r="V22"/>
       <c r="W22"/>
     </row>
-    <row r="23" spans="1:23" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:23" ht="15" x14ac:dyDescent="0.25">
       <c r="A23" s="176" t="s">
         <v>28</v>
       </c>
@@ -9723,7 +9754,7 @@
         <v>9</v>
       </c>
       <c r="O23" s="125"/>
-      <c r="P23" s="289"/>
+      <c r="P23" s="320"/>
       <c r="Q23" s="192" t="s">
         <v>427</v>
       </c>
@@ -9734,7 +9765,7 @@
       <c r="V23"/>
       <c r="W23"/>
     </row>
-    <row r="24" spans="1:23" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:23" ht="15" x14ac:dyDescent="0.25">
       <c r="A24" s="176" t="s">
         <v>29</v>
       </c>
@@ -9768,7 +9799,7 @@
         <v>9</v>
       </c>
       <c r="O24" s="125"/>
-      <c r="P24" s="289"/>
+      <c r="P24" s="320"/>
       <c r="Q24" s="192" t="s">
         <v>426</v>
       </c>
@@ -9779,7 +9810,7 @@
       <c r="V24"/>
       <c r="W24"/>
     </row>
-    <row r="25" spans="1:23" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:23" ht="15" x14ac:dyDescent="0.25">
       <c r="A25" s="176" t="s">
         <v>30</v>
       </c>
@@ -9819,7 +9850,7 @@
         <v>9</v>
       </c>
       <c r="O25" s="125"/>
-      <c r="P25" s="289"/>
+      <c r="P25" s="320"/>
       <c r="Q25" s="192" t="s">
         <v>425</v>
       </c>
@@ -9830,7 +9861,7 @@
       <c r="V25"/>
       <c r="W25"/>
     </row>
-    <row r="26" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="177" t="s">
         <v>31</v>
       </c>
@@ -9871,7 +9902,7 @@
         <v>9</v>
       </c>
       <c r="O26" s="125"/>
-      <c r="P26" s="289"/>
+      <c r="P26" s="320"/>
       <c r="Q26" s="192" t="s">
         <v>424</v>
       </c>
@@ -9882,7 +9913,7 @@
       <c r="V26"/>
       <c r="W26"/>
     </row>
-    <row r="27" spans="1:23" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:23" ht="15" x14ac:dyDescent="0.25">
       <c r="A27" s="153"/>
       <c r="B27" s="125" t="s">
         <v>419</v>
@@ -9894,7 +9925,7 @@
         <v>462</v>
       </c>
       <c r="O27" s="125"/>
-      <c r="P27" s="289"/>
+      <c r="P27" s="320"/>
       <c r="Q27" s="192" t="s">
         <v>423</v>
       </c>
@@ -9905,13 +9936,13 @@
       <c r="V27"/>
       <c r="W27"/>
     </row>
-    <row r="28" spans="1:23" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:23" ht="15" x14ac:dyDescent="0.25">
       <c r="A28" s="153"/>
       <c r="K28" s="116" t="s">
         <v>467</v>
       </c>
       <c r="O28" s="125"/>
-      <c r="P28" s="289"/>
+      <c r="P28" s="320"/>
       <c r="Q28" s="192" t="s">
         <v>422</v>
       </c>
@@ -9922,7 +9953,7 @@
       <c r="V28"/>
       <c r="W28"/>
     </row>
-    <row r="29" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A29" s="153"/>
       <c r="B29" s="116" t="s">
         <v>413</v>
@@ -9931,7 +9962,7 @@
         <v>420</v>
       </c>
       <c r="O29" s="125"/>
-      <c r="P29" s="290"/>
+      <c r="P29" s="321"/>
       <c r="Q29" s="195" t="s">
         <v>421</v>
       </c>
@@ -9942,7 +9973,7 @@
       <c r="V29"/>
       <c r="W29"/>
     </row>
-    <row r="30" spans="1:23" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:23" ht="15" x14ac:dyDescent="0.25">
       <c r="A30" s="153"/>
       <c r="B30" s="116" t="s">
         <v>414</v>
@@ -9959,7 +9990,7 @@
       <c r="V30"/>
       <c r="W30"/>
     </row>
-    <row r="31" spans="1:23" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:23" ht="15" x14ac:dyDescent="0.25">
       <c r="A31" s="153"/>
       <c r="B31" s="116" t="s">
         <v>415</v>
@@ -9974,7 +10005,7 @@
       <c r="V31"/>
       <c r="W31"/>
     </row>
-    <row r="32" spans="1:23" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:23" ht="15" x14ac:dyDescent="0.25">
       <c r="A32" s="153"/>
       <c r="B32" t="s">
         <v>408</v>
@@ -9989,7 +10020,7 @@
       <c r="V32"/>
       <c r="W32"/>
     </row>
-    <row r="33" spans="1:23" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:23" ht="15" x14ac:dyDescent="0.25">
       <c r="B33" t="s">
         <v>411</v>
       </c>
@@ -10002,7 +10033,7 @@
       <c r="V33"/>
       <c r="W33"/>
     </row>
-    <row r="34" spans="1:23" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:23" ht="15" x14ac:dyDescent="0.25">
       <c r="B34" s="116" t="s">
         <v>402</v>
       </c>
@@ -10015,7 +10046,7 @@
       <c r="V34"/>
       <c r="W34"/>
     </row>
-    <row r="35" spans="1:23" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:23" ht="15" x14ac:dyDescent="0.25">
       <c r="B35" s="116" t="s">
         <v>412</v>
       </c>
@@ -10028,7 +10059,7 @@
       <c r="V35"/>
       <c r="W35"/>
     </row>
-    <row r="36" spans="1:23" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:23" ht="15" x14ac:dyDescent="0.25">
       <c r="B36" s="125" t="s">
         <v>409</v>
       </c>
@@ -10036,13 +10067,13 @@
       <c r="D36" s="125"/>
       <c r="P36"/>
       <c r="Q36"/>
-      <c r="R36" s="294"/>
+      <c r="R36" s="306"/>
       <c r="S36"/>
       <c r="T36"/>
       <c r="U36"/>
       <c r="W36"/>
     </row>
-    <row r="37" spans="1:23" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:23" ht="15" x14ac:dyDescent="0.25">
       <c r="B37" s="125" t="s">
         <v>416</v>
       </c>
@@ -10050,27 +10081,27 @@
       <c r="D37" s="125"/>
       <c r="P37"/>
       <c r="Q37"/>
-      <c r="R37" s="294"/>
+      <c r="R37" s="306"/>
       <c r="S37"/>
       <c r="T37"/>
       <c r="U37"/>
       <c r="V37"/>
       <c r="W37"/>
     </row>
-    <row r="38" spans="1:23" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:23" ht="15" x14ac:dyDescent="0.25">
       <c r="B38" s="162"/>
       <c r="C38" s="163"/>
       <c r="D38" s="125"/>
       <c r="P38"/>
       <c r="Q38"/>
-      <c r="R38" s="294"/>
+      <c r="R38" s="306"/>
       <c r="S38"/>
       <c r="T38"/>
       <c r="U38"/>
       <c r="V38"/>
       <c r="W38"/>
     </row>
-    <row r="39" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B39" s="162"/>
       <c r="C39" s="163"/>
       <c r="D39" s="125"/>
@@ -10083,23 +10114,23 @@
       <c r="V39"/>
       <c r="W39"/>
     </row>
-    <row r="40" spans="1:23" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A40" s="314" t="s">
+    <row r="40" spans="1:23" ht="15" x14ac:dyDescent="0.25">
+      <c r="A40" s="279" t="s">
         <v>489</v>
       </c>
-      <c r="B40" s="315" t="s">
+      <c r="B40" s="280" t="s">
         <v>393</v>
       </c>
-      <c r="C40" s="316" t="s">
+      <c r="C40" s="281" t="s">
         <v>490</v>
       </c>
-      <c r="D40" s="315" t="s">
+      <c r="D40" s="280" t="s">
         <v>491</v>
       </c>
-      <c r="E40" s="319" t="s">
+      <c r="E40" s="284" t="s">
         <v>394</v>
       </c>
-      <c r="F40" s="324" t="s">
+      <c r="F40" s="289" t="s">
         <v>492</v>
       </c>
       <c r="P40"/>
@@ -10111,22 +10142,22 @@
       <c r="V40"/>
       <c r="W40"/>
     </row>
-    <row r="41" spans="1:23" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:23" ht="15" x14ac:dyDescent="0.25">
       <c r="B41" s="126">
         <v>125</v>
       </c>
-      <c r="C41" s="317">
+      <c r="C41" s="282">
         <f>0.0012</f>
         <v>1.1999999999999999E-3</v>
       </c>
-      <c r="D41" s="317">
+      <c r="D41" s="282">
         <f>B41*C41</f>
         <v>0.15</v>
       </c>
-      <c r="E41" s="320">
+      <c r="E41" s="285">
         <v>1.91</v>
       </c>
-      <c r="F41" s="322">
+      <c r="F41" s="287">
         <f>B41/SUM($B$41:$B$47)</f>
         <v>0.125</v>
       </c>
@@ -10139,22 +10170,22 @@
       <c r="V41"/>
       <c r="W41"/>
     </row>
-    <row r="42" spans="1:23" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:23" ht="15" x14ac:dyDescent="0.25">
       <c r="B42" s="126">
         <f>230-125</f>
         <v>105</v>
       </c>
-      <c r="C42" s="317">
+      <c r="C42" s="282">
         <v>8.9999999999999998E-4</v>
       </c>
-      <c r="D42" s="317">
+      <c r="D42" s="282">
         <f t="shared" ref="D42:D47" si="1">B42*C42</f>
         <v>9.4500000000000001E-2</v>
       </c>
-      <c r="E42" s="320">
+      <c r="E42" s="285">
         <v>2.91</v>
       </c>
-      <c r="F42" s="322">
+      <c r="F42" s="287">
         <f t="shared" ref="F42:F47" si="2">B42/SUM($B$41:$B$47)</f>
         <v>0.105</v>
       </c>
@@ -10167,22 +10198,22 @@
       <c r="V42"/>
       <c r="W42"/>
     </row>
-    <row r="43" spans="1:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:23" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B43" s="126">
         <f>315-230</f>
         <v>85</v>
       </c>
-      <c r="C43" s="317">
+      <c r="C43" s="282">
         <v>1.2999999999999999E-3</v>
       </c>
-      <c r="D43" s="317">
+      <c r="D43" s="282">
         <f t="shared" si="1"/>
         <v>0.1105</v>
       </c>
-      <c r="E43" s="320">
+      <c r="E43" s="285">
         <v>2.25</v>
       </c>
-      <c r="F43" s="322">
+      <c r="F43" s="287">
         <f t="shared" si="2"/>
         <v>8.5000000000000006E-2</v>
       </c>
@@ -10195,22 +10226,22 @@
       <c r="V43"/>
       <c r="W43"/>
     </row>
-    <row r="44" spans="1:23" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:23" ht="15" x14ac:dyDescent="0.25">
       <c r="B44" s="126">
         <f>400-315</f>
         <v>85</v>
       </c>
-      <c r="C44" s="317">
+      <c r="C44" s="282">
         <v>1.2999999999999999E-3</v>
       </c>
-      <c r="D44" s="317">
+      <c r="D44" s="282">
         <f t="shared" si="1"/>
         <v>0.1105</v>
       </c>
-      <c r="E44" s="320">
+      <c r="E44" s="285">
         <v>2.2400000000000002</v>
       </c>
-      <c r="F44" s="322">
+      <c r="F44" s="287">
         <f t="shared" si="2"/>
         <v>8.5000000000000006E-2</v>
       </c>
@@ -10223,22 +10254,22 @@
       <c r="V44"/>
       <c r="W44"/>
     </row>
-    <row r="45" spans="1:23" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:23" ht="15" x14ac:dyDescent="0.25">
       <c r="B45" s="126">
         <f>445-400</f>
         <v>45</v>
       </c>
-      <c r="C45" s="317">
+      <c r="C45" s="282">
         <v>1.2999999999999999E-3</v>
       </c>
-      <c r="D45" s="317">
+      <c r="D45" s="282">
         <f t="shared" si="1"/>
         <v>5.8499999999999996E-2</v>
       </c>
-      <c r="E45" s="320">
+      <c r="E45" s="285">
         <v>1.88</v>
       </c>
-      <c r="F45" s="322">
+      <c r="F45" s="287">
         <f t="shared" si="2"/>
         <v>4.4999999999999998E-2</v>
       </c>
@@ -10251,22 +10282,22 @@
       <c r="V45"/>
       <c r="W45"/>
     </row>
-    <row r="46" spans="1:23" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:23" ht="15" x14ac:dyDescent="0.25">
       <c r="B46" s="126">
         <f>700-445</f>
         <v>255</v>
       </c>
-      <c r="C46" s="318">
+      <c r="C46" s="283">
         <v>1.4E-3</v>
       </c>
-      <c r="D46" s="317">
+      <c r="D46" s="282">
         <f t="shared" si="1"/>
         <v>0.35699999999999998</v>
       </c>
-      <c r="E46" s="321">
+      <c r="E46" s="286">
         <v>2.1</v>
       </c>
-      <c r="F46" s="322">
+      <c r="F46" s="287">
         <f t="shared" si="2"/>
         <v>0.255</v>
       </c>
@@ -10279,22 +10310,22 @@
       <c r="V46"/>
       <c r="W46"/>
     </row>
-    <row r="47" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B47" s="126">
         <f>1000-700</f>
         <v>300</v>
       </c>
-      <c r="C47" s="318">
+      <c r="C47" s="283">
         <v>1.4E-3</v>
       </c>
-      <c r="D47" s="317">
+      <c r="D47" s="282">
         <f t="shared" si="1"/>
         <v>0.42</v>
       </c>
-      <c r="E47" s="321">
+      <c r="E47" s="286">
         <v>4.1900000000000004</v>
       </c>
-      <c r="F47" s="323">
+      <c r="F47" s="288">
         <f t="shared" si="2"/>
         <v>0.3</v>
       </c>
@@ -10307,7 +10338,7 @@
       <c r="V47"/>
       <c r="W47"/>
     </row>
-    <row r="48" spans="1:23" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:23" ht="15" x14ac:dyDescent="0.25">
       <c r="B48" s="162"/>
       <c r="D48" s="116" t="s">
         <v>493</v>
@@ -10325,7 +10356,7 @@
       <c r="V48"/>
       <c r="W48"/>
     </row>
-    <row r="49" spans="2:23" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:23" ht="15" x14ac:dyDescent="0.25">
       <c r="B49" s="162"/>
       <c r="D49" s="116" t="s">
         <v>494</v>
@@ -10343,7 +10374,7 @@
       <c r="V49"/>
       <c r="W49"/>
     </row>
-    <row r="50" spans="2:23" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:23" ht="15" x14ac:dyDescent="0.25">
       <c r="B50" s="162"/>
       <c r="D50" s="116" t="s">
         <v>377</v>
@@ -10361,29 +10392,139 @@
       <c r="V50"/>
       <c r="W50"/>
     </row>
-    <row r="51" spans="2:23" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:23" ht="15" x14ac:dyDescent="0.25">
       <c r="B51" s="162"/>
     </row>
-    <row r="52" spans="2:23" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B52" s="162"/>
     </row>
-    <row r="53" spans="2:23" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="B53" s="162"/>
-    </row>
-    <row r="54" spans="2:23" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="B54" s="162"/>
-    </row>
-    <row r="55" spans="2:23" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="B55" s="162"/>
-    </row>
-    <row r="56" spans="2:23" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="B56" s="162"/>
+    <row r="53" spans="1:23" ht="15" x14ac:dyDescent="0.25">
+      <c r="A53" s="279" t="s">
+        <v>495</v>
+      </c>
+      <c r="B53" s="325" t="s">
+        <v>393</v>
+      </c>
+      <c r="C53" s="326" t="s">
+        <v>490</v>
+      </c>
+      <c r="D53" s="327" t="s">
+        <v>491</v>
+      </c>
+      <c r="E53" s="328" t="s">
+        <v>394</v>
+      </c>
+      <c r="F53" s="289" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="54" spans="1:23" ht="15" x14ac:dyDescent="0.25">
+      <c r="B54" s="128">
+        <v>50</v>
+      </c>
+      <c r="C54" s="282">
+        <f>0.001</f>
+        <v>1E-3</v>
+      </c>
+      <c r="D54" s="282">
+        <f>B54*C54</f>
+        <v>0.05</v>
+      </c>
+      <c r="E54" s="285">
+        <v>1.2</v>
+      </c>
+      <c r="F54" s="287">
+        <f>B54/SUM($B$54:$B$58)</f>
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="55" spans="1:23" ht="15" x14ac:dyDescent="0.25">
+      <c r="B55" s="128">
+        <v>200</v>
+      </c>
+      <c r="C55" s="282">
+        <v>1.4E-3</v>
+      </c>
+      <c r="D55" s="282">
+        <f t="shared" ref="D55:D58" si="3">B55*C55</f>
+        <v>0.27999999999999997</v>
+      </c>
+      <c r="E55" s="285">
+        <v>1.8</v>
+      </c>
+      <c r="F55" s="287">
+        <f t="shared" ref="F55:F58" si="4">B55/SUM($B$54:$B$58)</f>
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="56" spans="1:23" ht="15" x14ac:dyDescent="0.25">
+      <c r="B56" s="128">
+        <v>200</v>
+      </c>
+      <c r="C56" s="282">
+        <v>1.4E-3</v>
+      </c>
+      <c r="D56" s="282">
+        <f t="shared" si="3"/>
+        <v>0.27999999999999997</v>
+      </c>
+      <c r="E56" s="285">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="F56" s="287">
+        <f t="shared" si="4"/>
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="57" spans="1:23" ht="15" x14ac:dyDescent="0.25">
+      <c r="B57" s="128">
+        <v>200</v>
+      </c>
+      <c r="C57" s="282">
+        <v>1.4E-3</v>
+      </c>
+      <c r="D57" s="282">
+        <f t="shared" si="3"/>
+        <v>0.27999999999999997</v>
+      </c>
+      <c r="E57" s="285">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="F57" s="287">
+        <f t="shared" si="4"/>
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="58" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B58" s="188">
+        <f>1000-50-600</f>
+        <v>350</v>
+      </c>
+      <c r="C58" s="329">
+        <v>1.4E-3</v>
+      </c>
+      <c r="D58" s="329">
+        <f t="shared" si="3"/>
+        <v>0.49</v>
+      </c>
+      <c r="E58" s="330">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="F58" s="288">
+        <f t="shared" si="4"/>
+        <v>0.35</v>
+      </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A1:Q12">
+  <sortState ref="A1:Q12">
     <sortCondition ref="A1"/>
   </sortState>
   <mergeCells count="13">
+    <mergeCell ref="P3:P7"/>
+    <mergeCell ref="P16:P29"/>
+    <mergeCell ref="P13:P15"/>
+    <mergeCell ref="P8:P12"/>
+    <mergeCell ref="E1:K1"/>
     <mergeCell ref="R36:R38"/>
     <mergeCell ref="A15:K15"/>
     <mergeCell ref="J17:J18"/>
@@ -10392,11 +10533,6 @@
     <mergeCell ref="L15:L18"/>
     <mergeCell ref="M15:M17"/>
     <mergeCell ref="N15:N17"/>
-    <mergeCell ref="P3:P7"/>
-    <mergeCell ref="P16:P29"/>
-    <mergeCell ref="P13:P15"/>
-    <mergeCell ref="P8:P12"/>
-    <mergeCell ref="E1:K1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/Data/RHP.xlsx
+++ b/Data/RHP.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12720" firstSheet="2" activeTab="3"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" firstSheet="2" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="RHP" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="891" uniqueCount="496">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="894" uniqueCount="496">
   <si>
     <t>Coal Measures</t>
   </si>
@@ -3083,6 +3083,22 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="42" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -3131,6 +3147,24 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="44" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="44" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="45" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -3170,40 +3204,6 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="44" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="44" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="45" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="42" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -3773,31 +3773,31 @@
       <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="22.85546875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="30.5703125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="20.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="17.28515625" style="27" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.28515625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15.5703125" customWidth="1"/>
-    <col min="9" max="9" width="4.42578125" customWidth="1"/>
+    <col min="2" max="2" width="22.88671875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="30.5546875" style="1" customWidth="1"/>
+    <col min="4" max="4" width="20.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.33203125" style="27" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.5546875" customWidth="1"/>
+    <col min="9" max="9" width="4.44140625" customWidth="1"/>
     <col min="10" max="10" width="12" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="13.28515625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="9.28515625" customWidth="1"/>
-    <col min="14" max="14" width="28.7109375" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.85546875" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.42578125" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="9.33203125" customWidth="1"/>
+    <col min="14" max="14" width="28.6640625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.88671875" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.44140625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="13.88671875" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="14" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="18.28515625" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="32.140625" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="21.140625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="18.33203125" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="32.109375" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="21.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:33" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="2" spans="2:33" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:33" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="2" spans="2:33" x14ac:dyDescent="0.3">
       <c r="B2" s="38" t="s">
         <v>37</v>
       </c>
@@ -3851,18 +3851,18 @@
       <c r="Y2" s="146" t="s">
         <v>116</v>
       </c>
-      <c r="Z2" s="291" t="s">
+      <c r="Z2" s="297" t="s">
         <v>392</v>
       </c>
-      <c r="AA2" s="292"/>
-      <c r="AB2" s="292"/>
-      <c r="AC2" s="292"/>
-      <c r="AD2" s="292"/>
-      <c r="AE2" s="292"/>
-      <c r="AF2" s="292"/>
-      <c r="AG2" s="293"/>
-    </row>
-    <row r="3" spans="2:33" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AA2" s="298"/>
+      <c r="AB2" s="298"/>
+      <c r="AC2" s="298"/>
+      <c r="AD2" s="298"/>
+      <c r="AE2" s="298"/>
+      <c r="AF2" s="298"/>
+      <c r="AG2" s="299"/>
+    </row>
+    <row r="3" spans="2:33" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B3" s="44" t="s">
         <v>55</v>
       </c>
@@ -3928,7 +3928,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="4" spans="2:33" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:33" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B4" s="44" t="s">
         <v>56</v>
       </c>
@@ -3941,12 +3941,12 @@
       <c r="F4" s="50"/>
       <c r="G4" s="46"/>
       <c r="H4" s="46"/>
-      <c r="I4" s="296" t="s">
+      <c r="I4" s="302" t="s">
         <v>18</v>
       </c>
-      <c r="J4" s="297"/>
-      <c r="K4" s="297"/>
-      <c r="L4" s="298"/>
+      <c r="J4" s="303"/>
+      <c r="K4" s="303"/>
+      <c r="L4" s="304"/>
       <c r="N4" s="73" t="s">
         <v>25</v>
       </c>
@@ -3995,7 +3995,7 @@
       </c>
       <c r="AG4" s="143"/>
     </row>
-    <row r="5" spans="2:33" s="1" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:33" s="1" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B5" s="32" t="s">
         <v>5</v>
       </c>
@@ -4023,10 +4023,10 @@
       <c r="J5" s="34" t="s">
         <v>57</v>
       </c>
-      <c r="K5" s="303" t="s">
+      <c r="K5" s="309" t="s">
         <v>16</v>
       </c>
-      <c r="L5" s="304"/>
+      <c r="L5" s="310"/>
       <c r="N5" s="73" t="s">
         <v>26</v>
       </c>
@@ -4063,8 +4063,8 @@
       </c>
       <c r="AG5" s="118"/>
     </row>
-    <row r="6" spans="2:33" x14ac:dyDescent="0.25">
-      <c r="B6" s="301" t="s">
+    <row r="6" spans="2:33" x14ac:dyDescent="0.3">
+      <c r="B6" s="307" t="s">
         <v>0</v>
       </c>
       <c r="C6" s="26" t="s">
@@ -4134,8 +4134,8 @@
       </c>
       <c r="AG6" s="121"/>
     </row>
-    <row r="7" spans="2:33" x14ac:dyDescent="0.25">
-      <c r="B7" s="301"/>
+    <row r="7" spans="2:33" x14ac:dyDescent="0.3">
+      <c r="B7" s="307"/>
       <c r="C7" s="26">
         <f>1500*$G$2</f>
         <v>457.20000000000005</v>
@@ -4208,8 +4208,8 @@
       <c r="AF7" s="115"/>
       <c r="AG7" s="118"/>
     </row>
-    <row r="8" spans="2:33" x14ac:dyDescent="0.25">
-      <c r="B8" s="301"/>
+    <row r="8" spans="2:33" x14ac:dyDescent="0.3">
+      <c r="B8" s="307"/>
       <c r="C8" s="16"/>
       <c r="D8" s="4" t="s">
         <v>54</v>
@@ -4284,8 +4284,8 @@
         <v>70</v>
       </c>
     </row>
-    <row r="9" spans="2:33" x14ac:dyDescent="0.25">
-      <c r="B9" s="301"/>
+    <row r="9" spans="2:33" x14ac:dyDescent="0.3">
+      <c r="B9" s="307"/>
       <c r="C9" s="16" t="s">
         <v>38</v>
       </c>
@@ -4366,7 +4366,7 @@
       <c r="AF9" s="115"/>
       <c r="AG9" s="118"/>
     </row>
-    <row r="10" spans="2:33" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:33" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B10" s="23" t="s">
         <v>22</v>
       </c>
@@ -4434,7 +4434,7 @@
       </c>
       <c r="AG10" s="118"/>
     </row>
-    <row r="11" spans="2:33" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:33" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B11" s="23"/>
       <c r="C11" s="16"/>
       <c r="D11" s="4"/>
@@ -4452,16 +4452,16 @@
       <c r="L11" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="N11" s="290" t="s">
+      <c r="N11" s="296" t="s">
         <v>77</v>
       </c>
-      <c r="O11" s="290"/>
-      <c r="P11" s="290"/>
-      <c r="Q11" s="290"/>
-      <c r="R11" s="290"/>
-      <c r="S11" s="290"/>
-      <c r="T11" s="290"/>
-      <c r="U11" s="290"/>
+      <c r="O11" s="296"/>
+      <c r="P11" s="296"/>
+      <c r="Q11" s="296"/>
+      <c r="R11" s="296"/>
+      <c r="S11" s="296"/>
+      <c r="T11" s="296"/>
+      <c r="U11" s="296"/>
       <c r="Y11" s="117" t="s">
         <v>23</v>
       </c>
@@ -4480,7 +4480,7 @@
       </c>
       <c r="AG11" s="118"/>
     </row>
-    <row r="12" spans="2:33" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:33" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B12" s="219"/>
       <c r="C12" s="220">
         <f>$C$4*C10</f>
@@ -4526,8 +4526,8 @@
       </c>
       <c r="AG12" s="139"/>
     </row>
-    <row r="13" spans="2:33" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B13" s="302" t="s">
+    <row r="13" spans="2:33" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B13" s="308" t="s">
         <v>1</v>
       </c>
       <c r="C13" s="17"/>
@@ -4555,8 +4555,8 @@
         <v>67</v>
       </c>
     </row>
-    <row r="14" spans="2:33" x14ac:dyDescent="0.25">
-      <c r="B14" s="302"/>
+    <row r="14" spans="2:33" x14ac:dyDescent="0.3">
+      <c r="B14" s="308"/>
       <c r="C14" s="17"/>
       <c r="D14" s="5" t="s">
         <v>49</v>
@@ -4621,8 +4621,8 @@
         <v>92</v>
       </c>
     </row>
-    <row r="15" spans="2:33" x14ac:dyDescent="0.25">
-      <c r="B15" s="302"/>
+    <row r="15" spans="2:33" x14ac:dyDescent="0.3">
+      <c r="B15" s="308"/>
       <c r="C15" s="17"/>
       <c r="D15" s="5" t="s">
         <v>54</v>
@@ -4681,8 +4681,8 @@
         <v>1.8</v>
       </c>
     </row>
-    <row r="16" spans="2:33" x14ac:dyDescent="0.25">
-      <c r="B16" s="302"/>
+    <row r="16" spans="2:33" x14ac:dyDescent="0.3">
+      <c r="B16" s="308"/>
       <c r="C16" s="17" t="s">
         <v>38</v>
       </c>
@@ -4738,7 +4738,7 @@
       </c>
       <c r="AA16" s="83"/>
     </row>
-    <row r="17" spans="2:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:27" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B17" s="24" t="s">
         <v>22</v>
       </c>
@@ -4794,7 +4794,7 @@
       </c>
       <c r="AA17" s="83"/>
     </row>
-    <row r="18" spans="2:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:27" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B18" s="211"/>
       <c r="C18" s="212">
         <f>$C$4*C17</f>
@@ -4850,8 +4850,8 @@
       </c>
       <c r="AA18" s="83"/>
     </row>
-    <row r="19" spans="2:27" x14ac:dyDescent="0.25">
-      <c r="B19" s="299" t="s">
+    <row r="19" spans="2:27" x14ac:dyDescent="0.3">
+      <c r="B19" s="305" t="s">
         <v>4</v>
       </c>
       <c r="C19" s="25" t="s">
@@ -4914,8 +4914,8 @@
       <c r="Z19" s="78"/>
       <c r="AA19" s="83"/>
     </row>
-    <row r="20" spans="2:27" x14ac:dyDescent="0.25">
-      <c r="B20" s="299"/>
+    <row r="20" spans="2:27" x14ac:dyDescent="0.3">
+      <c r="B20" s="305"/>
       <c r="C20" s="18">
         <f>S5</f>
         <v>165</v>
@@ -4973,7 +4973,7 @@
       <c r="Z20" s="78"/>
       <c r="AA20" s="83"/>
     </row>
-    <row r="21" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:27" x14ac:dyDescent="0.3">
       <c r="B21" s="3" t="s">
         <v>2</v>
       </c>
@@ -5043,8 +5043,8 @@
       </c>
       <c r="AA21" s="83"/>
     </row>
-    <row r="22" spans="2:27" x14ac:dyDescent="0.25">
-      <c r="B22" s="299" t="s">
+    <row r="22" spans="2:27" x14ac:dyDescent="0.3">
+      <c r="B22" s="305" t="s">
         <v>3</v>
       </c>
       <c r="C22" s="18">
@@ -5110,8 +5110,8 @@
       </c>
       <c r="AA22" s="83"/>
     </row>
-    <row r="23" spans="2:27" x14ac:dyDescent="0.25">
-      <c r="B23" s="299"/>
+    <row r="23" spans="2:27" x14ac:dyDescent="0.3">
+      <c r="B23" s="305"/>
       <c r="C23" s="18">
         <f>S7</f>
         <v>85</v>
@@ -5178,8 +5178,8 @@
       <c r="Z23" s="78"/>
       <c r="AA23" s="83"/>
     </row>
-    <row r="24" spans="2:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B24" s="299"/>
+    <row r="24" spans="2:27" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B24" s="305"/>
       <c r="C24" s="198"/>
       <c r="D24" s="6"/>
       <c r="E24" s="203"/>
@@ -5223,7 +5223,7 @@
       <c r="Z24" s="78"/>
       <c r="AA24" s="83"/>
     </row>
-    <row r="25" spans="2:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:27" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B25" s="204"/>
       <c r="C25" s="205">
         <f>C4*(C20+C22+C23)</f>
@@ -5284,8 +5284,8 @@
       <c r="Z25" s="78"/>
       <c r="AA25" s="83"/>
     </row>
-    <row r="26" spans="2:27" x14ac:dyDescent="0.25">
-      <c r="B26" s="300" t="s">
+    <row r="26" spans="2:27" x14ac:dyDescent="0.3">
+      <c r="B26" s="306" t="s">
         <v>42</v>
       </c>
       <c r="C26" s="19"/>
@@ -5339,8 +5339,8 @@
       <c r="Z26" s="78"/>
       <c r="AA26" s="83"/>
     </row>
-    <row r="27" spans="2:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B27" s="300"/>
+    <row r="27" spans="2:27" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B27" s="306"/>
       <c r="C27" s="19"/>
       <c r="D27" s="7" t="s">
         <v>53</v>
@@ -5394,8 +5394,8 @@
         <v>1.7</v>
       </c>
     </row>
-    <row r="28" spans="2:27" x14ac:dyDescent="0.25">
-      <c r="B28" s="300"/>
+    <row r="28" spans="2:27" x14ac:dyDescent="0.3">
+      <c r="B28" s="306"/>
       <c r="C28" s="19"/>
       <c r="D28" s="7" t="s">
         <v>48</v>
@@ -5425,8 +5425,8 @@
         <v>15</v>
       </c>
     </row>
-    <row r="29" spans="2:27" x14ac:dyDescent="0.25">
-      <c r="B29" s="300"/>
+    <row r="29" spans="2:27" x14ac:dyDescent="0.3">
+      <c r="B29" s="306"/>
       <c r="C29" s="19">
         <f>3800*G2-(C10+C17+C20+C22+C23)+600</f>
         <v>873.24</v>
@@ -5459,8 +5459,8 @@
         <v>14</v>
       </c>
     </row>
-    <row r="30" spans="2:27" x14ac:dyDescent="0.25">
-      <c r="B30" s="300"/>
+    <row r="30" spans="2:27" x14ac:dyDescent="0.3">
+      <c r="B30" s="306"/>
       <c r="C30" s="19"/>
       <c r="D30" s="7" t="s">
         <v>54</v>
@@ -5490,8 +5490,8 @@
         <v>15</v>
       </c>
     </row>
-    <row r="31" spans="2:27" x14ac:dyDescent="0.25">
-      <c r="B31" s="300"/>
+    <row r="31" spans="2:27" x14ac:dyDescent="0.3">
+      <c r="B31" s="306"/>
       <c r="C31" s="19"/>
       <c r="D31" s="7" t="s">
         <v>50</v>
@@ -5521,8 +5521,8 @@
         <v>15</v>
       </c>
     </row>
-    <row r="32" spans="2:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B32" s="300"/>
+    <row r="32" spans="2:27" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B32" s="306"/>
       <c r="C32" s="19"/>
       <c r="D32" s="7" t="s">
         <v>51</v>
@@ -5550,7 +5550,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="33" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B33" s="225"/>
       <c r="C33" s="226">
         <f>C4*C29</f>
@@ -5580,16 +5580,16 @@
         <v>60</v>
       </c>
     </row>
-    <row r="34" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B34" s="51" t="s">
         <v>47</v>
       </c>
       <c r="C34" s="52"/>
-      <c r="D34" s="294" t="s">
+      <c r="D34" s="300" t="s">
         <v>59</v>
       </c>
-      <c r="E34" s="295"/>
-      <c r="F34" s="295"/>
+      <c r="E34" s="301"/>
+      <c r="F34" s="301"/>
       <c r="G34" s="55">
         <f>G12+G18+G25</f>
         <v>85657.801606295427</v>
@@ -5602,7 +5602,7 @@
       <c r="K34" s="53"/>
       <c r="L34" s="54"/>
     </row>
-    <row r="35" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B35" s="58" t="s">
         <v>64</v>
       </c>
@@ -5617,13 +5617,13 @@
       <c r="K35" s="60"/>
       <c r="L35" s="60"/>
     </row>
-    <row r="37" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:12" x14ac:dyDescent="0.3">
       <c r="J37" s="66"/>
     </row>
-    <row r="38" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:12" x14ac:dyDescent="0.3">
       <c r="J38" s="65"/>
     </row>
-    <row r="76" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="76" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E76"/>
     </row>
   </sheetData>
@@ -5654,19 +5654,19 @@
       <selection activeCell="L44" sqref="L44"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="20.28515625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="20.33203125" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="8.5703125" customWidth="1"/>
-    <col min="2" max="2" width="19.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="6.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="8.5546875" customWidth="1"/>
+    <col min="2" max="2" width="19.109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="6.44140625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="6" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="6.5703125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="5.42578125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="6.7109375" customWidth="1"/>
+    <col min="8" max="8" width="6.5546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="5.44140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="6.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="89"/>
       <c r="B1" s="90" t="s">
         <v>116</v>
@@ -5697,7 +5697,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="2" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="87"/>
       <c r="B2" s="92" t="s">
         <v>124</v>
@@ -5728,7 +5728,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="3" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="87"/>
       <c r="B3" s="94" t="s">
         <v>124</v>
@@ -5759,7 +5759,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="4" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="87"/>
       <c r="B4" s="92" t="s">
         <v>124</v>
@@ -5790,7 +5790,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="5" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="87"/>
       <c r="B5" s="94" t="s">
         <v>140</v>
@@ -5821,7 +5821,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="6" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="87"/>
       <c r="B6" s="92" t="s">
         <v>147</v>
@@ -5852,7 +5852,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="7" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="87"/>
       <c r="B7" s="94" t="s">
         <v>152</v>
@@ -5881,7 +5881,7 @@
       <c r="J7" s="87"/>
       <c r="K7" s="87"/>
     </row>
-    <row r="8" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="87"/>
       <c r="B8" s="92" t="s">
         <v>155</v>
@@ -5910,7 +5910,7 @@
       <c r="J8" s="87"/>
       <c r="K8" s="87"/>
     </row>
-    <row r="9" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" s="87"/>
       <c r="B9" s="94" t="s">
         <v>158</v>
@@ -5939,7 +5939,7 @@
       <c r="J9" s="87"/>
       <c r="K9" s="87"/>
     </row>
-    <row r="10" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" s="87"/>
       <c r="B10" s="92" t="s">
         <v>163</v>
@@ -5968,7 +5968,7 @@
       <c r="J10" s="87"/>
       <c r="K10" s="87"/>
     </row>
-    <row r="11" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" s="87"/>
       <c r="B11" s="94" t="s">
         <v>167</v>
@@ -5997,7 +5997,7 @@
       <c r="J11" s="87"/>
       <c r="K11" s="87"/>
     </row>
-    <row r="12" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A12" s="87"/>
       <c r="B12" s="92" t="s">
         <v>172</v>
@@ -6026,7 +6026,7 @@
       <c r="J12" s="87"/>
       <c r="K12" s="87"/>
     </row>
-    <row r="13" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A13" s="87"/>
       <c r="B13" s="94" t="s">
         <v>176</v>
@@ -6055,7 +6055,7 @@
       <c r="J13" s="87"/>
       <c r="K13" s="87"/>
     </row>
-    <row r="14" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A14" s="87"/>
       <c r="B14" s="92" t="s">
         <v>181</v>
@@ -6084,7 +6084,7 @@
       <c r="J14" s="87"/>
       <c r="K14" s="87"/>
     </row>
-    <row r="15" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A15" s="87"/>
       <c r="B15" s="94" t="s">
         <v>186</v>
@@ -6113,7 +6113,7 @@
       <c r="J15" s="87"/>
       <c r="K15" s="87"/>
     </row>
-    <row r="16" spans="1:11" ht="30.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:11" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A16" s="87"/>
       <c r="B16" s="92" t="s">
         <v>190</v>
@@ -6142,7 +6142,7 @@
       <c r="J16" s="87"/>
       <c r="K16" s="87"/>
     </row>
-    <row r="17" spans="2:9" ht="30.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:9" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B17" s="94" t="s">
         <v>195</v>
       </c>
@@ -6168,7 +6168,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="18" spans="2:9" ht="30.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:9" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B18" s="92" t="s">
         <v>199</v>
       </c>
@@ -6194,7 +6194,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="19" spans="2:9" ht="30.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:9" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B19" s="94" t="s">
         <v>203</v>
       </c>
@@ -6220,7 +6220,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="20" spans="2:9" ht="30.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:9" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B20" s="92" t="s">
         <v>207</v>
       </c>
@@ -6246,7 +6246,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="21" spans="2:9" ht="30.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:9" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B21" s="94" t="s">
         <v>210</v>
       </c>
@@ -6272,7 +6272,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="22" spans="2:9" ht="30.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:9" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B22" s="92" t="s">
         <v>213</v>
       </c>
@@ -6298,7 +6298,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="23" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B23" s="94" t="s">
         <v>216</v>
       </c>
@@ -6324,7 +6324,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="24" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B24" s="92" t="s">
         <v>218</v>
       </c>
@@ -6350,7 +6350,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="25" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B25" s="94" t="s">
         <v>221</v>
       </c>
@@ -6376,7 +6376,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="26" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B26" s="92" t="s">
         <v>224</v>
       </c>
@@ -6402,7 +6402,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="27" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B27" s="94" t="s">
         <v>228</v>
       </c>
@@ -6428,7 +6428,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="28" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B28" s="92" t="s">
         <v>231</v>
       </c>
@@ -6454,7 +6454,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="29" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B29" s="94" t="s">
         <v>234</v>
       </c>
@@ -6480,7 +6480,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="30" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B30" s="92" t="s">
         <v>238</v>
       </c>
@@ -6506,7 +6506,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="31" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="2:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B31" s="94" t="s">
         <v>241</v>
       </c>
@@ -6532,7 +6532,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="32" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="2:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B32" s="92" t="s">
         <v>245</v>
       </c>
@@ -6558,7 +6558,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="33" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B33" s="94" t="s">
         <v>249</v>
       </c>
@@ -6584,7 +6584,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="34" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B34" s="92" t="s">
         <v>253</v>
       </c>
@@ -6610,7 +6610,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="35" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B35" s="94" t="s">
         <v>257</v>
       </c>
@@ -6636,7 +6636,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="36" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B36" s="92" t="s">
         <v>262</v>
       </c>
@@ -6662,7 +6662,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="37" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B37" s="94" t="s">
         <v>267</v>
       </c>
@@ -6688,7 +6688,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="38" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B38" s="92" t="s">
         <v>270</v>
       </c>
@@ -6714,7 +6714,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="39" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B39" s="94" t="s">
         <v>274</v>
       </c>
@@ -6738,7 +6738,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="40" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B40" s="92" t="s">
         <v>276</v>
       </c>
@@ -6766,7 +6766,7 @@
       <c r="K40" s="102"/>
       <c r="L40" s="102"/>
     </row>
-    <row r="41" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B41" s="160" t="s">
         <v>278</v>
       </c>
@@ -6794,7 +6794,7 @@
       <c r="K41" s="102"/>
       <c r="L41" s="102"/>
     </row>
-    <row r="42" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B42" s="160" t="s">
         <v>281</v>
       </c>
@@ -6822,7 +6822,7 @@
       <c r="K42" s="102"/>
       <c r="L42" s="102"/>
     </row>
-    <row r="43" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B43" s="94" t="s">
         <v>285</v>
       </c>
@@ -6850,7 +6850,7 @@
       <c r="K43" s="102"/>
       <c r="L43" s="102"/>
     </row>
-    <row r="44" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B44" s="92" t="s">
         <v>288</v>
       </c>
@@ -6878,7 +6878,7 @@
       <c r="K44" s="102"/>
       <c r="L44" s="102"/>
     </row>
-    <row r="45" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B45" s="160" t="s">
         <v>292</v>
       </c>
@@ -6906,7 +6906,7 @@
       <c r="K45" s="102"/>
       <c r="L45" s="102"/>
     </row>
-    <row r="46" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B46" s="160" t="s">
         <v>296</v>
       </c>
@@ -6934,7 +6934,7 @@
       <c r="K46" s="102"/>
       <c r="L46" s="102"/>
     </row>
-    <row r="47" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B47" s="94" t="s">
         <v>298</v>
       </c>
@@ -6962,7 +6962,7 @@
       <c r="K47" s="102"/>
       <c r="L47" s="102"/>
     </row>
-    <row r="48" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B48" s="92" t="s">
         <v>301</v>
       </c>
@@ -6990,7 +6990,7 @@
       <c r="K48" s="152"/>
       <c r="L48" s="102"/>
     </row>
-    <row r="49" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B49" s="94" t="s">
         <v>304</v>
       </c>
@@ -7018,7 +7018,7 @@
       <c r="K49" s="102"/>
       <c r="L49" s="102"/>
     </row>
-    <row r="50" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B50" s="92" t="s">
         <v>307</v>
       </c>
@@ -7046,7 +7046,7 @@
       <c r="K50" s="102"/>
       <c r="L50" s="102"/>
     </row>
-    <row r="51" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B51" s="94" t="s">
         <v>310</v>
       </c>
@@ -7074,7 +7074,7 @@
       <c r="K51" s="102"/>
       <c r="L51" s="102"/>
     </row>
-    <row r="52" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B52" s="92" t="s">
         <v>313</v>
       </c>
@@ -7104,7 +7104,7 @@
       </c>
       <c r="L52" s="102"/>
     </row>
-    <row r="53" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B53" s="160" t="s">
         <v>316</v>
       </c>
@@ -7133,7 +7133,7 @@
         <v>397</v>
       </c>
     </row>
-    <row r="54" spans="2:12" ht="30.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="2:12" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B54" s="92" t="s">
         <v>319</v>
       </c>
@@ -7159,7 +7159,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="55" spans="2:12" ht="30.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="2:12" ht="29.4" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B55" s="94" t="s">
         <v>322</v>
       </c>
@@ -7185,7 +7185,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="56" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B56" s="92" t="s">
         <v>325</v>
       </c>
@@ -7214,7 +7214,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="57" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B57" s="94" t="s">
         <v>327</v>
       </c>
@@ -7244,7 +7244,7 @@
         <v>24.185714285714283</v>
       </c>
     </row>
-    <row r="58" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B58" s="92" t="s">
         <v>330</v>
       </c>
@@ -7274,7 +7274,7 @@
         <v>25.74</v>
       </c>
     </row>
-    <row r="59" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B59" s="160" t="s">
         <v>334</v>
       </c>
@@ -7304,7 +7304,7 @@
         <v>23.560869565217395</v>
       </c>
     </row>
-    <row r="60" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B60" s="92" t="s">
         <v>338</v>
       </c>
@@ -7330,7 +7330,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="61" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B61" s="160" t="s">
         <v>342</v>
       </c>
@@ -7356,7 +7356,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="62" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B62" s="92" t="s">
         <v>344</v>
       </c>
@@ -7382,7 +7382,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="63" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B63" s="94" t="s">
         <v>346</v>
       </c>
@@ -7408,7 +7408,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="64" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B64" s="92" t="s">
         <v>351</v>
       </c>
@@ -7434,247 +7434,247 @@
         <v>130</v>
       </c>
     </row>
-    <row r="66" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A66" s="305" t="s">
+    <row r="66" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A66" s="311" t="s">
         <v>354</v>
       </c>
-      <c r="B66" s="305"/>
-      <c r="C66" s="305"/>
-      <c r="D66" s="305"/>
-      <c r="E66" s="305"/>
-      <c r="F66" s="305"/>
-      <c r="G66" s="305"/>
-      <c r="H66" s="305"/>
-      <c r="I66" s="305"/>
-      <c r="J66" s="305"/>
-    </row>
-    <row r="67" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A67" s="305"/>
-      <c r="B67" s="305"/>
-      <c r="C67" s="305"/>
-      <c r="D67" s="305"/>
-      <c r="E67" s="305"/>
-      <c r="F67" s="305"/>
-      <c r="G67" s="305"/>
-      <c r="H67" s="305"/>
-      <c r="I67" s="305"/>
-      <c r="J67" s="305"/>
-    </row>
-    <row r="68" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A68" s="305"/>
-      <c r="B68" s="305"/>
-      <c r="C68" s="305"/>
-      <c r="D68" s="305"/>
-      <c r="E68" s="305"/>
-      <c r="F68" s="305"/>
-      <c r="G68" s="305"/>
-      <c r="H68" s="305"/>
-      <c r="I68" s="305"/>
-      <c r="J68" s="305"/>
-    </row>
-    <row r="69" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A69" s="305"/>
-      <c r="B69" s="305"/>
-      <c r="C69" s="305"/>
-      <c r="D69" s="305"/>
-      <c r="E69" s="305"/>
-      <c r="F69" s="305"/>
-      <c r="G69" s="305"/>
-      <c r="H69" s="305"/>
-      <c r="I69" s="305"/>
-      <c r="J69" s="305"/>
-    </row>
-    <row r="70" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A70" s="305"/>
-      <c r="B70" s="305"/>
-      <c r="C70" s="305"/>
-      <c r="D70" s="305"/>
-      <c r="E70" s="305"/>
-      <c r="F70" s="305"/>
-      <c r="G70" s="305"/>
-      <c r="H70" s="305"/>
-      <c r="I70" s="305"/>
-      <c r="J70" s="305"/>
-    </row>
-    <row r="71" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A71" s="305"/>
-      <c r="B71" s="305"/>
-      <c r="C71" s="305"/>
-      <c r="D71" s="305"/>
-      <c r="E71" s="305"/>
-      <c r="F71" s="305"/>
-      <c r="G71" s="305"/>
-      <c r="H71" s="305"/>
-      <c r="I71" s="305"/>
-      <c r="J71" s="305"/>
-    </row>
-    <row r="72" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A72" s="305"/>
-      <c r="B72" s="305"/>
-      <c r="C72" s="305"/>
-      <c r="D72" s="305"/>
-      <c r="E72" s="305"/>
-      <c r="F72" s="305"/>
-      <c r="G72" s="305"/>
-      <c r="H72" s="305"/>
-      <c r="I72" s="305"/>
-      <c r="J72" s="305"/>
-    </row>
-    <row r="73" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A73" s="305"/>
-      <c r="B73" s="305"/>
-      <c r="C73" s="305"/>
-      <c r="D73" s="305"/>
-      <c r="E73" s="305"/>
-      <c r="F73" s="305"/>
-      <c r="G73" s="305"/>
-      <c r="H73" s="305"/>
-      <c r="I73" s="305"/>
-      <c r="J73" s="305"/>
-    </row>
-    <row r="74" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A74" s="305"/>
-      <c r="B74" s="305"/>
-      <c r="C74" s="305"/>
-      <c r="D74" s="305"/>
-      <c r="E74" s="305"/>
-      <c r="F74" s="305"/>
-      <c r="G74" s="305"/>
-      <c r="H74" s="305"/>
-      <c r="I74" s="305"/>
-      <c r="J74" s="305"/>
-    </row>
-    <row r="75" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A75" s="305"/>
-      <c r="B75" s="305"/>
-      <c r="C75" s="305"/>
-      <c r="D75" s="305"/>
-      <c r="E75" s="305"/>
-      <c r="F75" s="305"/>
-      <c r="G75" s="305"/>
-      <c r="H75" s="305"/>
-      <c r="I75" s="305"/>
-      <c r="J75" s="305"/>
-    </row>
-    <row r="76" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A76" s="305"/>
-      <c r="B76" s="305"/>
-      <c r="C76" s="305"/>
-      <c r="D76" s="305"/>
-      <c r="E76" s="305"/>
-      <c r="F76" s="305"/>
-      <c r="G76" s="305"/>
-      <c r="H76" s="305"/>
-      <c r="I76" s="305"/>
-      <c r="J76" s="305"/>
-    </row>
-    <row r="77" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A77" s="305"/>
-      <c r="B77" s="305"/>
-      <c r="C77" s="305"/>
-      <c r="D77" s="305"/>
-      <c r="E77" s="305"/>
-      <c r="F77" s="305"/>
-      <c r="G77" s="305"/>
-      <c r="H77" s="305"/>
-      <c r="I77" s="305"/>
-      <c r="J77" s="305"/>
-    </row>
-    <row r="78" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A78" s="305"/>
-      <c r="B78" s="305"/>
-      <c r="C78" s="305"/>
-      <c r="D78" s="305"/>
-      <c r="E78" s="305"/>
-      <c r="F78" s="305"/>
-      <c r="G78" s="305"/>
-      <c r="H78" s="305"/>
-      <c r="I78" s="305"/>
-      <c r="J78" s="305"/>
-    </row>
-    <row r="79" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A79" s="305"/>
-      <c r="B79" s="305"/>
-      <c r="C79" s="305"/>
-      <c r="D79" s="305"/>
-      <c r="E79" s="305"/>
-      <c r="F79" s="305"/>
-      <c r="G79" s="305"/>
-      <c r="H79" s="305"/>
-      <c r="I79" s="305"/>
-      <c r="J79" s="305"/>
-    </row>
-    <row r="80" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A80" s="305"/>
-      <c r="B80" s="305"/>
-      <c r="C80" s="305"/>
-      <c r="D80" s="305"/>
-      <c r="E80" s="305"/>
-      <c r="F80" s="305"/>
-      <c r="G80" s="305"/>
-      <c r="H80" s="305"/>
-      <c r="I80" s="305"/>
-      <c r="J80" s="305"/>
-    </row>
-    <row r="81" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A81" s="305"/>
-      <c r="B81" s="305"/>
-      <c r="C81" s="305"/>
-      <c r="D81" s="305"/>
-      <c r="E81" s="305"/>
-      <c r="F81" s="305"/>
-      <c r="G81" s="305"/>
-      <c r="H81" s="305"/>
-      <c r="I81" s="305"/>
-      <c r="J81" s="305"/>
-    </row>
-    <row r="82" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A82" s="305"/>
-      <c r="B82" s="305"/>
-      <c r="C82" s="305"/>
-      <c r="D82" s="305"/>
-      <c r="E82" s="305"/>
-      <c r="F82" s="305"/>
-      <c r="G82" s="305"/>
-      <c r="H82" s="305"/>
-      <c r="I82" s="305"/>
-      <c r="J82" s="305"/>
-    </row>
-    <row r="83" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A83" s="305"/>
-      <c r="B83" s="305"/>
-      <c r="C83" s="305"/>
-      <c r="D83" s="305"/>
-      <c r="E83" s="305"/>
-      <c r="F83" s="305"/>
-      <c r="G83" s="305"/>
-      <c r="H83" s="305"/>
-      <c r="I83" s="305"/>
-      <c r="J83" s="305"/>
-    </row>
-    <row r="84" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A84" s="305"/>
-      <c r="B84" s="305"/>
-      <c r="C84" s="305"/>
-      <c r="D84" s="305"/>
-      <c r="E84" s="305"/>
-      <c r="F84" s="305"/>
-      <c r="G84" s="305"/>
-      <c r="H84" s="305"/>
-      <c r="I84" s="305"/>
-      <c r="J84" s="305"/>
-    </row>
-    <row r="85" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A85" s="305"/>
-      <c r="B85" s="305"/>
-      <c r="C85" s="305"/>
-      <c r="D85" s="305"/>
-      <c r="E85" s="305"/>
-      <c r="F85" s="305"/>
-      <c r="G85" s="305"/>
-      <c r="H85" s="305"/>
-      <c r="I85" s="305"/>
-      <c r="J85" s="305"/>
+      <c r="B66" s="311"/>
+      <c r="C66" s="311"/>
+      <c r="D66" s="311"/>
+      <c r="E66" s="311"/>
+      <c r="F66" s="311"/>
+      <c r="G66" s="311"/>
+      <c r="H66" s="311"/>
+      <c r="I66" s="311"/>
+      <c r="J66" s="311"/>
+    </row>
+    <row r="67" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A67" s="311"/>
+      <c r="B67" s="311"/>
+      <c r="C67" s="311"/>
+      <c r="D67" s="311"/>
+      <c r="E67" s="311"/>
+      <c r="F67" s="311"/>
+      <c r="G67" s="311"/>
+      <c r="H67" s="311"/>
+      <c r="I67" s="311"/>
+      <c r="J67" s="311"/>
+    </row>
+    <row r="68" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A68" s="311"/>
+      <c r="B68" s="311"/>
+      <c r="C68" s="311"/>
+      <c r="D68" s="311"/>
+      <c r="E68" s="311"/>
+      <c r="F68" s="311"/>
+      <c r="G68" s="311"/>
+      <c r="H68" s="311"/>
+      <c r="I68" s="311"/>
+      <c r="J68" s="311"/>
+    </row>
+    <row r="69" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A69" s="311"/>
+      <c r="B69" s="311"/>
+      <c r="C69" s="311"/>
+      <c r="D69" s="311"/>
+      <c r="E69" s="311"/>
+      <c r="F69" s="311"/>
+      <c r="G69" s="311"/>
+      <c r="H69" s="311"/>
+      <c r="I69" s="311"/>
+      <c r="J69" s="311"/>
+    </row>
+    <row r="70" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A70" s="311"/>
+      <c r="B70" s="311"/>
+      <c r="C70" s="311"/>
+      <c r="D70" s="311"/>
+      <c r="E70" s="311"/>
+      <c r="F70" s="311"/>
+      <c r="G70" s="311"/>
+      <c r="H70" s="311"/>
+      <c r="I70" s="311"/>
+      <c r="J70" s="311"/>
+    </row>
+    <row r="71" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A71" s="311"/>
+      <c r="B71" s="311"/>
+      <c r="C71" s="311"/>
+      <c r="D71" s="311"/>
+      <c r="E71" s="311"/>
+      <c r="F71" s="311"/>
+      <c r="G71" s="311"/>
+      <c r="H71" s="311"/>
+      <c r="I71" s="311"/>
+      <c r="J71" s="311"/>
+    </row>
+    <row r="72" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A72" s="311"/>
+      <c r="B72" s="311"/>
+      <c r="C72" s="311"/>
+      <c r="D72" s="311"/>
+      <c r="E72" s="311"/>
+      <c r="F72" s="311"/>
+      <c r="G72" s="311"/>
+      <c r="H72" s="311"/>
+      <c r="I72" s="311"/>
+      <c r="J72" s="311"/>
+    </row>
+    <row r="73" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A73" s="311"/>
+      <c r="B73" s="311"/>
+      <c r="C73" s="311"/>
+      <c r="D73" s="311"/>
+      <c r="E73" s="311"/>
+      <c r="F73" s="311"/>
+      <c r="G73" s="311"/>
+      <c r="H73" s="311"/>
+      <c r="I73" s="311"/>
+      <c r="J73" s="311"/>
+    </row>
+    <row r="74" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A74" s="311"/>
+      <c r="B74" s="311"/>
+      <c r="C74" s="311"/>
+      <c r="D74" s="311"/>
+      <c r="E74" s="311"/>
+      <c r="F74" s="311"/>
+      <c r="G74" s="311"/>
+      <c r="H74" s="311"/>
+      <c r="I74" s="311"/>
+      <c r="J74" s="311"/>
+    </row>
+    <row r="75" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A75" s="311"/>
+      <c r="B75" s="311"/>
+      <c r="C75" s="311"/>
+      <c r="D75" s="311"/>
+      <c r="E75" s="311"/>
+      <c r="F75" s="311"/>
+      <c r="G75" s="311"/>
+      <c r="H75" s="311"/>
+      <c r="I75" s="311"/>
+      <c r="J75" s="311"/>
+    </row>
+    <row r="76" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A76" s="311"/>
+      <c r="B76" s="311"/>
+      <c r="C76" s="311"/>
+      <c r="D76" s="311"/>
+      <c r="E76" s="311"/>
+      <c r="F76" s="311"/>
+      <c r="G76" s="311"/>
+      <c r="H76" s="311"/>
+      <c r="I76" s="311"/>
+      <c r="J76" s="311"/>
+    </row>
+    <row r="77" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A77" s="311"/>
+      <c r="B77" s="311"/>
+      <c r="C77" s="311"/>
+      <c r="D77" s="311"/>
+      <c r="E77" s="311"/>
+      <c r="F77" s="311"/>
+      <c r="G77" s="311"/>
+      <c r="H77" s="311"/>
+      <c r="I77" s="311"/>
+      <c r="J77" s="311"/>
+    </row>
+    <row r="78" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A78" s="311"/>
+      <c r="B78" s="311"/>
+      <c r="C78" s="311"/>
+      <c r="D78" s="311"/>
+      <c r="E78" s="311"/>
+      <c r="F78" s="311"/>
+      <c r="G78" s="311"/>
+      <c r="H78" s="311"/>
+      <c r="I78" s="311"/>
+      <c r="J78" s="311"/>
+    </row>
+    <row r="79" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A79" s="311"/>
+      <c r="B79" s="311"/>
+      <c r="C79" s="311"/>
+      <c r="D79" s="311"/>
+      <c r="E79" s="311"/>
+      <c r="F79" s="311"/>
+      <c r="G79" s="311"/>
+      <c r="H79" s="311"/>
+      <c r="I79" s="311"/>
+      <c r="J79" s="311"/>
+    </row>
+    <row r="80" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A80" s="311"/>
+      <c r="B80" s="311"/>
+      <c r="C80" s="311"/>
+      <c r="D80" s="311"/>
+      <c r="E80" s="311"/>
+      <c r="F80" s="311"/>
+      <c r="G80" s="311"/>
+      <c r="H80" s="311"/>
+      <c r="I80" s="311"/>
+      <c r="J80" s="311"/>
+    </row>
+    <row r="81" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A81" s="311"/>
+      <c r="B81" s="311"/>
+      <c r="C81" s="311"/>
+      <c r="D81" s="311"/>
+      <c r="E81" s="311"/>
+      <c r="F81" s="311"/>
+      <c r="G81" s="311"/>
+      <c r="H81" s="311"/>
+      <c r="I81" s="311"/>
+      <c r="J81" s="311"/>
+    </row>
+    <row r="82" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A82" s="311"/>
+      <c r="B82" s="311"/>
+      <c r="C82" s="311"/>
+      <c r="D82" s="311"/>
+      <c r="E82" s="311"/>
+      <c r="F82" s="311"/>
+      <c r="G82" s="311"/>
+      <c r="H82" s="311"/>
+      <c r="I82" s="311"/>
+      <c r="J82" s="311"/>
+    </row>
+    <row r="83" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A83" s="311"/>
+      <c r="B83" s="311"/>
+      <c r="C83" s="311"/>
+      <c r="D83" s="311"/>
+      <c r="E83" s="311"/>
+      <c r="F83" s="311"/>
+      <c r="G83" s="311"/>
+      <c r="H83" s="311"/>
+      <c r="I83" s="311"/>
+      <c r="J83" s="311"/>
+    </row>
+    <row r="84" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A84" s="311"/>
+      <c r="B84" s="311"/>
+      <c r="C84" s="311"/>
+      <c r="D84" s="311"/>
+      <c r="E84" s="311"/>
+      <c r="F84" s="311"/>
+      <c r="G84" s="311"/>
+      <c r="H84" s="311"/>
+      <c r="I84" s="311"/>
+      <c r="J84" s="311"/>
+    </row>
+    <row r="85" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A85" s="311"/>
+      <c r="B85" s="311"/>
+      <c r="C85" s="311"/>
+      <c r="D85" s="311"/>
+      <c r="E85" s="311"/>
+      <c r="F85" s="311"/>
+      <c r="G85" s="311"/>
+      <c r="H85" s="311"/>
+      <c r="I85" s="311"/>
+      <c r="J85" s="311"/>
     </row>
   </sheetData>
   <autoFilter ref="B1:I64">
@@ -7703,17 +7703,17 @@
       <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="17.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>377</v>
       </c>
     </row>
-    <row r="2" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A2" s="97" t="s">
         <v>356</v>
       </c>
@@ -7755,7 +7755,7 @@
       <c r="T2" s="97"/>
       <c r="U2" s="97"/>
     </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A3" s="97" t="s">
         <v>476</v>
       </c>
@@ -7796,7 +7796,7 @@
       <c r="T3" s="96"/>
       <c r="U3" s="96"/>
     </row>
-    <row r="4" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A4" s="97" t="s">
         <v>476</v>
       </c>
@@ -7837,7 +7837,7 @@
       <c r="T4" s="96"/>
       <c r="U4" s="96"/>
     </row>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A5" s="97" t="s">
         <v>476</v>
       </c>
@@ -7878,7 +7878,7 @@
       <c r="T5" s="96"/>
       <c r="U5" s="96"/>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A6" s="97" t="s">
         <v>476</v>
       </c>
@@ -7918,7 +7918,7 @@
       <c r="T6" s="96"/>
       <c r="U6" s="96"/>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A7" s="97" t="s">
         <v>476</v>
       </c>
@@ -7958,7 +7958,7 @@
       <c r="T7" s="96"/>
       <c r="U7" s="96"/>
     </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A8" s="97" t="s">
         <v>476</v>
       </c>
@@ -7998,7 +7998,7 @@
       <c r="T8" s="96"/>
       <c r="U8" s="96"/>
     </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A9" s="101" t="s">
         <v>476</v>
       </c>
@@ -8040,7 +8040,7 @@
       <c r="T9" s="96"/>
       <c r="U9" s="96"/>
     </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A10" s="97" t="s">
         <v>476</v>
       </c>
@@ -8081,7 +8081,7 @@
       <c r="T10" s="96"/>
       <c r="U10" s="96"/>
     </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A11" s="97" t="s">
         <v>476</v>
       </c>
@@ -8123,7 +8123,7 @@
       <c r="T11" s="96"/>
       <c r="U11" s="96"/>
     </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A12" s="97" t="s">
         <v>476</v>
       </c>
@@ -8165,7 +8165,7 @@
       <c r="T12" s="96"/>
       <c r="U12" s="96"/>
     </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A13" s="97" t="s">
         <v>476</v>
       </c>
@@ -8197,7 +8197,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A14" s="97" t="s">
         <v>476</v>
       </c>
@@ -8229,7 +8229,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A15" s="97" t="s">
         <v>476</v>
       </c>
@@ -8261,7 +8261,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A16" s="97" t="s">
         <v>476</v>
       </c>
@@ -8293,7 +8293,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A17" s="97" t="s">
         <v>476</v>
       </c>
@@ -8324,7 +8324,7 @@
       <c r="J17" s="96"/>
       <c r="K17" s="96"/>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A18" s="97" t="s">
         <v>476</v>
       </c>
@@ -8357,7 +8357,7 @@
       </c>
       <c r="K18" s="96"/>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A19" s="97" t="s">
         <v>476</v>
       </c>
@@ -8390,7 +8390,7 @@
       </c>
       <c r="K19" s="96"/>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A20" s="97" t="s">
         <v>476</v>
       </c>
@@ -8422,7 +8422,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A21" s="97" t="s">
         <v>476</v>
       </c>
@@ -8455,7 +8455,7 @@
       </c>
       <c r="K21" s="96"/>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A22" s="97" t="s">
         <v>476</v>
       </c>
@@ -8488,7 +8488,7 @@
       </c>
       <c r="K22" s="96"/>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A23" s="97" t="s">
         <v>476</v>
       </c>
@@ -8521,7 +8521,7 @@
       </c>
       <c r="K23" s="96"/>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A24" s="97" t="s">
         <v>476</v>
       </c>
@@ -8554,15 +8554,15 @@
       </c>
       <c r="K24" s="96"/>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A26" s="98" t="s">
         <v>371</v>
       </c>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
       <c r="F28" s="67"/>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A29" s="99" t="s">
         <v>271</v>
       </c>
@@ -8574,7 +8574,7 @@
       </c>
       <c r="F29" s="67"/>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A30" s="99" t="s">
         <v>271</v>
       </c>
@@ -8586,7 +8586,7 @@
       </c>
       <c r="F30" s="67"/>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A31" s="99" t="s">
         <v>271</v>
       </c>
@@ -8598,7 +8598,7 @@
       </c>
       <c r="F31" s="67"/>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A32" s="99" t="s">
         <v>271</v>
       </c>
@@ -8609,7 +8609,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A33" s="99" t="s">
         <v>271</v>
       </c>
@@ -8620,7 +8620,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A34" s="99" t="s">
         <v>271</v>
       </c>
@@ -8637,7 +8637,7 @@
       <c r="J34" s="103"/>
       <c r="K34" s="103"/>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A35" s="99" t="s">
         <v>159</v>
       </c>
@@ -8654,7 +8654,7 @@
       <c r="J35" s="103"/>
       <c r="K35" s="103"/>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A36" s="99" t="s">
         <v>159</v>
       </c>
@@ -8671,7 +8671,7 @@
       <c r="J36" s="103"/>
       <c r="K36" s="103"/>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A37" s="99" t="s">
         <v>159</v>
       </c>
@@ -8688,7 +8688,7 @@
       <c r="J37" s="103"/>
       <c r="K37" s="103"/>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A38" s="99" t="s">
         <v>159</v>
       </c>
@@ -8705,7 +8705,7 @@
       <c r="J38" s="103"/>
       <c r="K38" s="103"/>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A39" s="99" t="s">
         <v>159</v>
       </c>
@@ -8722,7 +8722,7 @@
       <c r="J39" s="103"/>
       <c r="K39" s="103"/>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A40" s="99" t="s">
         <v>159</v>
       </c>
@@ -8739,7 +8739,7 @@
       <c r="J40" s="103"/>
       <c r="K40" s="103"/>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A41" s="99" t="s">
         <v>159</v>
       </c>
@@ -8756,7 +8756,7 @@
       <c r="J41" s="103"/>
       <c r="K41" s="103"/>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
       <c r="F42" s="103"/>
       <c r="G42" s="103"/>
       <c r="H42" s="103"/>
@@ -8764,24 +8764,24 @@
       <c r="J42" s="103"/>
       <c r="K42" s="103"/>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>400</v>
       </c>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>399</v>
       </c>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
       <c r="F48" s="103"/>
       <c r="G48" s="103"/>
       <c r="H48" s="103"/>
       <c r="I48" s="103"/>
       <c r="J48" s="103"/>
     </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>379</v>
       </c>
@@ -8791,7 +8791,7 @@
       <c r="I49" s="103"/>
       <c r="J49" s="103"/>
     </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>380</v>
       </c>
@@ -8801,7 +8801,7 @@
       <c r="I50" s="103"/>
       <c r="J50" s="103"/>
     </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>381</v>
       </c>
@@ -8811,12 +8811,12 @@
       <c r="I51" s="103"/>
       <c r="J51" s="103"/>
     </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>382</v>
       </c>
     </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>383</v>
       </c>
@@ -8828,49 +8828,49 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:W58"/>
+  <dimension ref="A1:W61"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="H43" sqref="H43"/>
+    <sheetView tabSelected="1" topLeftCell="A37" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="L48" sqref="L48"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="30.7109375" style="116" customWidth="1"/>
-    <col min="2" max="2" width="11.5703125" style="116" customWidth="1"/>
-    <col min="3" max="3" width="14.7109375" style="116" customWidth="1"/>
-    <col min="4" max="4" width="15.7109375" style="116" customWidth="1"/>
-    <col min="5" max="5" width="13.42578125" style="116" customWidth="1"/>
-    <col min="6" max="6" width="14.5703125" style="116" customWidth="1"/>
+    <col min="1" max="1" width="30.6640625" style="116" customWidth="1"/>
+    <col min="2" max="2" width="11.5546875" style="116" customWidth="1"/>
+    <col min="3" max="3" width="14.6640625" style="116" customWidth="1"/>
+    <col min="4" max="4" width="15.6640625" style="116" customWidth="1"/>
+    <col min="5" max="5" width="13.44140625" style="116" customWidth="1"/>
+    <col min="6" max="6" width="14.5546875" style="116" customWidth="1"/>
     <col min="7" max="7" width="11" style="116" customWidth="1"/>
-    <col min="8" max="8" width="13.5703125" style="116" customWidth="1"/>
-    <col min="9" max="9" width="10.85546875" style="116" customWidth="1"/>
-    <col min="10" max="10" width="13.28515625" style="116" customWidth="1"/>
+    <col min="8" max="8" width="13.5546875" style="116" customWidth="1"/>
+    <col min="9" max="9" width="10.88671875" style="116" customWidth="1"/>
+    <col min="10" max="10" width="13.33203125" style="116" customWidth="1"/>
     <col min="11" max="11" width="13" style="116" customWidth="1"/>
-    <col min="12" max="12" width="22.85546875" style="116" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="13.28515625" style="116" customWidth="1"/>
-    <col min="14" max="14" width="12.85546875" style="116" customWidth="1"/>
-    <col min="15" max="15" width="3.5703125" style="116" customWidth="1"/>
-    <col min="16" max="16" width="20.42578125" style="116" customWidth="1"/>
-    <col min="17" max="17" width="100.140625" style="116" customWidth="1"/>
-    <col min="18" max="18" width="19.28515625" style="116" customWidth="1"/>
-    <col min="19" max="16384" width="11.5703125" style="116"/>
+    <col min="12" max="12" width="22.88671875" style="116" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="13.33203125" style="116" customWidth="1"/>
+    <col min="14" max="14" width="12.88671875" style="116" customWidth="1"/>
+    <col min="15" max="15" width="3.5546875" style="116" customWidth="1"/>
+    <col min="16" max="16" width="20.44140625" style="116" customWidth="1"/>
+    <col min="17" max="17" width="100.109375" style="116" customWidth="1"/>
+    <col min="18" max="18" width="19.33203125" style="116" customWidth="1"/>
+    <col min="19" max="16384" width="11.5546875" style="116"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="182"/>
       <c r="B1" s="179"/>
       <c r="C1" s="179"/>
       <c r="D1" s="179"/>
-      <c r="E1" s="322" t="s">
+      <c r="E1" s="315" t="s">
         <v>459</v>
       </c>
-      <c r="F1" s="323"/>
-      <c r="G1" s="323"/>
-      <c r="H1" s="323"/>
-      <c r="I1" s="323"/>
-      <c r="J1" s="323"/>
-      <c r="K1" s="324"/>
+      <c r="F1" s="316"/>
+      <c r="G1" s="316"/>
+      <c r="H1" s="316"/>
+      <c r="I1" s="316"/>
+      <c r="J1" s="316"/>
+      <c r="K1" s="317"/>
       <c r="P1" s="196" t="s">
         <v>450</v>
       </c>
@@ -8884,7 +8884,7 @@
       <c r="V1"/>
       <c r="W1"/>
     </row>
-    <row r="2" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="164" t="s">
         <v>116</v>
       </c>
@@ -8934,7 +8934,7 @@
       <c r="V2"/>
       <c r="W2"/>
     </row>
-    <row r="3" spans="1:23" ht="15" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:23" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A3" s="140" t="s">
         <v>32</v>
       </c>
@@ -8954,7 +8954,7 @@
       <c r="I3" s="144"/>
       <c r="J3" s="144"/>
       <c r="K3" s="145"/>
-      <c r="P3" s="319" t="s">
+      <c r="P3" s="312" t="s">
         <v>447</v>
       </c>
       <c r="Q3" s="191" t="s">
@@ -8967,7 +8967,7 @@
       <c r="V3"/>
       <c r="W3"/>
     </row>
-    <row r="4" spans="1:23" ht="15" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:23" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A4" s="117" t="s">
         <v>24</v>
       </c>
@@ -9003,7 +9003,7 @@
         <f>G4-F4*H4*0.001</f>
         <v>9.0250000000000004</v>
       </c>
-      <c r="P4" s="319"/>
+      <c r="P4" s="312"/>
       <c r="Q4" s="191" t="s">
         <v>445</v>
       </c>
@@ -9014,7 +9014,7 @@
       <c r="V4"/>
       <c r="W4"/>
     </row>
-    <row r="5" spans="1:23" ht="15" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:23" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A5" s="119" t="s">
         <v>78</v>
       </c>
@@ -9050,7 +9050,7 @@
         <f t="shared" ref="L5:L10" si="0">G5-F5*H5*0.001</f>
         <v>9.0007999999999981</v>
       </c>
-      <c r="P5" s="319"/>
+      <c r="P5" s="312"/>
       <c r="Q5" s="191" t="s">
         <v>68</v>
       </c>
@@ -9061,7 +9061,7 @@
       <c r="V5"/>
       <c r="W5"/>
     </row>
-    <row r="6" spans="1:23" ht="15" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:23" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A6" s="114" t="s">
         <v>389</v>
       </c>
@@ -9081,7 +9081,7 @@
       <c r="I6" s="126"/>
       <c r="J6" s="126"/>
       <c r="K6" s="129"/>
-      <c r="P6" s="319"/>
+      <c r="P6" s="312"/>
       <c r="Q6" s="191" t="s">
         <v>69</v>
       </c>
@@ -9092,7 +9092,7 @@
       <c r="V6"/>
       <c r="W6"/>
     </row>
-    <row r="7" spans="1:23" ht="15" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:23" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A7" s="123" t="s">
         <v>36</v>
       </c>
@@ -9128,7 +9128,7 @@
         <f t="shared" si="0"/>
         <v>8.5922999999999945</v>
       </c>
-      <c r="P7" s="319"/>
+      <c r="P7" s="312"/>
       <c r="Q7" s="192" t="s">
         <v>444</v>
       </c>
@@ -9139,7 +9139,7 @@
       <c r="V7"/>
       <c r="W7"/>
     </row>
-    <row r="8" spans="1:23" ht="15" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:23" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A8" s="117" t="s">
         <v>35</v>
       </c>
@@ -9159,7 +9159,7 @@
       <c r="I8" s="126"/>
       <c r="J8" s="126"/>
       <c r="K8" s="129"/>
-      <c r="P8" s="320" t="s">
+      <c r="P8" s="313" t="s">
         <v>443</v>
       </c>
       <c r="Q8" s="193" t="s">
@@ -9172,7 +9172,7 @@
       <c r="V8"/>
       <c r="W8"/>
     </row>
-    <row r="9" spans="1:23" ht="30" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:23" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A9" s="117" t="s">
         <v>33</v>
       </c>
@@ -9208,7 +9208,7 @@
         <f t="shared" si="0"/>
         <v>9.4707000000000008</v>
       </c>
-      <c r="P9" s="320"/>
+      <c r="P9" s="313"/>
       <c r="Q9" s="193" t="s">
         <v>456</v>
       </c>
@@ -9219,7 +9219,7 @@
       <c r="V9"/>
       <c r="W9"/>
     </row>
-    <row r="10" spans="1:23" ht="15" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:23" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A10" s="278" t="s">
         <v>23</v>
       </c>
@@ -9255,7 +9255,7 @@
         <f t="shared" si="0"/>
         <v>5.0242000000000004</v>
       </c>
-      <c r="P10" s="320"/>
+      <c r="P10" s="313"/>
       <c r="Q10" s="194" t="s">
         <v>441</v>
       </c>
@@ -9266,7 +9266,7 @@
       <c r="V10"/>
       <c r="W10"/>
     </row>
-    <row r="11" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" s="130" t="s">
         <v>75</v>
       </c>
@@ -9286,7 +9286,7 @@
       <c r="I11" s="133"/>
       <c r="J11" s="133"/>
       <c r="K11" s="134"/>
-      <c r="P11" s="320"/>
+      <c r="P11" s="313"/>
       <c r="Q11" s="192" t="s">
         <v>455</v>
       </c>
@@ -9297,7 +9297,7 @@
       <c r="V11"/>
       <c r="W11"/>
     </row>
-    <row r="12" spans="1:23" ht="15" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:23" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>418</v>
       </c>
@@ -9315,7 +9315,7 @@
       <c r="M12" s="125"/>
       <c r="N12" s="125"/>
       <c r="O12" s="125"/>
-      <c r="P12" s="320"/>
+      <c r="P12" s="313"/>
       <c r="Q12" s="192" t="s">
         <v>440</v>
       </c>
@@ -9326,8 +9326,8 @@
       <c r="V12"/>
       <c r="W12"/>
     </row>
-    <row r="13" spans="1:23" ht="15" x14ac:dyDescent="0.25">
-      <c r="P13" s="320" t="s">
+    <row r="13" spans="1:23" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="P13" s="313" t="s">
         <v>439</v>
       </c>
       <c r="Q13" s="192" t="s">
@@ -9340,8 +9340,8 @@
       <c r="V13"/>
       <c r="W13"/>
     </row>
-    <row r="14" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="P14" s="320"/>
+    <row r="14" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="P14" s="313"/>
       <c r="Q14" s="191" t="s">
         <v>437</v>
       </c>
@@ -9352,31 +9352,31 @@
       <c r="V14"/>
       <c r="W14"/>
     </row>
-    <row r="15" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="307" t="s">
+    <row r="15" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A15" s="319" t="s">
         <v>458</v>
       </c>
-      <c r="B15" s="308"/>
-      <c r="C15" s="308"/>
-      <c r="D15" s="308"/>
-      <c r="E15" s="308"/>
-      <c r="F15" s="308"/>
-      <c r="G15" s="308"/>
-      <c r="H15" s="308"/>
-      <c r="I15" s="308"/>
-      <c r="J15" s="308"/>
-      <c r="K15" s="309"/>
-      <c r="L15" s="316" t="s">
+      <c r="B15" s="320"/>
+      <c r="C15" s="320"/>
+      <c r="D15" s="320"/>
+      <c r="E15" s="320"/>
+      <c r="F15" s="320"/>
+      <c r="G15" s="320"/>
+      <c r="H15" s="320"/>
+      <c r="I15" s="320"/>
+      <c r="J15" s="320"/>
+      <c r="K15" s="321"/>
+      <c r="L15" s="328" t="s">
         <v>473</v>
       </c>
-      <c r="M15" s="316" t="s">
+      <c r="M15" s="328" t="s">
         <v>463</v>
       </c>
-      <c r="N15" s="316" t="s">
+      <c r="N15" s="328" t="s">
         <v>474</v>
       </c>
       <c r="O15" s="125"/>
-      <c r="P15" s="320"/>
+      <c r="P15" s="313"/>
       <c r="Q15" s="191" t="s">
         <v>436</v>
       </c>
@@ -9387,7 +9387,7 @@
       <c r="V15"/>
       <c r="W15"/>
     </row>
-    <row r="16" spans="1:23" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:23" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A16" s="173" t="s">
         <v>32</v>
       </c>
@@ -9415,15 +9415,15 @@
       <c r="I16" s="166" t="s">
         <v>395</v>
       </c>
-      <c r="J16" s="314" t="s">
+      <c r="J16" s="326" t="s">
         <v>401</v>
       </c>
-      <c r="K16" s="315"/>
-      <c r="L16" s="317"/>
-      <c r="M16" s="317"/>
-      <c r="N16" s="317"/>
+      <c r="K16" s="327"/>
+      <c r="L16" s="329"/>
+      <c r="M16" s="329"/>
+      <c r="N16" s="329"/>
       <c r="O16" s="125"/>
-      <c r="P16" s="320" t="s">
+      <c r="P16" s="313" t="s">
         <v>435</v>
       </c>
       <c r="Q16" s="192" t="s">
@@ -9436,7 +9436,7 @@
       <c r="V16"/>
       <c r="W16"/>
     </row>
-    <row r="17" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A17" s="234" t="s">
         <v>394</v>
       </c>
@@ -9462,17 +9462,17 @@
       <c r="I17" s="240">
         <v>0.31</v>
       </c>
-      <c r="J17" s="310" t="s">
+      <c r="J17" s="322" t="s">
         <v>472</v>
       </c>
-      <c r="K17" s="312" t="s">
+      <c r="K17" s="324" t="s">
         <v>417</v>
       </c>
-      <c r="L17" s="317"/>
-      <c r="M17" s="318"/>
-      <c r="N17" s="318"/>
+      <c r="L17" s="329"/>
+      <c r="M17" s="330"/>
+      <c r="N17" s="330"/>
       <c r="O17" s="125"/>
-      <c r="P17" s="320"/>
+      <c r="P17" s="313"/>
       <c r="Q17" s="192" t="s">
         <v>433</v>
       </c>
@@ -9483,7 +9483,7 @@
       <c r="V17"/>
       <c r="W17"/>
     </row>
-    <row r="18" spans="1:23" ht="13.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:23" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A18" s="174" t="s">
         <v>470</v>
       </c>
@@ -9509,9 +9509,9 @@
       <c r="I18" s="242">
         <v>0.5</v>
       </c>
-      <c r="J18" s="311"/>
-      <c r="K18" s="313"/>
-      <c r="L18" s="318"/>
+      <c r="J18" s="323"/>
+      <c r="K18" s="325"/>
+      <c r="L18" s="330"/>
       <c r="M18" s="269">
         <v>53</v>
       </c>
@@ -9519,7 +9519,7 @@
         <v>30</v>
       </c>
       <c r="O18" s="125"/>
-      <c r="P18" s="320"/>
+      <c r="P18" s="313"/>
       <c r="Q18" s="192" t="s">
         <v>432</v>
       </c>
@@ -9530,7 +9530,7 @@
       <c r="V18"/>
       <c r="W18"/>
     </row>
-    <row r="19" spans="1:23" ht="15" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:23" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A19" s="175" t="s">
         <v>34</v>
       </c>
@@ -9566,7 +9566,7 @@
         <v>9</v>
       </c>
       <c r="O19" s="125"/>
-      <c r="P19" s="320"/>
+      <c r="P19" s="313"/>
       <c r="Q19" s="192" t="s">
         <v>431</v>
       </c>
@@ -9577,7 +9577,7 @@
       <c r="V19"/>
       <c r="W19"/>
     </row>
-    <row r="20" spans="1:23" ht="15" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:23" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A20" s="176" t="s">
         <v>25</v>
       </c>
@@ -9610,7 +9610,7 @@
         <v>9</v>
       </c>
       <c r="O20" s="125"/>
-      <c r="P20" s="320"/>
+      <c r="P20" s="313"/>
       <c r="Q20" s="192" t="s">
         <v>430</v>
       </c>
@@ -9621,7 +9621,7 @@
       <c r="V20"/>
       <c r="W20"/>
     </row>
-    <row r="21" spans="1:23" ht="15" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:23" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A21" s="176" t="s">
         <v>26</v>
       </c>
@@ -9658,7 +9658,7 @@
         <v>9</v>
       </c>
       <c r="O21" s="125"/>
-      <c r="P21" s="320"/>
+      <c r="P21" s="313"/>
       <c r="Q21" s="192" t="s">
         <v>429</v>
       </c>
@@ -9669,7 +9669,7 @@
       <c r="V21"/>
       <c r="W21"/>
     </row>
-    <row r="22" spans="1:23" ht="15" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:23" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A22" s="176" t="s">
         <v>27</v>
       </c>
@@ -9706,7 +9706,7 @@
         <v>9</v>
       </c>
       <c r="O22" s="125"/>
-      <c r="P22" s="320"/>
+      <c r="P22" s="313"/>
       <c r="Q22" s="192" t="s">
         <v>428</v>
       </c>
@@ -9717,7 +9717,7 @@
       <c r="V22"/>
       <c r="W22"/>
     </row>
-    <row r="23" spans="1:23" ht="15" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:23" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A23" s="176" t="s">
         <v>28</v>
       </c>
@@ -9754,7 +9754,7 @@
         <v>9</v>
       </c>
       <c r="O23" s="125"/>
-      <c r="P23" s="320"/>
+      <c r="P23" s="313"/>
       <c r="Q23" s="192" t="s">
         <v>427</v>
       </c>
@@ -9765,7 +9765,7 @@
       <c r="V23"/>
       <c r="W23"/>
     </row>
-    <row r="24" spans="1:23" ht="15" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:23" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A24" s="176" t="s">
         <v>29</v>
       </c>
@@ -9799,7 +9799,7 @@
         <v>9</v>
       </c>
       <c r="O24" s="125"/>
-      <c r="P24" s="320"/>
+      <c r="P24" s="313"/>
       <c r="Q24" s="192" t="s">
         <v>426</v>
       </c>
@@ -9810,7 +9810,7 @@
       <c r="V24"/>
       <c r="W24"/>
     </row>
-    <row r="25" spans="1:23" ht="15" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:23" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A25" s="176" t="s">
         <v>30</v>
       </c>
@@ -9850,7 +9850,7 @@
         <v>9</v>
       </c>
       <c r="O25" s="125"/>
-      <c r="P25" s="320"/>
+      <c r="P25" s="313"/>
       <c r="Q25" s="192" t="s">
         <v>425</v>
       </c>
@@ -9861,7 +9861,7 @@
       <c r="V25"/>
       <c r="W25"/>
     </row>
-    <row r="26" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A26" s="177" t="s">
         <v>31</v>
       </c>
@@ -9902,7 +9902,7 @@
         <v>9</v>
       </c>
       <c r="O26" s="125"/>
-      <c r="P26" s="320"/>
+      <c r="P26" s="313"/>
       <c r="Q26" s="192" t="s">
         <v>424</v>
       </c>
@@ -9913,7 +9913,7 @@
       <c r="V26"/>
       <c r="W26"/>
     </row>
-    <row r="27" spans="1:23" ht="15" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:23" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A27" s="153"/>
       <c r="B27" s="125" t="s">
         <v>419</v>
@@ -9925,7 +9925,7 @@
         <v>462</v>
       </c>
       <c r="O27" s="125"/>
-      <c r="P27" s="320"/>
+      <c r="P27" s="313"/>
       <c r="Q27" s="192" t="s">
         <v>423</v>
       </c>
@@ -9936,13 +9936,13 @@
       <c r="V27"/>
       <c r="W27"/>
     </row>
-    <row r="28" spans="1:23" ht="15" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:23" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A28" s="153"/>
       <c r="K28" s="116" t="s">
         <v>467</v>
       </c>
       <c r="O28" s="125"/>
-      <c r="P28" s="320"/>
+      <c r="P28" s="313"/>
       <c r="Q28" s="192" t="s">
         <v>422</v>
       </c>
@@ -9953,7 +9953,7 @@
       <c r="V28"/>
       <c r="W28"/>
     </row>
-    <row r="29" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A29" s="153"/>
       <c r="B29" s="116" t="s">
         <v>413</v>
@@ -9962,7 +9962,7 @@
         <v>420</v>
       </c>
       <c r="O29" s="125"/>
-      <c r="P29" s="321"/>
+      <c r="P29" s="314"/>
       <c r="Q29" s="195" t="s">
         <v>421</v>
       </c>
@@ -9973,7 +9973,7 @@
       <c r="V29"/>
       <c r="W29"/>
     </row>
-    <row r="30" spans="1:23" ht="15" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:23" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A30" s="153"/>
       <c r="B30" s="116" t="s">
         <v>414</v>
@@ -9990,7 +9990,7 @@
       <c r="V30"/>
       <c r="W30"/>
     </row>
-    <row r="31" spans="1:23" ht="15" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:23" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A31" s="153"/>
       <c r="B31" s="116" t="s">
         <v>415</v>
@@ -10005,7 +10005,7 @@
       <c r="V31"/>
       <c r="W31"/>
     </row>
-    <row r="32" spans="1:23" ht="15" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:23" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A32" s="153"/>
       <c r="B32" t="s">
         <v>408</v>
@@ -10020,7 +10020,7 @@
       <c r="V32"/>
       <c r="W32"/>
     </row>
-    <row r="33" spans="1:23" ht="15" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:23" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B33" t="s">
         <v>411</v>
       </c>
@@ -10033,7 +10033,7 @@
       <c r="V33"/>
       <c r="W33"/>
     </row>
-    <row r="34" spans="1:23" ht="15" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:23" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B34" s="116" t="s">
         <v>402</v>
       </c>
@@ -10046,7 +10046,7 @@
       <c r="V34"/>
       <c r="W34"/>
     </row>
-    <row r="35" spans="1:23" ht="15" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:23" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B35" s="116" t="s">
         <v>412</v>
       </c>
@@ -10059,7 +10059,7 @@
       <c r="V35"/>
       <c r="W35"/>
     </row>
-    <row r="36" spans="1:23" ht="15" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:23" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B36" s="125" t="s">
         <v>409</v>
       </c>
@@ -10067,13 +10067,13 @@
       <c r="D36" s="125"/>
       <c r="P36"/>
       <c r="Q36"/>
-      <c r="R36" s="306"/>
+      <c r="R36" s="318"/>
       <c r="S36"/>
       <c r="T36"/>
       <c r="U36"/>
       <c r="W36"/>
     </row>
-    <row r="37" spans="1:23" ht="15" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:23" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B37" s="125" t="s">
         <v>416</v>
       </c>
@@ -10081,27 +10081,27 @@
       <c r="D37" s="125"/>
       <c r="P37"/>
       <c r="Q37"/>
-      <c r="R37" s="306"/>
+      <c r="R37" s="318"/>
       <c r="S37"/>
       <c r="T37"/>
       <c r="U37"/>
       <c r="V37"/>
       <c r="W37"/>
     </row>
-    <row r="38" spans="1:23" ht="15" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:23" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B38" s="162"/>
       <c r="C38" s="163"/>
       <c r="D38" s="125"/>
       <c r="P38"/>
       <c r="Q38"/>
-      <c r="R38" s="306"/>
+      <c r="R38" s="318"/>
       <c r="S38"/>
       <c r="T38"/>
       <c r="U38"/>
       <c r="V38"/>
       <c r="W38"/>
     </row>
-    <row r="39" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B39" s="162"/>
       <c r="C39" s="163"/>
       <c r="D39" s="125"/>
@@ -10114,7 +10114,7 @@
       <c r="V39"/>
       <c r="W39"/>
     </row>
-    <row r="40" spans="1:23" ht="15" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:23" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A40" s="279" t="s">
         <v>489</v>
       </c>
@@ -10142,7 +10142,7 @@
       <c r="V40"/>
       <c r="W40"/>
     </row>
-    <row r="41" spans="1:23" ht="15" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:23" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B41" s="126">
         <v>125</v>
       </c>
@@ -10170,7 +10170,7 @@
       <c r="V41"/>
       <c r="W41"/>
     </row>
-    <row r="42" spans="1:23" ht="15" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:23" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B42" s="126">
         <f>230-125</f>
         <v>105</v>
@@ -10198,7 +10198,7 @@
       <c r="V42"/>
       <c r="W42"/>
     </row>
-    <row r="43" spans="1:23" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B43" s="126">
         <f>315-230</f>
         <v>85</v>
@@ -10226,7 +10226,7 @@
       <c r="V43"/>
       <c r="W43"/>
     </row>
-    <row r="44" spans="1:23" ht="15" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:23" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B44" s="126">
         <f>400-315</f>
         <v>85</v>
@@ -10254,7 +10254,7 @@
       <c r="V44"/>
       <c r="W44"/>
     </row>
-    <row r="45" spans="1:23" ht="15" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:23" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B45" s="126">
         <f>445-400</f>
         <v>45</v>
@@ -10282,7 +10282,7 @@
       <c r="V45"/>
       <c r="W45"/>
     </row>
-    <row r="46" spans="1:23" ht="15" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:23" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B46" s="126">
         <f>700-445</f>
         <v>255</v>
@@ -10310,7 +10310,7 @@
       <c r="V46"/>
       <c r="W46"/>
     </row>
-    <row r="47" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B47" s="126">
         <f>1000-700</f>
         <v>300</v>
@@ -10338,7 +10338,7 @@
       <c r="V47"/>
       <c r="W47"/>
     </row>
-    <row r="48" spans="1:23" ht="15" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:23" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B48" s="162"/>
       <c r="D48" s="116" t="s">
         <v>493</v>
@@ -10356,7 +10356,7 @@
       <c r="V48"/>
       <c r="W48"/>
     </row>
-    <row r="49" spans="1:23" ht="15" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:23" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B49" s="162"/>
       <c r="D49" s="116" t="s">
         <v>494</v>
@@ -10374,7 +10374,7 @@
       <c r="V49"/>
       <c r="W49"/>
     </row>
-    <row r="50" spans="1:23" ht="15" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:23" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B50" s="162"/>
       <c r="D50" s="116" t="s">
         <v>377</v>
@@ -10392,33 +10392,33 @@
       <c r="V50"/>
       <c r="W50"/>
     </row>
-    <row r="51" spans="1:23" ht="15" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:23" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B51" s="162"/>
     </row>
-    <row r="52" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B52" s="162"/>
     </row>
-    <row r="53" spans="1:23" ht="15" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:23" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A53" s="279" t="s">
         <v>495</v>
       </c>
-      <c r="B53" s="325" t="s">
+      <c r="B53" s="290" t="s">
         <v>393</v>
       </c>
-      <c r="C53" s="326" t="s">
+      <c r="C53" s="291" t="s">
         <v>490</v>
       </c>
-      <c r="D53" s="327" t="s">
+      <c r="D53" s="292" t="s">
         <v>491</v>
       </c>
-      <c r="E53" s="328" t="s">
+      <c r="E53" s="293" t="s">
         <v>394</v>
       </c>
       <c r="F53" s="289" t="s">
         <v>492</v>
       </c>
     </row>
-    <row r="54" spans="1:23" ht="15" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:23" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B54" s="128">
         <v>50</v>
       </c>
@@ -10438,7 +10438,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="55" spans="1:23" ht="15" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:23" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B55" s="128">
         <v>200</v>
       </c>
@@ -10457,7 +10457,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="56" spans="1:23" ht="15" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:23" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B56" s="128">
         <v>200</v>
       </c>
@@ -10476,7 +10476,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="57" spans="1:23" ht="15" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:23" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B57" s="128">
         <v>200</v>
       </c>
@@ -10495,24 +10495,51 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="58" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B58" s="188">
         <f>1000-50-600</f>
         <v>350</v>
       </c>
-      <c r="C58" s="329">
+      <c r="C58" s="294">
         <v>1.4E-3</v>
       </c>
-      <c r="D58" s="329">
+      <c r="D58" s="294">
         <f t="shared" si="3"/>
         <v>0.49</v>
       </c>
-      <c r="E58" s="330">
+      <c r="E58" s="295">
         <v>2.2999999999999998</v>
       </c>
       <c r="F58" s="288">
         <f t="shared" si="4"/>
         <v>0.35</v>
+      </c>
+    </row>
+    <row r="59" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="D59" s="116" t="s">
+        <v>493</v>
+      </c>
+      <c r="E59" s="116">
+        <f>SUMPRODUCT(E53:E58,F53:F58)</f>
+        <v>2.1449999999999996</v>
+      </c>
+    </row>
+    <row r="60" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="D60" s="116" t="s">
+        <v>494</v>
+      </c>
+      <c r="E60" s="116">
+        <f>(40-9)/1000</f>
+        <v>3.1E-2</v>
+      </c>
+    </row>
+    <row r="61" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="D61" s="116" t="s">
+        <v>377</v>
+      </c>
+      <c r="E61" s="116">
+        <f>E59*E60</f>
+        <v>6.6494999999999985E-2</v>
       </c>
     </row>
   </sheetData>
@@ -10520,11 +10547,6 @@
     <sortCondition ref="A1"/>
   </sortState>
   <mergeCells count="13">
-    <mergeCell ref="P3:P7"/>
-    <mergeCell ref="P16:P29"/>
-    <mergeCell ref="P13:P15"/>
-    <mergeCell ref="P8:P12"/>
-    <mergeCell ref="E1:K1"/>
     <mergeCell ref="R36:R38"/>
     <mergeCell ref="A15:K15"/>
     <mergeCell ref="J17:J18"/>
@@ -10533,6 +10555,11 @@
     <mergeCell ref="L15:L18"/>
     <mergeCell ref="M15:M17"/>
     <mergeCell ref="N15:N17"/>
+    <mergeCell ref="P3:P7"/>
+    <mergeCell ref="P16:P29"/>
+    <mergeCell ref="P13:P15"/>
+    <mergeCell ref="P8:P12"/>
+    <mergeCell ref="E1:K1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/Data/RHP.xlsx
+++ b/Data/RHP.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" firstSheet="2" activeTab="3"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12720" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="RHP" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="894" uniqueCount="496">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="902" uniqueCount="503">
   <si>
     <t>Coal Measures</t>
   </si>
@@ -1524,6 +1524,27 @@
   </si>
   <si>
     <t>ref</t>
+  </si>
+  <si>
+    <t>Q</t>
+  </si>
+  <si>
+    <t>L/s</t>
+  </si>
+  <si>
+    <t>kg</t>
+  </si>
+  <si>
+    <t>rho</t>
+  </si>
+  <si>
+    <t>Kg/m3</t>
+  </si>
+  <si>
+    <t>V</t>
+  </si>
+  <si>
+    <t>m3</t>
   </si>
 </sst>
 </file>
@@ -3147,6 +3168,45 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="44" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -3164,45 +3224,6 @@
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -3773,31 +3794,31 @@
       <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="22.88671875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="30.5546875" style="1" customWidth="1"/>
-    <col min="4" max="4" width="20.33203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="17.33203125" style="27" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.33203125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15.5546875" customWidth="1"/>
-    <col min="9" max="9" width="4.44140625" customWidth="1"/>
+    <col min="2" max="2" width="22.85546875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="30.5703125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="20.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.28515625" style="27" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.5703125" customWidth="1"/>
+    <col min="9" max="9" width="4.42578125" customWidth="1"/>
     <col min="10" max="10" width="12" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="13.33203125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="9.33203125" customWidth="1"/>
-    <col min="14" max="14" width="28.6640625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.88671875" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.44140625" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="13.88671875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="9.28515625" customWidth="1"/>
+    <col min="14" max="14" width="28.7109375" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="13.85546875" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="14" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="18.33203125" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="32.109375" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="21.109375" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="18.28515625" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="32.140625" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="21.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:33" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="2" spans="2:33" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:33" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="2:33" x14ac:dyDescent="0.25">
       <c r="B2" s="38" t="s">
         <v>37</v>
       </c>
@@ -3862,7 +3883,7 @@
       <c r="AF2" s="298"/>
       <c r="AG2" s="299"/>
     </row>
-    <row r="3" spans="2:33" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="2:33" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B3" s="44" t="s">
         <v>55</v>
       </c>
@@ -3928,7 +3949,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="4" spans="2:33" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="2:33" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B4" s="44" t="s">
         <v>56</v>
       </c>
@@ -3995,7 +4016,7 @@
       </c>
       <c r="AG4" s="143"/>
     </row>
-    <row r="5" spans="2:33" s="1" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="2:33" s="1" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B5" s="32" t="s">
         <v>5</v>
       </c>
@@ -4063,7 +4084,7 @@
       </c>
       <c r="AG5" s="118"/>
     </row>
-    <row r="6" spans="2:33" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:33" x14ac:dyDescent="0.25">
       <c r="B6" s="307" t="s">
         <v>0</v>
       </c>
@@ -4134,7 +4155,7 @@
       </c>
       <c r="AG6" s="121"/>
     </row>
-    <row r="7" spans="2:33" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:33" x14ac:dyDescent="0.25">
       <c r="B7" s="307"/>
       <c r="C7" s="26">
         <f>1500*$G$2</f>
@@ -4208,7 +4229,7 @@
       <c r="AF7" s="115"/>
       <c r="AG7" s="118"/>
     </row>
-    <row r="8" spans="2:33" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:33" x14ac:dyDescent="0.25">
       <c r="B8" s="307"/>
       <c r="C8" s="16"/>
       <c r="D8" s="4" t="s">
@@ -4284,7 +4305,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="9" spans="2:33" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:33" x14ac:dyDescent="0.25">
       <c r="B9" s="307"/>
       <c r="C9" s="16" t="s">
         <v>38</v>
@@ -4366,7 +4387,7 @@
       <c r="AF9" s="115"/>
       <c r="AG9" s="118"/>
     </row>
-    <row r="10" spans="2:33" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="2:33" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B10" s="23" t="s">
         <v>22</v>
       </c>
@@ -4434,7 +4455,7 @@
       </c>
       <c r="AG10" s="118"/>
     </row>
-    <row r="11" spans="2:33" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="2:33" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B11" s="23"/>
       <c r="C11" s="16"/>
       <c r="D11" s="4"/>
@@ -4480,7 +4501,7 @@
       </c>
       <c r="AG11" s="118"/>
     </row>
-    <row r="12" spans="2:33" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="2:33" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B12" s="219"/>
       <c r="C12" s="220">
         <f>$C$4*C10</f>
@@ -4526,7 +4547,7 @@
       </c>
       <c r="AG12" s="139"/>
     </row>
-    <row r="13" spans="2:33" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="2:33" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B13" s="308" t="s">
         <v>1</v>
       </c>
@@ -4555,7 +4576,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="14" spans="2:33" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:33" x14ac:dyDescent="0.25">
       <c r="B14" s="308"/>
       <c r="C14" s="17"/>
       <c r="D14" s="5" t="s">
@@ -4621,7 +4642,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="15" spans="2:33" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:33" x14ac:dyDescent="0.25">
       <c r="B15" s="308"/>
       <c r="C15" s="17"/>
       <c r="D15" s="5" t="s">
@@ -4681,7 +4702,7 @@
         <v>1.8</v>
       </c>
     </row>
-    <row r="16" spans="2:33" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:33" x14ac:dyDescent="0.25">
       <c r="B16" s="308"/>
       <c r="C16" s="17" t="s">
         <v>38</v>
@@ -4738,7 +4759,7 @@
       </c>
       <c r="AA16" s="83"/>
     </row>
-    <row r="17" spans="2:27" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="2:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B17" s="24" t="s">
         <v>22</v>
       </c>
@@ -4794,7 +4815,7 @@
       </c>
       <c r="AA17" s="83"/>
     </row>
-    <row r="18" spans="2:27" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="2:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B18" s="211"/>
       <c r="C18" s="212">
         <f>$C$4*C17</f>
@@ -4850,7 +4871,7 @@
       </c>
       <c r="AA18" s="83"/>
     </row>
-    <row r="19" spans="2:27" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B19" s="305" t="s">
         <v>4</v>
       </c>
@@ -4914,7 +4935,7 @@
       <c r="Z19" s="78"/>
       <c r="AA19" s="83"/>
     </row>
-    <row r="20" spans="2:27" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B20" s="305"/>
       <c r="C20" s="18">
         <f>S5</f>
@@ -4973,7 +4994,7 @@
       <c r="Z20" s="78"/>
       <c r="AA20" s="83"/>
     </row>
-    <row r="21" spans="2:27" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B21" s="3" t="s">
         <v>2</v>
       </c>
@@ -5043,7 +5064,7 @@
       </c>
       <c r="AA21" s="83"/>
     </row>
-    <row r="22" spans="2:27" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B22" s="305" t="s">
         <v>3</v>
       </c>
@@ -5110,7 +5131,7 @@
       </c>
       <c r="AA22" s="83"/>
     </row>
-    <row r="23" spans="2:27" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B23" s="305"/>
       <c r="C23" s="18">
         <f>S7</f>
@@ -5178,7 +5199,7 @@
       <c r="Z23" s="78"/>
       <c r="AA23" s="83"/>
     </row>
-    <row r="24" spans="2:27" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="2:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B24" s="305"/>
       <c r="C24" s="198"/>
       <c r="D24" s="6"/>
@@ -5223,7 +5244,7 @@
       <c r="Z24" s="78"/>
       <c r="AA24" s="83"/>
     </row>
-    <row r="25" spans="2:27" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="2:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B25" s="204"/>
       <c r="C25" s="205">
         <f>C4*(C20+C22+C23)</f>
@@ -5284,7 +5305,7 @@
       <c r="Z25" s="78"/>
       <c r="AA25" s="83"/>
     </row>
-    <row r="26" spans="2:27" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B26" s="306" t="s">
         <v>42</v>
       </c>
@@ -5339,7 +5360,7 @@
       <c r="Z26" s="78"/>
       <c r="AA26" s="83"/>
     </row>
-    <row r="27" spans="2:27" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="27" spans="2:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B27" s="306"/>
       <c r="C27" s="19"/>
       <c r="D27" s="7" t="s">
@@ -5394,7 +5415,7 @@
         <v>1.7</v>
       </c>
     </row>
-    <row r="28" spans="2:27" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B28" s="306"/>
       <c r="C28" s="19"/>
       <c r="D28" s="7" t="s">
@@ -5425,7 +5446,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="29" spans="2:27" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B29" s="306"/>
       <c r="C29" s="19">
         <f>3800*G2-(C10+C17+C20+C22+C23)+600</f>
@@ -5459,7 +5480,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="30" spans="2:27" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B30" s="306"/>
       <c r="C30" s="19"/>
       <c r="D30" s="7" t="s">
@@ -5490,7 +5511,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="31" spans="2:27" x14ac:dyDescent="0.3">
+    <row r="31" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B31" s="306"/>
       <c r="C31" s="19"/>
       <c r="D31" s="7" t="s">
@@ -5521,7 +5542,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="32" spans="2:27" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="32" spans="2:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B32" s="306"/>
       <c r="C32" s="19"/>
       <c r="D32" s="7" t="s">
@@ -5550,7 +5571,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="33" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="33" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B33" s="225"/>
       <c r="C33" s="226">
         <f>C4*C29</f>
@@ -5580,7 +5601,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="34" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="34" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B34" s="51" t="s">
         <v>47</v>
       </c>
@@ -5602,7 +5623,7 @@
       <c r="K34" s="53"/>
       <c r="L34" s="54"/>
     </row>
-    <row r="35" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="35" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B35" s="58" t="s">
         <v>64</v>
       </c>
@@ -5617,13 +5638,13 @@
       <c r="K35" s="60"/>
       <c r="L35" s="60"/>
     </row>
-    <row r="37" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="37" spans="2:12" x14ac:dyDescent="0.25">
       <c r="J37" s="66"/>
     </row>
-    <row r="38" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="38" spans="2:12" x14ac:dyDescent="0.25">
       <c r="J38" s="65"/>
     </row>
-    <row r="76" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="76" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E76"/>
     </row>
   </sheetData>
@@ -5654,19 +5675,19 @@
       <selection activeCell="L44" sqref="L44"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="20.33203125" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="20.28515625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8.5546875" customWidth="1"/>
-    <col min="2" max="2" width="19.109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="6.44140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="8.5703125" customWidth="1"/>
+    <col min="2" max="2" width="19.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="6.42578125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="6" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="6.5546875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="5.44140625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="6.6640625" customWidth="1"/>
+    <col min="8" max="8" width="6.5703125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="5.42578125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="6.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:11" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="89"/>
       <c r="B1" s="90" t="s">
         <v>116</v>
@@ -5697,7 +5718,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="2" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="87"/>
       <c r="B2" s="92" t="s">
         <v>124</v>
@@ -5728,7 +5749,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="3" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="87"/>
       <c r="B3" s="94" t="s">
         <v>124</v>
@@ -5759,7 +5780,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="4" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="87"/>
       <c r="B4" s="92" t="s">
         <v>124</v>
@@ -5790,7 +5811,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="5" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="87"/>
       <c r="B5" s="94" t="s">
         <v>140</v>
@@ -5821,7 +5842,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="6" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="87"/>
       <c r="B6" s="92" t="s">
         <v>147</v>
@@ -5852,7 +5873,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="7" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="87"/>
       <c r="B7" s="94" t="s">
         <v>152</v>
@@ -5881,7 +5902,7 @@
       <c r="J7" s="87"/>
       <c r="K7" s="87"/>
     </row>
-    <row r="8" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="87"/>
       <c r="B8" s="92" t="s">
         <v>155</v>
@@ -5910,7 +5931,7 @@
       <c r="J8" s="87"/>
       <c r="K8" s="87"/>
     </row>
-    <row r="9" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="87"/>
       <c r="B9" s="94" t="s">
         <v>158</v>
@@ -5939,7 +5960,7 @@
       <c r="J9" s="87"/>
       <c r="K9" s="87"/>
     </row>
-    <row r="10" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="87"/>
       <c r="B10" s="92" t="s">
         <v>163</v>
@@ -5968,7 +5989,7 @@
       <c r="J10" s="87"/>
       <c r="K10" s="87"/>
     </row>
-    <row r="11" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="87"/>
       <c r="B11" s="94" t="s">
         <v>167</v>
@@ -5997,7 +6018,7 @@
       <c r="J11" s="87"/>
       <c r="K11" s="87"/>
     </row>
-    <row r="12" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="87"/>
       <c r="B12" s="92" t="s">
         <v>172</v>
@@ -6026,7 +6047,7 @@
       <c r="J12" s="87"/>
       <c r="K12" s="87"/>
     </row>
-    <row r="13" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="87"/>
       <c r="B13" s="94" t="s">
         <v>176</v>
@@ -6055,7 +6076,7 @@
       <c r="J13" s="87"/>
       <c r="K13" s="87"/>
     </row>
-    <row r="14" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="87"/>
       <c r="B14" s="92" t="s">
         <v>181</v>
@@ -6084,7 +6105,7 @@
       <c r="J14" s="87"/>
       <c r="K14" s="87"/>
     </row>
-    <row r="15" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="87"/>
       <c r="B15" s="94" t="s">
         <v>186</v>
@@ -6113,7 +6134,7 @@
       <c r="J15" s="87"/>
       <c r="K15" s="87"/>
     </row>
-    <row r="16" spans="1:11" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:11" ht="30.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="87"/>
       <c r="B16" s="92" t="s">
         <v>190</v>
@@ -6142,7 +6163,7 @@
       <c r="J16" s="87"/>
       <c r="K16" s="87"/>
     </row>
-    <row r="17" spans="2:9" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="2:9" ht="30.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B17" s="94" t="s">
         <v>195</v>
       </c>
@@ -6168,7 +6189,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="18" spans="2:9" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="2:9" ht="30.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B18" s="92" t="s">
         <v>199</v>
       </c>
@@ -6194,7 +6215,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="19" spans="2:9" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="2:9" ht="30.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B19" s="94" t="s">
         <v>203</v>
       </c>
@@ -6220,7 +6241,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="20" spans="2:9" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="2:9" ht="30.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B20" s="92" t="s">
         <v>207</v>
       </c>
@@ -6246,7 +6267,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="21" spans="2:9" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="2:9" ht="30.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B21" s="94" t="s">
         <v>210</v>
       </c>
@@ -6272,7 +6293,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="22" spans="2:9" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="2:9" ht="30.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B22" s="92" t="s">
         <v>213</v>
       </c>
@@ -6298,7 +6319,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="23" spans="2:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B23" s="94" t="s">
         <v>216</v>
       </c>
@@ -6324,7 +6345,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="24" spans="2:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B24" s="92" t="s">
         <v>218</v>
       </c>
@@ -6350,7 +6371,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="25" spans="2:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B25" s="94" t="s">
         <v>221</v>
       </c>
@@ -6376,7 +6397,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="26" spans="2:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B26" s="92" t="s">
         <v>224</v>
       </c>
@@ -6402,7 +6423,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="27" spans="2:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="27" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B27" s="94" t="s">
         <v>228</v>
       </c>
@@ -6428,7 +6449,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="28" spans="2:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B28" s="92" t="s">
         <v>231</v>
       </c>
@@ -6454,7 +6475,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="29" spans="2:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="29" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B29" s="94" t="s">
         <v>234</v>
       </c>
@@ -6480,7 +6501,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="30" spans="2:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="30" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B30" s="92" t="s">
         <v>238</v>
       </c>
@@ -6506,7 +6527,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="31" spans="2:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="31" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B31" s="94" t="s">
         <v>241</v>
       </c>
@@ -6532,7 +6553,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="32" spans="2:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="32" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B32" s="92" t="s">
         <v>245</v>
       </c>
@@ -6558,7 +6579,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="33" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="33" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B33" s="94" t="s">
         <v>249</v>
       </c>
@@ -6584,7 +6605,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="34" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="34" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B34" s="92" t="s">
         <v>253</v>
       </c>
@@ -6610,7 +6631,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="35" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="35" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B35" s="94" t="s">
         <v>257</v>
       </c>
@@ -6636,7 +6657,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="36" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="36" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B36" s="92" t="s">
         <v>262</v>
       </c>
@@ -6662,7 +6683,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="37" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="37" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B37" s="94" t="s">
         <v>267</v>
       </c>
@@ -6688,7 +6709,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="38" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="38" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B38" s="92" t="s">
         <v>270</v>
       </c>
@@ -6714,7 +6735,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="39" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="39" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B39" s="94" t="s">
         <v>274</v>
       </c>
@@ -6738,7 +6759,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="40" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="40" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B40" s="92" t="s">
         <v>276</v>
       </c>
@@ -6766,7 +6787,7 @@
       <c r="K40" s="102"/>
       <c r="L40" s="102"/>
     </row>
-    <row r="41" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="41" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B41" s="160" t="s">
         <v>278</v>
       </c>
@@ -6794,7 +6815,7 @@
       <c r="K41" s="102"/>
       <c r="L41" s="102"/>
     </row>
-    <row r="42" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="42" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B42" s="160" t="s">
         <v>281</v>
       </c>
@@ -6822,7 +6843,7 @@
       <c r="K42" s="102"/>
       <c r="L42" s="102"/>
     </row>
-    <row r="43" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="43" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B43" s="94" t="s">
         <v>285</v>
       </c>
@@ -6850,7 +6871,7 @@
       <c r="K43" s="102"/>
       <c r="L43" s="102"/>
     </row>
-    <row r="44" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="44" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B44" s="92" t="s">
         <v>288</v>
       </c>
@@ -6878,7 +6899,7 @@
       <c r="K44" s="102"/>
       <c r="L44" s="102"/>
     </row>
-    <row r="45" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="45" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B45" s="160" t="s">
         <v>292</v>
       </c>
@@ -6906,7 +6927,7 @@
       <c r="K45" s="102"/>
       <c r="L45" s="102"/>
     </row>
-    <row r="46" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="46" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B46" s="160" t="s">
         <v>296</v>
       </c>
@@ -6934,7 +6955,7 @@
       <c r="K46" s="102"/>
       <c r="L46" s="102"/>
     </row>
-    <row r="47" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="47" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B47" s="94" t="s">
         <v>298</v>
       </c>
@@ -6962,7 +6983,7 @@
       <c r="K47" s="102"/>
       <c r="L47" s="102"/>
     </row>
-    <row r="48" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="48" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B48" s="92" t="s">
         <v>301</v>
       </c>
@@ -6990,7 +7011,7 @@
       <c r="K48" s="152"/>
       <c r="L48" s="102"/>
     </row>
-    <row r="49" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="49" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B49" s="94" t="s">
         <v>304</v>
       </c>
@@ -7018,7 +7039,7 @@
       <c r="K49" s="102"/>
       <c r="L49" s="102"/>
     </row>
-    <row r="50" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="50" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B50" s="92" t="s">
         <v>307</v>
       </c>
@@ -7046,7 +7067,7 @@
       <c r="K50" s="102"/>
       <c r="L50" s="102"/>
     </row>
-    <row r="51" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="51" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B51" s="94" t="s">
         <v>310</v>
       </c>
@@ -7074,7 +7095,7 @@
       <c r="K51" s="102"/>
       <c r="L51" s="102"/>
     </row>
-    <row r="52" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="52" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B52" s="92" t="s">
         <v>313</v>
       </c>
@@ -7104,7 +7125,7 @@
       </c>
       <c r="L52" s="102"/>
     </row>
-    <row r="53" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="53" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B53" s="160" t="s">
         <v>316</v>
       </c>
@@ -7133,7 +7154,7 @@
         <v>397</v>
       </c>
     </row>
-    <row r="54" spans="2:12" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="54" spans="2:12" ht="30.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B54" s="92" t="s">
         <v>319</v>
       </c>
@@ -7159,7 +7180,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="55" spans="2:12" ht="29.4" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="55" spans="2:12" ht="30.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B55" s="94" t="s">
         <v>322</v>
       </c>
@@ -7185,7 +7206,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="56" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="56" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B56" s="92" t="s">
         <v>325</v>
       </c>
@@ -7214,7 +7235,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="57" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="57" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B57" s="94" t="s">
         <v>327</v>
       </c>
@@ -7244,7 +7265,7 @@
         <v>24.185714285714283</v>
       </c>
     </row>
-    <row r="58" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="58" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B58" s="92" t="s">
         <v>330</v>
       </c>
@@ -7274,7 +7295,7 @@
         <v>25.74</v>
       </c>
     </row>
-    <row r="59" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="59" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B59" s="160" t="s">
         <v>334</v>
       </c>
@@ -7304,7 +7325,7 @@
         <v>23.560869565217395</v>
       </c>
     </row>
-    <row r="60" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="60" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B60" s="92" t="s">
         <v>338</v>
       </c>
@@ -7330,7 +7351,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="61" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="61" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B61" s="160" t="s">
         <v>342</v>
       </c>
@@ -7356,7 +7377,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="62" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="62" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B62" s="92" t="s">
         <v>344</v>
       </c>
@@ -7382,7 +7403,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="63" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="63" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B63" s="94" t="s">
         <v>346</v>
       </c>
@@ -7408,7 +7429,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="64" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="64" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B64" s="92" t="s">
         <v>351</v>
       </c>
@@ -7434,7 +7455,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="66" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A66" s="311" t="s">
         <v>354</v>
       </c>
@@ -7448,7 +7469,7 @@
       <c r="I66" s="311"/>
       <c r="J66" s="311"/>
     </row>
-    <row r="67" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A67" s="311"/>
       <c r="B67" s="311"/>
       <c r="C67" s="311"/>
@@ -7460,7 +7481,7 @@
       <c r="I67" s="311"/>
       <c r="J67" s="311"/>
     </row>
-    <row r="68" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A68" s="311"/>
       <c r="B68" s="311"/>
       <c r="C68" s="311"/>
@@ -7472,7 +7493,7 @@
       <c r="I68" s="311"/>
       <c r="J68" s="311"/>
     </row>
-    <row r="69" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A69" s="311"/>
       <c r="B69" s="311"/>
       <c r="C69" s="311"/>
@@ -7484,7 +7505,7 @@
       <c r="I69" s="311"/>
       <c r="J69" s="311"/>
     </row>
-    <row r="70" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A70" s="311"/>
       <c r="B70" s="311"/>
       <c r="C70" s="311"/>
@@ -7496,7 +7517,7 @@
       <c r="I70" s="311"/>
       <c r="J70" s="311"/>
     </row>
-    <row r="71" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A71" s="311"/>
       <c r="B71" s="311"/>
       <c r="C71" s="311"/>
@@ -7508,7 +7529,7 @@
       <c r="I71" s="311"/>
       <c r="J71" s="311"/>
     </row>
-    <row r="72" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A72" s="311"/>
       <c r="B72" s="311"/>
       <c r="C72" s="311"/>
@@ -7520,7 +7541,7 @@
       <c r="I72" s="311"/>
       <c r="J72" s="311"/>
     </row>
-    <row r="73" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A73" s="311"/>
       <c r="B73" s="311"/>
       <c r="C73" s="311"/>
@@ -7532,7 +7553,7 @@
       <c r="I73" s="311"/>
       <c r="J73" s="311"/>
     </row>
-    <row r="74" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A74" s="311"/>
       <c r="B74" s="311"/>
       <c r="C74" s="311"/>
@@ -7544,7 +7565,7 @@
       <c r="I74" s="311"/>
       <c r="J74" s="311"/>
     </row>
-    <row r="75" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A75" s="311"/>
       <c r="B75" s="311"/>
       <c r="C75" s="311"/>
@@ -7556,7 +7577,7 @@
       <c r="I75" s="311"/>
       <c r="J75" s="311"/>
     </row>
-    <row r="76" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A76" s="311"/>
       <c r="B76" s="311"/>
       <c r="C76" s="311"/>
@@ -7568,7 +7589,7 @@
       <c r="I76" s="311"/>
       <c r="J76" s="311"/>
     </row>
-    <row r="77" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A77" s="311"/>
       <c r="B77" s="311"/>
       <c r="C77" s="311"/>
@@ -7580,7 +7601,7 @@
       <c r="I77" s="311"/>
       <c r="J77" s="311"/>
     </row>
-    <row r="78" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A78" s="311"/>
       <c r="B78" s="311"/>
       <c r="C78" s="311"/>
@@ -7592,7 +7613,7 @@
       <c r="I78" s="311"/>
       <c r="J78" s="311"/>
     </row>
-    <row r="79" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A79" s="311"/>
       <c r="B79" s="311"/>
       <c r="C79" s="311"/>
@@ -7604,7 +7625,7 @@
       <c r="I79" s="311"/>
       <c r="J79" s="311"/>
     </row>
-    <row r="80" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A80" s="311"/>
       <c r="B80" s="311"/>
       <c r="C80" s="311"/>
@@ -7616,7 +7637,7 @@
       <c r="I80" s="311"/>
       <c r="J80" s="311"/>
     </row>
-    <row r="81" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A81" s="311"/>
       <c r="B81" s="311"/>
       <c r="C81" s="311"/>
@@ -7628,7 +7649,7 @@
       <c r="I81" s="311"/>
       <c r="J81" s="311"/>
     </row>
-    <row r="82" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A82" s="311"/>
       <c r="B82" s="311"/>
       <c r="C82" s="311"/>
@@ -7640,7 +7661,7 @@
       <c r="I82" s="311"/>
       <c r="J82" s="311"/>
     </row>
-    <row r="83" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A83" s="311"/>
       <c r="B83" s="311"/>
       <c r="C83" s="311"/>
@@ -7652,7 +7673,7 @@
       <c r="I83" s="311"/>
       <c r="J83" s="311"/>
     </row>
-    <row r="84" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A84" s="311"/>
       <c r="B84" s="311"/>
       <c r="C84" s="311"/>
@@ -7664,7 +7685,7 @@
       <c r="I84" s="311"/>
       <c r="J84" s="311"/>
     </row>
-    <row r="85" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A85" s="311"/>
       <c r="B85" s="311"/>
       <c r="C85" s="311"/>
@@ -7703,17 +7724,17 @@
       <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>377</v>
       </c>
     </row>
-    <row r="2" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A2" s="97" t="s">
         <v>356</v>
       </c>
@@ -7755,7 +7776,7 @@
       <c r="T2" s="97"/>
       <c r="U2" s="97"/>
     </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A3" s="97" t="s">
         <v>476</v>
       </c>
@@ -7796,7 +7817,7 @@
       <c r="T3" s="96"/>
       <c r="U3" s="96"/>
     </row>
-    <row r="4" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A4" s="97" t="s">
         <v>476</v>
       </c>
@@ -7837,7 +7858,7 @@
       <c r="T4" s="96"/>
       <c r="U4" s="96"/>
     </row>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A5" s="97" t="s">
         <v>476</v>
       </c>
@@ -7878,7 +7899,7 @@
       <c r="T5" s="96"/>
       <c r="U5" s="96"/>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A6" s="97" t="s">
         <v>476</v>
       </c>
@@ -7918,7 +7939,7 @@
       <c r="T6" s="96"/>
       <c r="U6" s="96"/>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A7" s="97" t="s">
         <v>476</v>
       </c>
@@ -7958,7 +7979,7 @@
       <c r="T7" s="96"/>
       <c r="U7" s="96"/>
     </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A8" s="97" t="s">
         <v>476</v>
       </c>
@@ -7998,7 +8019,7 @@
       <c r="T8" s="96"/>
       <c r="U8" s="96"/>
     </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A9" s="101" t="s">
         <v>476</v>
       </c>
@@ -8040,7 +8061,7 @@
       <c r="T9" s="96"/>
       <c r="U9" s="96"/>
     </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A10" s="97" t="s">
         <v>476</v>
       </c>
@@ -8081,7 +8102,7 @@
       <c r="T10" s="96"/>
       <c r="U10" s="96"/>
     </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A11" s="97" t="s">
         <v>476</v>
       </c>
@@ -8123,7 +8144,7 @@
       <c r="T11" s="96"/>
       <c r="U11" s="96"/>
     </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A12" s="97" t="s">
         <v>476</v>
       </c>
@@ -8165,7 +8186,7 @@
       <c r="T12" s="96"/>
       <c r="U12" s="96"/>
     </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A13" s="97" t="s">
         <v>476</v>
       </c>
@@ -8197,7 +8218,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A14" s="97" t="s">
         <v>476</v>
       </c>
@@ -8229,7 +8250,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A15" s="97" t="s">
         <v>476</v>
       </c>
@@ -8261,7 +8282,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A16" s="97" t="s">
         <v>476</v>
       </c>
@@ -8293,7 +8314,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="97" t="s">
         <v>476</v>
       </c>
@@ -8324,7 +8345,7 @@
       <c r="J17" s="96"/>
       <c r="K17" s="96"/>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="97" t="s">
         <v>476</v>
       </c>
@@ -8357,7 +8378,7 @@
       </c>
       <c r="K18" s="96"/>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="97" t="s">
         <v>476</v>
       </c>
@@ -8390,7 +8411,7 @@
       </c>
       <c r="K19" s="96"/>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="97" t="s">
         <v>476</v>
       </c>
@@ -8422,7 +8443,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="97" t="s">
         <v>476</v>
       </c>
@@ -8455,7 +8476,7 @@
       </c>
       <c r="K21" s="96"/>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" s="97" t="s">
         <v>476</v>
       </c>
@@ -8488,7 +8509,7 @@
       </c>
       <c r="K22" s="96"/>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" s="97" t="s">
         <v>476</v>
       </c>
@@ -8521,7 +8542,7 @@
       </c>
       <c r="K23" s="96"/>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" s="97" t="s">
         <v>476</v>
       </c>
@@ -8554,15 +8575,15 @@
       </c>
       <c r="K24" s="96"/>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" s="98" t="s">
         <v>371</v>
       </c>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="F28" s="67"/>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" s="99" t="s">
         <v>271</v>
       </c>
@@ -8574,7 +8595,7 @@
       </c>
       <c r="F29" s="67"/>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" s="99" t="s">
         <v>271</v>
       </c>
@@ -8586,7 +8607,7 @@
       </c>
       <c r="F30" s="67"/>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" s="99" t="s">
         <v>271</v>
       </c>
@@ -8598,7 +8619,7 @@
       </c>
       <c r="F31" s="67"/>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32" s="99" t="s">
         <v>271</v>
       </c>
@@ -8609,7 +8630,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33" s="99" t="s">
         <v>271</v>
       </c>
@@ -8620,7 +8641,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A34" s="99" t="s">
         <v>271</v>
       </c>
@@ -8637,7 +8658,7 @@
       <c r="J34" s="103"/>
       <c r="K34" s="103"/>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35" s="99" t="s">
         <v>159</v>
       </c>
@@ -8654,7 +8675,7 @@
       <c r="J35" s="103"/>
       <c r="K35" s="103"/>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A36" s="99" t="s">
         <v>159</v>
       </c>
@@ -8671,7 +8692,7 @@
       <c r="J36" s="103"/>
       <c r="K36" s="103"/>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A37" s="99" t="s">
         <v>159</v>
       </c>
@@ -8688,7 +8709,7 @@
       <c r="J37" s="103"/>
       <c r="K37" s="103"/>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A38" s="99" t="s">
         <v>159</v>
       </c>
@@ -8705,7 +8726,7 @@
       <c r="J38" s="103"/>
       <c r="K38" s="103"/>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A39" s="99" t="s">
         <v>159</v>
       </c>
@@ -8722,7 +8743,7 @@
       <c r="J39" s="103"/>
       <c r="K39" s="103"/>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A40" s="99" t="s">
         <v>159</v>
       </c>
@@ -8739,7 +8760,7 @@
       <c r="J40" s="103"/>
       <c r="K40" s="103"/>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A41" s="99" t="s">
         <v>159</v>
       </c>
@@ -8756,7 +8777,7 @@
       <c r="J41" s="103"/>
       <c r="K41" s="103"/>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
       <c r="F42" s="103"/>
       <c r="G42" s="103"/>
       <c r="H42" s="103"/>
@@ -8764,24 +8785,24 @@
       <c r="J42" s="103"/>
       <c r="K42" s="103"/>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>400</v>
       </c>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>399</v>
       </c>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
       <c r="F48" s="103"/>
       <c r="G48" s="103"/>
       <c r="H48" s="103"/>
       <c r="I48" s="103"/>
       <c r="J48" s="103"/>
     </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>379</v>
       </c>
@@ -8791,7 +8812,7 @@
       <c r="I49" s="103"/>
       <c r="J49" s="103"/>
     </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>380</v>
       </c>
@@ -8801,7 +8822,7 @@
       <c r="I50" s="103"/>
       <c r="J50" s="103"/>
     </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>381</v>
       </c>
@@ -8811,12 +8832,12 @@
       <c r="I51" s="103"/>
       <c r="J51" s="103"/>
     </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>382</v>
       </c>
     </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>383</v>
       </c>
@@ -8830,47 +8851,47 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W61"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="L48" sqref="L48"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="H29" sqref="H29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="30.6640625" style="116" customWidth="1"/>
-    <col min="2" max="2" width="11.5546875" style="116" customWidth="1"/>
-    <col min="3" max="3" width="14.6640625" style="116" customWidth="1"/>
-    <col min="4" max="4" width="15.6640625" style="116" customWidth="1"/>
-    <col min="5" max="5" width="13.44140625" style="116" customWidth="1"/>
-    <col min="6" max="6" width="14.5546875" style="116" customWidth="1"/>
+    <col min="1" max="1" width="30.7109375" style="116" customWidth="1"/>
+    <col min="2" max="2" width="11.5703125" style="116" customWidth="1"/>
+    <col min="3" max="3" width="14.7109375" style="116" customWidth="1"/>
+    <col min="4" max="4" width="15.7109375" style="116" customWidth="1"/>
+    <col min="5" max="5" width="13.42578125" style="116" customWidth="1"/>
+    <col min="6" max="6" width="14.5703125" style="116" customWidth="1"/>
     <col min="7" max="7" width="11" style="116" customWidth="1"/>
-    <col min="8" max="8" width="13.5546875" style="116" customWidth="1"/>
-    <col min="9" max="9" width="10.88671875" style="116" customWidth="1"/>
-    <col min="10" max="10" width="13.33203125" style="116" customWidth="1"/>
+    <col min="8" max="8" width="13.5703125" style="116" customWidth="1"/>
+    <col min="9" max="9" width="10.85546875" style="116" customWidth="1"/>
+    <col min="10" max="10" width="13.28515625" style="116" customWidth="1"/>
     <col min="11" max="11" width="13" style="116" customWidth="1"/>
-    <col min="12" max="12" width="22.88671875" style="116" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="13.33203125" style="116" customWidth="1"/>
-    <col min="14" max="14" width="12.88671875" style="116" customWidth="1"/>
-    <col min="15" max="15" width="3.5546875" style="116" customWidth="1"/>
-    <col min="16" max="16" width="20.44140625" style="116" customWidth="1"/>
-    <col min="17" max="17" width="100.109375" style="116" customWidth="1"/>
-    <col min="18" max="18" width="19.33203125" style="116" customWidth="1"/>
-    <col min="19" max="16384" width="11.5546875" style="116"/>
+    <col min="12" max="12" width="22.85546875" style="116" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="13.28515625" style="116" customWidth="1"/>
+    <col min="14" max="14" width="12.85546875" style="116" customWidth="1"/>
+    <col min="15" max="15" width="3.5703125" style="116" customWidth="1"/>
+    <col min="16" max="16" width="20.42578125" style="116" customWidth="1"/>
+    <col min="17" max="17" width="100.140625" style="116" customWidth="1"/>
+    <col min="18" max="18" width="19.28515625" style="116" customWidth="1"/>
+    <col min="19" max="16384" width="11.5703125" style="116"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="182"/>
       <c r="B1" s="179"/>
       <c r="C1" s="179"/>
       <c r="D1" s="179"/>
-      <c r="E1" s="315" t="s">
+      <c r="E1" s="328" t="s">
         <v>459</v>
       </c>
-      <c r="F1" s="316"/>
-      <c r="G1" s="316"/>
-      <c r="H1" s="316"/>
-      <c r="I1" s="316"/>
-      <c r="J1" s="316"/>
-      <c r="K1" s="317"/>
+      <c r="F1" s="329"/>
+      <c r="G1" s="329"/>
+      <c r="H1" s="329"/>
+      <c r="I1" s="329"/>
+      <c r="J1" s="329"/>
+      <c r="K1" s="330"/>
       <c r="P1" s="196" t="s">
         <v>450</v>
       </c>
@@ -8884,7 +8905,7 @@
       <c r="V1"/>
       <c r="W1"/>
     </row>
-    <row r="2" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="164" t="s">
         <v>116</v>
       </c>
@@ -8934,7 +8955,7 @@
       <c r="V2"/>
       <c r="W2"/>
     </row>
-    <row r="3" spans="1:23" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:23" ht="15" x14ac:dyDescent="0.25">
       <c r="A3" s="140" t="s">
         <v>32</v>
       </c>
@@ -8954,7 +8975,7 @@
       <c r="I3" s="144"/>
       <c r="J3" s="144"/>
       <c r="K3" s="145"/>
-      <c r="P3" s="312" t="s">
+      <c r="P3" s="325" t="s">
         <v>447</v>
       </c>
       <c r="Q3" s="191" t="s">
@@ -8967,7 +8988,7 @@
       <c r="V3"/>
       <c r="W3"/>
     </row>
-    <row r="4" spans="1:23" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:23" ht="15" x14ac:dyDescent="0.25">
       <c r="A4" s="117" t="s">
         <v>24</v>
       </c>
@@ -9003,7 +9024,7 @@
         <f>G4-F4*H4*0.001</f>
         <v>9.0250000000000004</v>
       </c>
-      <c r="P4" s="312"/>
+      <c r="P4" s="325"/>
       <c r="Q4" s="191" t="s">
         <v>445</v>
       </c>
@@ -9014,7 +9035,7 @@
       <c r="V4"/>
       <c r="W4"/>
     </row>
-    <row r="5" spans="1:23" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:23" ht="15" x14ac:dyDescent="0.25">
       <c r="A5" s="119" t="s">
         <v>78</v>
       </c>
@@ -9050,7 +9071,7 @@
         <f t="shared" ref="L5:L10" si="0">G5-F5*H5*0.001</f>
         <v>9.0007999999999981</v>
       </c>
-      <c r="P5" s="312"/>
+      <c r="P5" s="325"/>
       <c r="Q5" s="191" t="s">
         <v>68</v>
       </c>
@@ -9061,7 +9082,7 @@
       <c r="V5"/>
       <c r="W5"/>
     </row>
-    <row r="6" spans="1:23" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:23" ht="15" x14ac:dyDescent="0.25">
       <c r="A6" s="114" t="s">
         <v>389</v>
       </c>
@@ -9081,7 +9102,7 @@
       <c r="I6" s="126"/>
       <c r="J6" s="126"/>
       <c r="K6" s="129"/>
-      <c r="P6" s="312"/>
+      <c r="P6" s="325"/>
       <c r="Q6" s="191" t="s">
         <v>69</v>
       </c>
@@ -9092,7 +9113,7 @@
       <c r="V6"/>
       <c r="W6"/>
     </row>
-    <row r="7" spans="1:23" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:23" ht="15" x14ac:dyDescent="0.25">
       <c r="A7" s="123" t="s">
         <v>36</v>
       </c>
@@ -9128,7 +9149,7 @@
         <f t="shared" si="0"/>
         <v>8.5922999999999945</v>
       </c>
-      <c r="P7" s="312"/>
+      <c r="P7" s="325"/>
       <c r="Q7" s="192" t="s">
         <v>444</v>
       </c>
@@ -9139,7 +9160,7 @@
       <c r="V7"/>
       <c r="W7"/>
     </row>
-    <row r="8" spans="1:23" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:23" ht="15" x14ac:dyDescent="0.25">
       <c r="A8" s="117" t="s">
         <v>35</v>
       </c>
@@ -9159,7 +9180,7 @@
       <c r="I8" s="126"/>
       <c r="J8" s="126"/>
       <c r="K8" s="129"/>
-      <c r="P8" s="313" t="s">
+      <c r="P8" s="326" t="s">
         <v>443</v>
       </c>
       <c r="Q8" s="193" t="s">
@@ -9172,7 +9193,7 @@
       <c r="V8"/>
       <c r="W8"/>
     </row>
-    <row r="9" spans="1:23" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:23" ht="30" x14ac:dyDescent="0.25">
       <c r="A9" s="117" t="s">
         <v>33</v>
       </c>
@@ -9208,7 +9229,7 @@
         <f t="shared" si="0"/>
         <v>9.4707000000000008</v>
       </c>
-      <c r="P9" s="313"/>
+      <c r="P9" s="326"/>
       <c r="Q9" s="193" t="s">
         <v>456</v>
       </c>
@@ -9219,7 +9240,7 @@
       <c r="V9"/>
       <c r="W9"/>
     </row>
-    <row r="10" spans="1:23" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:23" ht="15" x14ac:dyDescent="0.25">
       <c r="A10" s="278" t="s">
         <v>23</v>
       </c>
@@ -9255,7 +9276,7 @@
         <f t="shared" si="0"/>
         <v>5.0242000000000004</v>
       </c>
-      <c r="P10" s="313"/>
+      <c r="P10" s="326"/>
       <c r="Q10" s="194" t="s">
         <v>441</v>
       </c>
@@ -9266,7 +9287,7 @@
       <c r="V10"/>
       <c r="W10"/>
     </row>
-    <row r="11" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="130" t="s">
         <v>75</v>
       </c>
@@ -9286,7 +9307,7 @@
       <c r="I11" s="133"/>
       <c r="J11" s="133"/>
       <c r="K11" s="134"/>
-      <c r="P11" s="313"/>
+      <c r="P11" s="326"/>
       <c r="Q11" s="192" t="s">
         <v>455</v>
       </c>
@@ -9297,7 +9318,7 @@
       <c r="V11"/>
       <c r="W11"/>
     </row>
-    <row r="12" spans="1:23" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:23" ht="15" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>418</v>
       </c>
@@ -9315,7 +9336,7 @@
       <c r="M12" s="125"/>
       <c r="N12" s="125"/>
       <c r="O12" s="125"/>
-      <c r="P12" s="313"/>
+      <c r="P12" s="326"/>
       <c r="Q12" s="192" t="s">
         <v>440</v>
       </c>
@@ -9326,8 +9347,8 @@
       <c r="V12"/>
       <c r="W12"/>
     </row>
-    <row r="13" spans="1:23" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="P13" s="313" t="s">
+    <row r="13" spans="1:23" ht="15" x14ac:dyDescent="0.25">
+      <c r="P13" s="326" t="s">
         <v>439</v>
       </c>
       <c r="Q13" s="192" t="s">
@@ -9340,8 +9361,8 @@
       <c r="V13"/>
       <c r="W13"/>
     </row>
-    <row r="14" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="P14" s="313"/>
+    <row r="14" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="P14" s="326"/>
       <c r="Q14" s="191" t="s">
         <v>437</v>
       </c>
@@ -9352,31 +9373,31 @@
       <c r="V14"/>
       <c r="W14"/>
     </row>
-    <row r="15" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="319" t="s">
+    <row r="15" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="313" t="s">
         <v>458</v>
       </c>
-      <c r="B15" s="320"/>
-      <c r="C15" s="320"/>
-      <c r="D15" s="320"/>
-      <c r="E15" s="320"/>
-      <c r="F15" s="320"/>
-      <c r="G15" s="320"/>
-      <c r="H15" s="320"/>
-      <c r="I15" s="320"/>
-      <c r="J15" s="320"/>
-      <c r="K15" s="321"/>
-      <c r="L15" s="328" t="s">
+      <c r="B15" s="314"/>
+      <c r="C15" s="314"/>
+      <c r="D15" s="314"/>
+      <c r="E15" s="314"/>
+      <c r="F15" s="314"/>
+      <c r="G15" s="314"/>
+      <c r="H15" s="314"/>
+      <c r="I15" s="314"/>
+      <c r="J15" s="314"/>
+      <c r="K15" s="315"/>
+      <c r="L15" s="322" t="s">
         <v>473</v>
       </c>
-      <c r="M15" s="328" t="s">
+      <c r="M15" s="322" t="s">
         <v>463</v>
       </c>
-      <c r="N15" s="328" t="s">
+      <c r="N15" s="322" t="s">
         <v>474</v>
       </c>
       <c r="O15" s="125"/>
-      <c r="P15" s="313"/>
+      <c r="P15" s="326"/>
       <c r="Q15" s="191" t="s">
         <v>436</v>
       </c>
@@ -9387,7 +9408,7 @@
       <c r="V15"/>
       <c r="W15"/>
     </row>
-    <row r="16" spans="1:23" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:23" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="173" t="s">
         <v>32</v>
       </c>
@@ -9415,15 +9436,15 @@
       <c r="I16" s="166" t="s">
         <v>395</v>
       </c>
-      <c r="J16" s="326" t="s">
+      <c r="J16" s="320" t="s">
         <v>401</v>
       </c>
-      <c r="K16" s="327"/>
-      <c r="L16" s="329"/>
-      <c r="M16" s="329"/>
-      <c r="N16" s="329"/>
+      <c r="K16" s="321"/>
+      <c r="L16" s="323"/>
+      <c r="M16" s="323"/>
+      <c r="N16" s="323"/>
       <c r="O16" s="125"/>
-      <c r="P16" s="313" t="s">
+      <c r="P16" s="326" t="s">
         <v>435</v>
       </c>
       <c r="Q16" s="192" t="s">
@@ -9436,7 +9457,7 @@
       <c r="V16"/>
       <c r="W16"/>
     </row>
-    <row r="17" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="234" t="s">
         <v>394</v>
       </c>
@@ -9462,17 +9483,17 @@
       <c r="I17" s="240">
         <v>0.31</v>
       </c>
-      <c r="J17" s="322" t="s">
+      <c r="J17" s="316" t="s">
         <v>472</v>
       </c>
-      <c r="K17" s="324" t="s">
+      <c r="K17" s="318" t="s">
         <v>417</v>
       </c>
-      <c r="L17" s="329"/>
-      <c r="M17" s="330"/>
-      <c r="N17" s="330"/>
+      <c r="L17" s="323"/>
+      <c r="M17" s="324"/>
+      <c r="N17" s="324"/>
       <c r="O17" s="125"/>
-      <c r="P17" s="313"/>
+      <c r="P17" s="326"/>
       <c r="Q17" s="192" t="s">
         <v>433</v>
       </c>
@@ -9483,7 +9504,7 @@
       <c r="V17"/>
       <c r="W17"/>
     </row>
-    <row r="18" spans="1:23" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:23" ht="13.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="174" t="s">
         <v>470</v>
       </c>
@@ -9509,9 +9530,9 @@
       <c r="I18" s="242">
         <v>0.5</v>
       </c>
-      <c r="J18" s="323"/>
-      <c r="K18" s="325"/>
-      <c r="L18" s="330"/>
+      <c r="J18" s="317"/>
+      <c r="K18" s="319"/>
+      <c r="L18" s="324"/>
       <c r="M18" s="269">
         <v>53</v>
       </c>
@@ -9519,7 +9540,7 @@
         <v>30</v>
       </c>
       <c r="O18" s="125"/>
-      <c r="P18" s="313"/>
+      <c r="P18" s="326"/>
       <c r="Q18" s="192" t="s">
         <v>432</v>
       </c>
@@ -9530,7 +9551,7 @@
       <c r="V18"/>
       <c r="W18"/>
     </row>
-    <row r="19" spans="1:23" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:23" ht="15" x14ac:dyDescent="0.25">
       <c r="A19" s="175" t="s">
         <v>34</v>
       </c>
@@ -9566,7 +9587,7 @@
         <v>9</v>
       </c>
       <c r="O19" s="125"/>
-      <c r="P19" s="313"/>
+      <c r="P19" s="326"/>
       <c r="Q19" s="192" t="s">
         <v>431</v>
       </c>
@@ -9577,7 +9598,7 @@
       <c r="V19"/>
       <c r="W19"/>
     </row>
-    <row r="20" spans="1:23" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:23" ht="15" x14ac:dyDescent="0.25">
       <c r="A20" s="176" t="s">
         <v>25</v>
       </c>
@@ -9610,7 +9631,7 @@
         <v>9</v>
       </c>
       <c r="O20" s="125"/>
-      <c r="P20" s="313"/>
+      <c r="P20" s="326"/>
       <c r="Q20" s="192" t="s">
         <v>430</v>
       </c>
@@ -9621,7 +9642,7 @@
       <c r="V20"/>
       <c r="W20"/>
     </row>
-    <row r="21" spans="1:23" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:23" ht="15" x14ac:dyDescent="0.25">
       <c r="A21" s="176" t="s">
         <v>26</v>
       </c>
@@ -9658,7 +9679,7 @@
         <v>9</v>
       </c>
       <c r="O21" s="125"/>
-      <c r="P21" s="313"/>
+      <c r="P21" s="326"/>
       <c r="Q21" s="192" t="s">
         <v>429</v>
       </c>
@@ -9669,7 +9690,7 @@
       <c r="V21"/>
       <c r="W21"/>
     </row>
-    <row r="22" spans="1:23" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:23" ht="15" x14ac:dyDescent="0.25">
       <c r="A22" s="176" t="s">
         <v>27</v>
       </c>
@@ -9706,7 +9727,7 @@
         <v>9</v>
       </c>
       <c r="O22" s="125"/>
-      <c r="P22" s="313"/>
+      <c r="P22" s="326"/>
       <c r="Q22" s="192" t="s">
         <v>428</v>
       </c>
@@ -9717,7 +9738,7 @@
       <c r="V22"/>
       <c r="W22"/>
     </row>
-    <row r="23" spans="1:23" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:23" ht="15" x14ac:dyDescent="0.25">
       <c r="A23" s="176" t="s">
         <v>28</v>
       </c>
@@ -9754,7 +9775,7 @@
         <v>9</v>
       </c>
       <c r="O23" s="125"/>
-      <c r="P23" s="313"/>
+      <c r="P23" s="326"/>
       <c r="Q23" s="192" t="s">
         <v>427</v>
       </c>
@@ -9765,7 +9786,7 @@
       <c r="V23"/>
       <c r="W23"/>
     </row>
-    <row r="24" spans="1:23" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:23" ht="15" x14ac:dyDescent="0.25">
       <c r="A24" s="176" t="s">
         <v>29</v>
       </c>
@@ -9799,7 +9820,7 @@
         <v>9</v>
       </c>
       <c r="O24" s="125"/>
-      <c r="P24" s="313"/>
+      <c r="P24" s="326"/>
       <c r="Q24" s="192" t="s">
         <v>426</v>
       </c>
@@ -9810,7 +9831,7 @@
       <c r="V24"/>
       <c r="W24"/>
     </row>
-    <row r="25" spans="1:23" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:23" ht="15" x14ac:dyDescent="0.25">
       <c r="A25" s="176" t="s">
         <v>30</v>
       </c>
@@ -9850,7 +9871,7 @@
         <v>9</v>
       </c>
       <c r="O25" s="125"/>
-      <c r="P25" s="313"/>
+      <c r="P25" s="326"/>
       <c r="Q25" s="192" t="s">
         <v>425</v>
       </c>
@@ -9861,7 +9882,7 @@
       <c r="V25"/>
       <c r="W25"/>
     </row>
-    <row r="26" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="177" t="s">
         <v>31</v>
       </c>
@@ -9902,7 +9923,7 @@
         <v>9</v>
       </c>
       <c r="O26" s="125"/>
-      <c r="P26" s="313"/>
+      <c r="P26" s="326"/>
       <c r="Q26" s="192" t="s">
         <v>424</v>
       </c>
@@ -9913,7 +9934,7 @@
       <c r="V26"/>
       <c r="W26"/>
     </row>
-    <row r="27" spans="1:23" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:23" ht="15" x14ac:dyDescent="0.25">
       <c r="A27" s="153"/>
       <c r="B27" s="125" t="s">
         <v>419</v>
@@ -9925,7 +9946,7 @@
         <v>462</v>
       </c>
       <c r="O27" s="125"/>
-      <c r="P27" s="313"/>
+      <c r="P27" s="326"/>
       <c r="Q27" s="192" t="s">
         <v>423</v>
       </c>
@@ -9936,13 +9957,13 @@
       <c r="V27"/>
       <c r="W27"/>
     </row>
-    <row r="28" spans="1:23" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:23" ht="15" x14ac:dyDescent="0.25">
       <c r="A28" s="153"/>
       <c r="K28" s="116" t="s">
         <v>467</v>
       </c>
       <c r="O28" s="125"/>
-      <c r="P28" s="313"/>
+      <c r="P28" s="326"/>
       <c r="Q28" s="192" t="s">
         <v>422</v>
       </c>
@@ -9953,7 +9974,7 @@
       <c r="V28"/>
       <c r="W28"/>
     </row>
-    <row r="29" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A29" s="153"/>
       <c r="B29" s="116" t="s">
         <v>413</v>
@@ -9962,7 +9983,7 @@
         <v>420</v>
       </c>
       <c r="O29" s="125"/>
-      <c r="P29" s="314"/>
+      <c r="P29" s="327"/>
       <c r="Q29" s="195" t="s">
         <v>421</v>
       </c>
@@ -9973,7 +9994,7 @@
       <c r="V29"/>
       <c r="W29"/>
     </row>
-    <row r="30" spans="1:23" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:23" ht="15" x14ac:dyDescent="0.25">
       <c r="A30" s="153"/>
       <c r="B30" s="116" t="s">
         <v>414</v>
@@ -9990,7 +10011,7 @@
       <c r="V30"/>
       <c r="W30"/>
     </row>
-    <row r="31" spans="1:23" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:23" ht="15" x14ac:dyDescent="0.25">
       <c r="A31" s="153"/>
       <c r="B31" s="116" t="s">
         <v>415</v>
@@ -10005,7 +10026,7 @@
       <c r="V31"/>
       <c r="W31"/>
     </row>
-    <row r="32" spans="1:23" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:23" ht="15" x14ac:dyDescent="0.25">
       <c r="A32" s="153"/>
       <c r="B32" t="s">
         <v>408</v>
@@ -10020,7 +10041,7 @@
       <c r="V32"/>
       <c r="W32"/>
     </row>
-    <row r="33" spans="1:23" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:23" ht="15" x14ac:dyDescent="0.25">
       <c r="B33" t="s">
         <v>411</v>
       </c>
@@ -10033,7 +10054,7 @@
       <c r="V33"/>
       <c r="W33"/>
     </row>
-    <row r="34" spans="1:23" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:23" ht="15" x14ac:dyDescent="0.25">
       <c r="B34" s="116" t="s">
         <v>402</v>
       </c>
@@ -10046,7 +10067,7 @@
       <c r="V34"/>
       <c r="W34"/>
     </row>
-    <row r="35" spans="1:23" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:23" ht="15" x14ac:dyDescent="0.25">
       <c r="B35" s="116" t="s">
         <v>412</v>
       </c>
@@ -10059,7 +10080,7 @@
       <c r="V35"/>
       <c r="W35"/>
     </row>
-    <row r="36" spans="1:23" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:23" ht="15" x14ac:dyDescent="0.25">
       <c r="B36" s="125" t="s">
         <v>409</v>
       </c>
@@ -10067,13 +10088,13 @@
       <c r="D36" s="125"/>
       <c r="P36"/>
       <c r="Q36"/>
-      <c r="R36" s="318"/>
+      <c r="R36" s="312"/>
       <c r="S36"/>
       <c r="T36"/>
       <c r="U36"/>
       <c r="W36"/>
     </row>
-    <row r="37" spans="1:23" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:23" ht="15" x14ac:dyDescent="0.25">
       <c r="B37" s="125" t="s">
         <v>416</v>
       </c>
@@ -10081,27 +10102,27 @@
       <c r="D37" s="125"/>
       <c r="P37"/>
       <c r="Q37"/>
-      <c r="R37" s="318"/>
+      <c r="R37" s="312"/>
       <c r="S37"/>
       <c r="T37"/>
       <c r="U37"/>
       <c r="V37"/>
       <c r="W37"/>
     </row>
-    <row r="38" spans="1:23" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:23" ht="15" x14ac:dyDescent="0.25">
       <c r="B38" s="162"/>
       <c r="C38" s="163"/>
       <c r="D38" s="125"/>
       <c r="P38"/>
       <c r="Q38"/>
-      <c r="R38" s="318"/>
+      <c r="R38" s="312"/>
       <c r="S38"/>
       <c r="T38"/>
       <c r="U38"/>
       <c r="V38"/>
       <c r="W38"/>
     </row>
-    <row r="39" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B39" s="162"/>
       <c r="C39" s="163"/>
       <c r="D39" s="125"/>
@@ -10114,7 +10135,7 @@
       <c r="V39"/>
       <c r="W39"/>
     </row>
-    <row r="40" spans="1:23" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:23" ht="15" x14ac:dyDescent="0.25">
       <c r="A40" s="279" t="s">
         <v>489</v>
       </c>
@@ -10142,7 +10163,7 @@
       <c r="V40"/>
       <c r="W40"/>
     </row>
-    <row r="41" spans="1:23" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:23" ht="15" x14ac:dyDescent="0.25">
       <c r="B41" s="126">
         <v>125</v>
       </c>
@@ -10170,7 +10191,7 @@
       <c r="V41"/>
       <c r="W41"/>
     </row>
-    <row r="42" spans="1:23" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:23" ht="15" x14ac:dyDescent="0.25">
       <c r="B42" s="126">
         <f>230-125</f>
         <v>105</v>
@@ -10188,6 +10209,12 @@
       <c r="F42" s="287">
         <f t="shared" ref="F42:F47" si="2">B42/SUM($B$41:$B$47)</f>
         <v>0.105</v>
+      </c>
+      <c r="J42" s="116" t="s">
+        <v>496</v>
+      </c>
+      <c r="K42" s="116" t="s">
+        <v>497</v>
       </c>
       <c r="P42"/>
       <c r="Q42"/>
@@ -10198,7 +10225,7 @@
       <c r="V42"/>
       <c r="W42"/>
     </row>
-    <row r="43" spans="1:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:23" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B43" s="126">
         <f>315-230</f>
         <v>85</v>
@@ -10216,6 +10243,12 @@
       <c r="F43" s="287">
         <f t="shared" si="2"/>
         <v>8.5000000000000006E-2</v>
+      </c>
+      <c r="J43" s="116" t="s">
+        <v>20</v>
+      </c>
+      <c r="K43" s="116" t="s">
+        <v>498</v>
       </c>
       <c r="P43" s="100"/>
       <c r="Q43" s="100"/>
@@ -10226,7 +10259,7 @@
       <c r="V43"/>
       <c r="W43"/>
     </row>
-    <row r="44" spans="1:23" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:23" ht="15" x14ac:dyDescent="0.25">
       <c r="B44" s="126">
         <f>400-315</f>
         <v>85</v>
@@ -10244,6 +10277,12 @@
       <c r="F44" s="287">
         <f t="shared" si="2"/>
         <v>8.5000000000000006E-2</v>
+      </c>
+      <c r="J44" s="116" t="s">
+        <v>499</v>
+      </c>
+      <c r="K44" s="116" t="s">
+        <v>500</v>
       </c>
       <c r="P44" s="100"/>
       <c r="Q44" s="100"/>
@@ -10254,7 +10293,7 @@
       <c r="V44"/>
       <c r="W44"/>
     </row>
-    <row r="45" spans="1:23" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:23" ht="15" x14ac:dyDescent="0.25">
       <c r="B45" s="126">
         <f>445-400</f>
         <v>45</v>
@@ -10272,6 +10311,12 @@
       <c r="F45" s="287">
         <f t="shared" si="2"/>
         <v>4.4999999999999998E-2</v>
+      </c>
+      <c r="J45" s="116" t="s">
+        <v>501</v>
+      </c>
+      <c r="K45" s="116" t="s">
+        <v>502</v>
       </c>
       <c r="P45" s="100"/>
       <c r="Q45" s="100"/>
@@ -10282,7 +10327,7 @@
       <c r="V45"/>
       <c r="W45"/>
     </row>
-    <row r="46" spans="1:23" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:23" ht="15" x14ac:dyDescent="0.25">
       <c r="B46" s="126">
         <f>700-445</f>
         <v>255</v>
@@ -10310,7 +10355,7 @@
       <c r="V46"/>
       <c r="W46"/>
     </row>
-    <row r="47" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B47" s="126">
         <f>1000-700</f>
         <v>300</v>
@@ -10338,7 +10383,7 @@
       <c r="V47"/>
       <c r="W47"/>
     </row>
-    <row r="48" spans="1:23" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:23" ht="15" x14ac:dyDescent="0.25">
       <c r="B48" s="162"/>
       <c r="D48" s="116" t="s">
         <v>493</v>
@@ -10356,7 +10401,7 @@
       <c r="V48"/>
       <c r="W48"/>
     </row>
-    <row r="49" spans="1:23" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:23" ht="15" x14ac:dyDescent="0.25">
       <c r="B49" s="162"/>
       <c r="D49" s="116" t="s">
         <v>494</v>
@@ -10374,7 +10419,7 @@
       <c r="V49"/>
       <c r="W49"/>
     </row>
-    <row r="50" spans="1:23" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:23" ht="15" x14ac:dyDescent="0.25">
       <c r="B50" s="162"/>
       <c r="D50" s="116" t="s">
         <v>377</v>
@@ -10392,13 +10437,13 @@
       <c r="V50"/>
       <c r="W50"/>
     </row>
-    <row r="51" spans="1:23" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:23" ht="15" x14ac:dyDescent="0.25">
       <c r="B51" s="162"/>
     </row>
-    <row r="52" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B52" s="162"/>
     </row>
-    <row r="53" spans="1:23" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:23" ht="15" x14ac:dyDescent="0.25">
       <c r="A53" s="279" t="s">
         <v>495</v>
       </c>
@@ -10418,7 +10463,7 @@
         <v>492</v>
       </c>
     </row>
-    <row r="54" spans="1:23" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:23" ht="15" x14ac:dyDescent="0.25">
       <c r="B54" s="128">
         <v>50</v>
       </c>
@@ -10438,7 +10483,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="55" spans="1:23" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:23" ht="15" x14ac:dyDescent="0.25">
       <c r="B55" s="128">
         <v>200</v>
       </c>
@@ -10457,7 +10502,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="56" spans="1:23" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:23" ht="15" x14ac:dyDescent="0.25">
       <c r="B56" s="128">
         <v>200</v>
       </c>
@@ -10476,7 +10521,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="57" spans="1:23" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:23" ht="15" x14ac:dyDescent="0.25">
       <c r="B57" s="128">
         <v>200</v>
       </c>
@@ -10495,7 +10540,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="58" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B58" s="188">
         <f>1000-50-600</f>
         <v>350</v>
@@ -10515,7 +10560,7 @@
         <v>0.35</v>
       </c>
     </row>
-    <row r="59" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:23" x14ac:dyDescent="0.2">
       <c r="D59" s="116" t="s">
         <v>493</v>
       </c>
@@ -10524,7 +10569,7 @@
         <v>2.1449999999999996</v>
       </c>
     </row>
-    <row r="60" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:23" x14ac:dyDescent="0.2">
       <c r="D60" s="116" t="s">
         <v>494</v>
       </c>
@@ -10533,7 +10578,7 @@
         <v>3.1E-2</v>
       </c>
     </row>
-    <row r="61" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:23" x14ac:dyDescent="0.2">
       <c r="D61" s="116" t="s">
         <v>377</v>
       </c>
@@ -10547,6 +10592,11 @@
     <sortCondition ref="A1"/>
   </sortState>
   <mergeCells count="13">
+    <mergeCell ref="P3:P7"/>
+    <mergeCell ref="P16:P29"/>
+    <mergeCell ref="P13:P15"/>
+    <mergeCell ref="P8:P12"/>
+    <mergeCell ref="E1:K1"/>
     <mergeCell ref="R36:R38"/>
     <mergeCell ref="A15:K15"/>
     <mergeCell ref="J17:J18"/>
@@ -10555,11 +10605,6 @@
     <mergeCell ref="L15:L18"/>
     <mergeCell ref="M15:M17"/>
     <mergeCell ref="N15:N17"/>
-    <mergeCell ref="P3:P7"/>
-    <mergeCell ref="P16:P29"/>
-    <mergeCell ref="P13:P15"/>
-    <mergeCell ref="P8:P12"/>
-    <mergeCell ref="E1:K1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
